--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C96227-543C-4118-A45E-70BF5EA5B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59533F66-3A7B-4F2B-8968-99FB5E50ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24915" yWindow="1500" windowWidth="24855" windowHeight="19110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60450" yWindow="1515" windowWidth="24855" windowHeight="19110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1434">
   <si>
     <t>Name</t>
   </si>
@@ -4349,6 +4349,12 @@
   </si>
   <si>
     <t>Markus, Palmer</t>
+  </si>
+  <si>
+    <t>Iskra</t>
+  </si>
+  <si>
+    <t>Gaming</t>
   </si>
 </sst>
 </file>
@@ -4361,13 +4367,19 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4438,79 +4450,80 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4842,7 +4855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9FB26-5B64-6E4B-B083-51C7918E8024}">
   <dimension ref="A2:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F18" sqref="F18"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -8773,13 +8786,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC386A-9505-4334-96E1-D2FB72597872}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8887,6 +8900,14 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FA16D-C6C6-41C2-9804-E0525DA91E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C02FA2-5A05-424E-B4DE-3D914A146092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51360" yWindow="240" windowWidth="27300" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26400" yWindow="1440" windowWidth="25680" windowHeight="17835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Papers" sheetId="2" r:id="rId2"/>
-    <sheet name="Private" sheetId="3" r:id="rId3"/>
-    <sheet name="Fundraises" sheetId="4" r:id="rId4"/>
+    <sheet name="Glossary" sheetId="5" r:id="rId2"/>
+    <sheet name="Papers" sheetId="2" r:id="rId3"/>
+    <sheet name="Private" sheetId="3" r:id="rId4"/>
+    <sheet name="Fundraises" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1503">
   <si>
     <t>Name</t>
   </si>
@@ -4388,19 +4389,194 @@
   </si>
   <si>
     <t>GameFi</t>
+  </si>
+  <si>
+    <t>elliptic curves</t>
+  </si>
+  <si>
+    <t>Mathematical objects based on ellipse operations.</t>
+  </si>
+  <si>
+    <t>ellipse</t>
+  </si>
+  <si>
+    <t>conic section with the form e=ax^3</t>
+  </si>
+  <si>
+    <t>Koblitz, Neal</t>
+  </si>
+  <si>
+    <t>Miller, Victor</t>
+  </si>
+  <si>
+    <t>ECC discovery in 1985.</t>
+  </si>
+  <si>
+    <t>finite fields</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>prime field</t>
+  </si>
+  <si>
+    <t>modulo</t>
+  </si>
+  <si>
+    <t>binary field</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t>Galois field</t>
+  </si>
+  <si>
+    <t>see finite field</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Bittensor</t>
+  </si>
+  <si>
+    <t>TAO</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>PEPE</t>
+  </si>
+  <si>
+    <t>INJ</t>
+  </si>
+  <si>
+    <t>Mantle</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>Kaspa</t>
+  </si>
+  <si>
+    <t>KAS</t>
+  </si>
+  <si>
+    <t>First Digital USD</t>
+  </si>
+  <si>
+    <t>FDUSD</t>
+  </si>
+  <si>
+    <t>Celestia</t>
+  </si>
+  <si>
+    <t>TIA</t>
+  </si>
+  <si>
+    <t>Arbitrum</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
+    <t>Floki</t>
+  </si>
+  <si>
+    <t>FLOKI</t>
+  </si>
+  <si>
+    <t>Fetch.ai</t>
+  </si>
+  <si>
+    <t>FET</t>
+  </si>
+  <si>
+    <t>Sei</t>
+  </si>
+  <si>
+    <t>SEI</t>
+  </si>
+  <si>
+    <t>dogwifhat</t>
+  </si>
+  <si>
+    <t>WIF</t>
+  </si>
+  <si>
+    <t>Bonk</t>
+  </si>
+  <si>
+    <t>BONK</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>BEAM</t>
+  </si>
+  <si>
+    <t>Sui</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Starknet</t>
+  </si>
+  <si>
+    <t>STRK</t>
+  </si>
+  <si>
+    <t>Ordi</t>
+  </si>
+  <si>
+    <t>ORDI</t>
+  </si>
+  <si>
+    <t>SingularityNET</t>
+  </si>
+  <si>
+    <t>AGIX</t>
+  </si>
+  <si>
+    <t>Flare</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>WLD</t>
+  </si>
+  <si>
+    <t>Bitget</t>
+  </si>
+  <si>
+    <t>BGB</t>
+  </si>
+  <si>
+    <t>Wemix</t>
+  </si>
+  <si>
+    <t>WEMIX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4463,9 +4639,30 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4487,97 +4684,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{49A5F9E5-634A-4FA1-A7F9-1DF343563430}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6B0531D9-DC70-4792-B05E-79D0E7151358}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4596,9 +4803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4636,7 +4843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4742,7 +4949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4884,7 +5091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4900,14 +5107,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9FB26-5B64-6E4B-B083-51C7918E8024}">
-  <dimension ref="A2:K221"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F18" sqref="F18"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4926,6 +5133,12 @@
     <col min="12" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F1" s="5">
+        <f>SUM(F3:F40)</f>
+        <v>2398.3922892140004</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -4969,10 +5182,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="4">
-        <v>23551.53</v>
+        <v>68152.98</v>
       </c>
       <c r="F3" s="5">
-        <v>453.99099999999999</v>
+        <v>1339.010446</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5002,10 +5215,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="4">
-        <v>1614.15</v>
+        <v>3916</v>
       </c>
       <c r="F4" s="5">
-        <v>197.529</v>
+        <v>470.358</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5025,7 +5238,7 @@
         <v>1433</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B143" si="0">B4+1</f>
+        <f t="shared" ref="B5:B49" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5038,7 +5251,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="F5" s="5">
-        <v>67.635000000000005</v>
+        <v>101.848</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -5068,10 +5281,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>314.8</v>
+        <v>484.88</v>
       </c>
       <c r="F6" s="5">
-        <v>49.707999999999998</v>
+        <v>72.507999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5083,23 +5296,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
+        <v>145.78</v>
+      </c>
+      <c r="F7" s="5">
+        <v>64.587999999999994</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>43.116999999999997</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>255</v>
+      <c r="H7" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5117,10 +5329,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="4">
-        <v>0.4123</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="F8" s="5">
-        <v>20.948810999999999</v>
+        <v>34.25217284</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5131,25 +5343,25 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>1436</v>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="4">
-        <v>17.95</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32"/>
+        <v>29.957999999999998</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
@@ -5160,19 +5372,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="F10" s="5">
-        <v>15.785455000000001</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>248</v>
+        <v>25.8674587</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5184,16 +5393,31 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4">
-        <v>0.38869999999999999</v>
+        <v>0.1681</v>
       </c>
       <c r="F11" s="5">
-        <v>13.448</v>
+        <v>24.101165999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="32">
+        <v>41614</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5205,31 +5429,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4">
-        <v>8.9789999999999995E-2</v>
+        <v>3.5660000000000001E-5</v>
       </c>
       <c r="F12" s="5">
-        <v>11.912698948999999</v>
+        <v>20.949750625</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" s="32">
-        <v>41614</v>
+      <c r="J12" s="37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,16 +5459,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4">
-        <v>1.19</v>
+        <v>42.67</v>
       </c>
       <c r="F13" s="5">
-        <v>10.409051</v>
+        <v>16.110036013999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5261,24 +5479,25 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
+      <c r="C14" s="35" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>1436</v>
       </c>
       <c r="E14" s="4">
-        <v>24.53</v>
+        <v>13.42</v>
       </c>
       <c r="F14" s="5">
-        <v>9.1170000000000009</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -5295,10 +5514,10 @@
         <v>23</v>
       </c>
       <c r="E15" s="4">
-        <v>6.59</v>
+        <v>10.69</v>
       </c>
       <c r="F15" s="5">
-        <v>7.5940000000000003</v>
+        <v>13.765000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5310,22 +5529,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4">
-        <v>94.96</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="F16" s="5">
-        <v>6.8525710000000002</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>258</v>
+        <v>12.05695787</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -5337,16 +5550,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4">
-        <v>20.65</v>
+        <v>19.82</v>
       </c>
       <c r="F17" s="5">
-        <v>6.4996962119999999</v>
+        <v>11.632261899</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -5358,25 +5571,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4">
-        <v>1.203E-5</v>
+        <v>1.19</v>
       </c>
       <c r="F18" s="5">
-        <v>5.9021992159999996</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>4</v>
+        <v>10.409051</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -5387,20 +5591,17 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
+      <c r="C19" s="35" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>1435</v>
       </c>
       <c r="E19" s="4">
-        <v>0.99980000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="F19" s="5">
-        <v>5.8384200000000002</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>248</v>
+        <v>9.7144720000000007</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -5412,16 +5613,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4">
-        <v>6.3589999999999994E-2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>5.8400432230000003</v>
+        <v>15.785455000000001</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -5439,10 +5643,10 @@
         <v>47</v>
       </c>
       <c r="E21" s="4">
-        <v>6.9</v>
+        <v>14.79</v>
       </c>
       <c r="F21" s="5">
-        <v>5.2607264819999999</v>
+        <v>8.8526779999999992</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>1443</v>
@@ -5457,20 +5661,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4">
-        <f>+E3</f>
-        <v>23551.53</v>
+        <v>446.94</v>
       </c>
       <c r="F22" s="5">
-        <v>4.1390000000000002</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>416</v>
+        <v>8.7884523689999998</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -5482,16 +5685,22 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="E23" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3.8957090000000001</v>
+        <v>14.67</v>
+      </c>
+      <c r="F23" s="41">
+        <v>6.7500270000000002</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -5503,16 +5712,22 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E24" s="4">
-        <v>7.36</v>
+        <v>89.07</v>
       </c>
       <c r="F24" s="5">
-        <v>3.7361053179999999</v>
+        <v>6.6169815420000004</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -5524,16 +5739,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="E25" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="F25" s="5">
-        <v>3.4982985489999998</v>
+        <v>11.73</v>
+      </c>
+      <c r="F25" s="41">
+        <v>6.1171023550000001</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -5545,19 +5763,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4">
-        <v>183.13</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3.3389980000000001</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>1442</v>
+        <v>5.79</v>
+      </c>
+      <c r="F26" s="41">
+        <v>6.0409480000000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -5575,10 +5790,10 @@
         <v>57</v>
       </c>
       <c r="E27" s="4">
-        <v>22.32</v>
+        <v>38.67</v>
       </c>
       <c r="F27" s="5">
-        <v>3.106612336</v>
+        <v>5.643999</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5592,17 +5807,17 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>1435</v>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E28" s="4">
-        <v>2.4900000000000002</v>
+        <v>5.85</v>
       </c>
       <c r="F28" s="5">
-        <v>3.0391645710000001</v>
+        <v>5.4266399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -5614,19 +5829,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E29" s="4">
-        <v>136.68</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="F29" s="5">
-        <v>2.6370773280000002</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>1441</v>
+        <v>5.3496259999999998</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -5638,82 +5853,70 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4">
-        <v>9.3539999999999998E-2</v>
+        <v>13.38</v>
       </c>
       <c r="F30" s="5">
-        <v>2.457550795</v>
+        <v>5.2119499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>156</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="E31" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="F31" s="10">
-        <v>2.3761779999999999</v>
+        <v>3.37</v>
+      </c>
+      <c r="F31" s="41">
+        <v>4.6734809999999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>166</v>
+      <c r="C32" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>1460</v>
       </c>
       <c r="E32" s="4">
-        <v>5.87</v>
-      </c>
-      <c r="F32" s="10">
-        <v>2.2702670390000002</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>1444</v>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F32" s="41">
+        <v>4.5462999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>43</v>
+      <c r="C33" s="39" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>1462</v>
       </c>
       <c r="E33" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="F33" s="10">
-        <v>2.1953932429999998</v>
+        <v>691.91</v>
+      </c>
+      <c r="F33" s="41">
+        <v>4.4080000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5725,16 +5928,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="E34" s="4">
-        <v>8.208E-2</v>
-      </c>
-      <c r="F34" s="10">
-        <v>2.0736829999999999</v>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F34" s="41">
+        <v>4.4109999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -5746,40 +5949,34 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="E35" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="F35" s="10">
-        <v>2.017042</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>1440</v>
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="F35" s="41">
+        <v>4.2539999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="E36" s="4">
-        <v>0.2641</v>
-      </c>
-      <c r="F36" s="17">
-        <v>1.9015553000000001</v>
+        <v>2.83</v>
+      </c>
+      <c r="F36" s="41">
+        <v>4.0940779999999997</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -5791,64 +5988,53 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4">
-        <v>151.72</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1.831658</v>
+        <v>0.1419</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4.0619750000000003</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A38" s="35"/>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
+      <c r="C38" s="39" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>1464</v>
       </c>
       <c r="E38" s="4">
-        <v>2.4549999999999999E-2</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1.779811</v>
+        <v>9.285E-6</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3.8969909999999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>169</v>
+      <c r="C39" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E39" s="4">
-        <v>6.13</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1.7434467890000001</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>251</v>
+        <v>11.09</v>
+      </c>
+      <c r="F39" s="41">
+        <v>4.1948319999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5860,41 +6046,41 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4">
-        <v>6.8559999999999996E-2</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1.735889</v>
+        <f>+E3</f>
+        <v>68152.98</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A41" s="35"/>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>167</v>
+      <c r="C41" s="39" t="s">
+        <v>978</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>1465</v>
       </c>
       <c r="E41" s="4">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1.4628623110000001</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>1444</v>
-      </c>
+        <v>41.71</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3.8956</v>
+      </c>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
@@ -5904,17 +6090,17 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>74</v>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="E42" s="4">
-        <v>87.67</v>
-      </c>
-      <c r="F42" s="10">
-        <v>1.235606193</v>
+        <v>58.87</v>
+      </c>
+      <c r="F42" s="41">
+        <v>3.532</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -5926,61 +6112,54 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E43" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="F43" s="10">
-        <v>1.2329603170000001</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>1444</v>
+        <v>4.7739999999999998E-2</v>
+      </c>
+      <c r="F43" s="41">
+        <v>3.471651</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A44" s="35"/>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>1437</v>
+      <c r="C44" s="39" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>1467</v>
       </c>
       <c r="E44" s="4">
-        <v>0.57340000000000002</v>
-      </c>
-      <c r="F44" s="10">
-        <v>1.1986702490000001</v>
+        <v>1.06</v>
+      </c>
+      <c r="F44" s="41">
+        <v>3.4414159999999998</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A45" s="35"/>
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>61</v>
+      <c r="C45" s="39" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>1469</v>
       </c>
       <c r="E45" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1.138213669</v>
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="F45" s="41">
+        <v>3.452391</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -5992,40 +6171,35 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E46" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F46" s="10">
-        <v>1.0770200000000001</v>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F46" s="41">
+        <v>3.4385110000000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A47" s="35"/>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>172</v>
+      <c r="C47" s="39" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>1471</v>
       </c>
       <c r="E47" s="4">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="F47" s="10">
-        <v>1.181127322</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>1439</v>
+        <v>1</v>
+      </c>
+      <c r="F47" s="41">
+        <v>3.304913</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -6037,16 +6211,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="E48" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1.1945250000000001</v>
+        <v>3.42</v>
+      </c>
+      <c r="F48" s="41">
+        <v>3.0486780000000002</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -6057,83 +6231,71 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>1438</v>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E49" s="4">
-        <v>45.18</v>
+        <v>3.05</v>
       </c>
       <c r="F49" s="10">
-        <v>1.1174493809999999</v>
+        <v>3.0510090000000001</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B50:B119" si="1">B49+1</f>
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E50" s="4">
-        <v>1.1100000000000001</v>
+        <v>45.88</v>
       </c>
       <c r="F50" s="10">
-        <v>1.11297</v>
+        <v>3.0104519999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>418</v>
+      <c r="C51" s="39" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>1473</v>
       </c>
       <c r="E51" s="4">
-        <v>1.7450000000000001E-4</v>
-      </c>
-      <c r="F51" s="17">
-        <v>1.0407921170000001</v>
+        <v>16.32</v>
+      </c>
+      <c r="F51" s="10">
+        <v>2.7634949999999998</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>180</v>
+      <c r="C52" s="39" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>1475</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="F52" s="10">
-        <v>0.94432756500000004</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>248</v>
+        <v>2.7229999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -6141,95 +6303,79 @@
         <v>1433</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0.1389</v>
+        <v>51</v>
+      </c>
+      <c r="E53" s="4">
+        <v>148.1</v>
       </c>
       <c r="F53" s="10">
-        <v>0.92534499999999997</v>
+        <v>2.726245</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A54" s="35"/>
       <c r="B54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>191</v>
+      <c r="C54" s="39" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>1477</v>
       </c>
       <c r="E54" s="4">
-        <v>1</v>
+        <v>2.566E-4</v>
       </c>
       <c r="F54" s="10">
-        <v>0.87904899999999997</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>248</v>
-      </c>
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="38">
-        <v>44.07</v>
+        <v>184</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7.25</v>
       </c>
       <c r="F55" s="10">
-        <v>0.84909268800000004</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>1441</v>
+        <v>2.4660000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
-        <v>1433</v>
-      </c>
       <c r="B56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>174</v>
+      <c r="C56" s="39" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>1479</v>
       </c>
       <c r="E56" s="4">
-        <v>8.25</v>
+        <v>2.92</v>
       </c>
       <c r="F56" s="10">
-        <v>0.81166000000000005</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>1443</v>
+        <v>2.4460000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -6237,44 +6383,39 @@
         <v>1433</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E57" s="4">
-        <v>47.36</v>
+        <v>0.81689999999999996</v>
       </c>
       <c r="F57" s="10">
-        <v>0.83311634999999995</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>1442</v>
+        <v>2.290152</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A58" s="35"/>
       <c r="B58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>186</v>
+      <c r="C58" s="39" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>1481</v>
       </c>
       <c r="E58" s="4">
-        <v>7.3669999999999997E-7</v>
+        <v>0.90290000000000004</v>
       </c>
       <c r="F58" s="10">
-        <v>0.70064084699999996</v>
+        <v>2.3010000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -6282,104 +6423,105 @@
         <v>1433</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="18">
-        <v>3.7200000000000003E-5</v>
+        <v>187</v>
+      </c>
+      <c r="E59" s="38">
+        <v>116.77</v>
       </c>
       <c r="F59" s="10">
-        <v>0.71774300000000002</v>
+        <v>2.29522</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A60" s="35"/>
       <c r="B60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0.9929</v>
+      <c r="C60" s="39" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E60" s="38">
+        <v>2.1</v>
       </c>
       <c r="F60" s="10">
-        <v>0.72014599999999995</v>
-      </c>
+        <v>2.0998939999999999</v>
+      </c>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="35" t="s">
         <v>1433</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="E61" s="4">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0.66539700000000002</v>
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="F61" s="17">
+        <v>2.158083</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A62" s="35"/>
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>182</v>
+      <c r="C62" s="39" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>1485</v>
       </c>
       <c r="E62" s="4">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="F62" s="10">
-        <v>0.82979899999999995</v>
+        <v>3.1579999999999999E-5</v>
+      </c>
+      <c r="F62" s="17">
+        <v>2.0670929999999998</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="35" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A63" s="35"/>
       <c r="B63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>185</v>
+      <c r="C63" s="39" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>1487</v>
       </c>
       <c r="E63" s="4">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="F63" s="10">
-        <v>0.839368263</v>
+        <v>3.9129999999999998E-2</v>
+      </c>
+      <c r="F63" s="17">
+        <v>2.0497589999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -6387,49 +6529,46 @@
         <v>1433</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0.33350000000000002</v>
-      </c>
-      <c r="F64" s="11">
-        <v>0.22685149199999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1.9841420000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>201</v>
+      <c r="C65" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="E65" s="4">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="F65" s="10">
-        <v>0.69644676699999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.983738118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
         <v>1433</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -6439,2687 +6578,3220 @@
         <v>179</v>
       </c>
       <c r="E66" s="4">
-        <v>671.66</v>
+        <v>2114.6999999999998</v>
       </c>
       <c r="F66" s="10">
-        <v>0.65663952299999995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.953042717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>1433</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>79</v>
+      <c r="C67" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E67" s="4">
-        <v>0.20610000000000001</v>
+        <v>130.47999999999999</v>
       </c>
       <c r="F67" s="10">
-        <v>0.63667726499999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>1.925249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="35"/>
       <c r="B68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>240</v>
+      <c r="C68" s="42" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>1489</v>
       </c>
       <c r="E68" s="4">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
       <c r="F68" s="10">
-        <v>0.61030981299999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.88662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="35" t="s">
         <v>1433</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E69" s="4">
-        <v>8.3800000000000008</v>
+        <v>1.855E-6</v>
       </c>
       <c r="F69" s="10">
-        <v>0.59127551499999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>1.7958689999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="35"/>
       <c r="B70" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>196</v>
+      <c r="C70" s="39" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>1497</v>
       </c>
       <c r="E70" s="4">
-        <v>0.4753</v>
+        <v>4.1489999999999999E-2</v>
       </c>
       <c r="F70" s="10">
-        <v>1.3181784620000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.4440120000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>1433</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="0"/>
+        <f>B80+1</f>
+        <v>70</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="4">
+        <v>66.84</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1.782637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="35"/>
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1.6901729999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="35"/>
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E73" s="4">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="F73" s="10">
+        <v>1.6525319999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="35"/>
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="F74" s="10">
+        <v>1.6659999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="F75" s="10">
+        <v>1.5618300000000001</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="4">
+        <v>123.33</v>
+      </c>
+      <c r="F76" s="10">
+        <v>1.488364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="4">
+        <v>10.71</v>
+      </c>
+      <c r="F77" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="H77" s="37" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="F78" s="10">
+        <v>1.4628623110000001</v>
+      </c>
+      <c r="H78" s="37" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="4">
+        <v>15.19</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1.462977</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B80" s="1">
+        <f>B70+1</f>
+        <v>69</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1.3569290000000001</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B81" s="1">
+        <f>B79+1</f>
+        <v>79</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="F81" s="10">
+        <v>1.1986702490000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="F82" s="10">
+        <v>1.414088813</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B83" s="1">
+        <f>B89+1</f>
+        <v>87</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E83" s="18">
+        <v>7.2589999999999994E-5</v>
+      </c>
+      <c r="F83" s="10">
+        <v>1.4269419999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B84" s="1">
+        <f>B82+1</f>
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F84" s="10">
+        <v>1.1945250000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="C85" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.9570000000000001E-4</v>
+      </c>
+      <c r="F85" s="17">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="10">
+        <v>0.94432756500000004</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.1389</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0.92534499999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0.87904899999999997</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="4">
+        <v>34.99</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0.57188935200000002</v>
+      </c>
+      <c r="H89" s="37" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <f>B83+1</f>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" s="4">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1.2050000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.9929</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0.72014599999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F93" s="10">
+        <v>0.66539700000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0.82979899999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0.22685149199999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0.87511399999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0.63667726499999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0.61030981299999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="4">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="F99" s="10">
+        <v>1.2310000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="35" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E71" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F71" s="10">
-        <v>0.40344040599999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="35" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B72" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="E100" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F100" s="10">
+        <v>1.446615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="35"/>
+      <c r="B101" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="39" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E101" s="4">
+        <v>9.08</v>
+      </c>
+      <c r="F101" s="10">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="35"/>
+      <c r="B102" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="F103" s="10">
+        <v>1.0895980000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <f>B111+1</f>
+        <v>109</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="4">
+        <v>3.5189999999999999E-2</v>
+      </c>
+      <c r="F104" s="10">
+        <v>0.61134288400000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="1">
+        <f>B103+1</f>
+        <v>102</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1659.87</v>
+      </c>
+      <c r="F105" s="10">
+        <v>0.53980675300000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0.51052593199999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="F107" s="10">
+        <v>0.498732234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0.4798</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0.47984337799999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.3014</v>
+      </c>
+      <c r="F109" s="10">
+        <v>0.45076466500000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F110" s="10">
+        <v>0.44902305300000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="4">
+        <v>40.61</v>
+      </c>
+      <c r="F111" s="10">
+        <v>0.44337546999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
+        <f>B104+1</f>
+        <v>110</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="F112" s="10">
+        <v>0.41965282799999998</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E113" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0.43095742300000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" s="1">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E114" s="4">
+        <v>3.9759999999999997E-2</v>
+      </c>
+      <c r="F114" s="10">
+        <v>0.41637566399999998</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0.40336259400000002</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" s="4">
+        <v>55.07</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0.400227634</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="F117" s="10">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0.38138114899999997</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
+        <f>B125+1</f>
+        <v>123</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E120" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F120" s="24">
+        <v>0.78465099999999999</v>
+      </c>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="1">
+        <f>B119+1</f>
+        <v>118</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="F121" s="10">
+        <v>0.37034398000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" s="1">
+        <f t="shared" ref="B122:B142" si="2">B121+1</f>
+        <v>119</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122" s="4">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="F122" s="10">
+        <v>0.36007262400000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="F123" s="10">
+        <v>0.352850041</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E124" s="4">
+        <v>24.52</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0.35219167299999998</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="20">
+        <v>2.016E-3</v>
+      </c>
+      <c r="F125" s="21">
+        <v>0.34953241899999998</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <f>B120+1</f>
+        <v>124</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="F126" s="10">
+        <v>0.34624524499999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D127" s="39" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E127" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="F127" s="10">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B128" s="1">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="F128" s="10">
+        <v>0.34624524499999998</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="1">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E129" s="23">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F129" s="24">
+        <v>0.337076604</v>
+      </c>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="1">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E130" s="20">
+        <v>423.74</v>
+      </c>
+      <c r="F130" s="21">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B131" s="1">
+        <f>B137+1</f>
+        <v>135</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E131" s="4">
+        <v>5.19</v>
+      </c>
+      <c r="F131" s="10">
+        <v>0.54332366700000001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
+        <f>B130+1</f>
+        <v>129</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E132" s="4">
+        <v>2.6669999999999999E-2</v>
+      </c>
+      <c r="F132" s="10">
+        <v>0.32811815700000002</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E133" s="20">
+        <v>158.65</v>
+      </c>
+      <c r="F133" s="21">
+        <v>0.32093474100000002</v>
+      </c>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B134" s="1">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E134" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="F134" s="10">
+        <v>0.32049229000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E135" s="4">
+        <v>3.2379999999999999E-2</v>
+      </c>
+      <c r="F135" s="10">
+        <v>0.31784597999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E136" s="4">
+        <v>8392.2800000000007</v>
+      </c>
+      <c r="F136" s="10">
+        <v>0.30747406900000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="F137" s="10">
+        <v>0.30000935699999998</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" s="1">
+        <f>B131+1</f>
+        <v>136</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E138" s="4">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F138" s="10">
+        <v>0.29374433599999999</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B139" s="1">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E139" s="4">
+        <v>3.0290000000000001E-2</v>
+      </c>
+      <c r="F139" s="10">
+        <v>0.29265611899999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="1">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E140" s="4">
+        <v>5.7360000000000001E-2</v>
+      </c>
+      <c r="F140" s="10">
+        <v>0.28834567100000003</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1.87829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="1">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1.64</v>
-      </c>
-      <c r="F73" s="10">
-        <v>0.541926927</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="1">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1659.87</v>
-      </c>
-      <c r="F74" s="10">
-        <v>0.53980675300000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="1">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="F75" s="10">
-        <v>0.51052593199999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="1">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E76" s="4">
-        <v>0.89059999999999995</v>
-      </c>
-      <c r="F76" s="10">
-        <v>0.498732234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="1">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E77" s="4">
-        <v>0.4798</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0.47984337799999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="1">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0.3014</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0.45076466500000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="1">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E79" s="4">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F79" s="10">
-        <v>0.44902305300000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="1">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" s="4">
-        <v>40.61</v>
-      </c>
-      <c r="F80" s="10">
-        <v>0.44337546999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="1">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E81" s="4">
-        <v>0.32950000000000002</v>
-      </c>
-      <c r="F81" s="10">
-        <v>0.43961704899999998</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E82" s="4">
-        <v>3.1850000000000003E-2</v>
-      </c>
-      <c r="F82" s="10">
-        <v>0.42411104399999999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="1">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E83" s="4">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="F83" s="10">
-        <v>0.41965282799999998</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="1">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E84" s="4">
-        <v>3.94</v>
-      </c>
-      <c r="F84" s="10">
-        <v>0.43095742300000001</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="1">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E85" s="4">
-        <v>3.9759999999999997E-2</v>
-      </c>
-      <c r="F85" s="10">
-        <v>0.41637566399999998</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="1">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0.30320000000000003</v>
-      </c>
-      <c r="F86" s="10">
-        <v>0.40336259400000002</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="1">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E87" s="4">
-        <v>55.07</v>
-      </c>
-      <c r="F87" s="10">
-        <v>0.400227634</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="1">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F88" s="10">
-        <v>0.39986042700000002</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="1">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="F89" s="10">
-        <v>0.38138114899999997</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="1">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F90" s="10">
-        <v>0.37564811799999998</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="1">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" s="4">
-        <v>0.61719999999999997</v>
-      </c>
-      <c r="F91" s="10">
-        <v>0.37034398000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E92" s="4">
-        <v>21.11</v>
-      </c>
-      <c r="F92" s="10">
-        <v>0.36976415400000001</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="1">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="4">
-        <v>4.0009999999999997E-2</v>
-      </c>
-      <c r="F93" s="10">
-        <v>0.36007262400000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="1">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0.76319999999999999</v>
-      </c>
-      <c r="F94" s="10">
-        <v>0.352850041</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="1">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E95" s="4">
-        <v>24.52</v>
-      </c>
-      <c r="F95" s="10">
-        <v>0.35219167299999998</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="19">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" s="20">
-        <v>2.016E-3</v>
-      </c>
-      <c r="F96" s="21">
-        <v>0.34953241899999998</v>
-      </c>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-    </row>
-    <row r="97" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="16">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E97" s="23">
-        <v>2.73</v>
-      </c>
-      <c r="F97" s="24">
-        <v>0.34847628000000003</v>
-      </c>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="16">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E98" s="4">
-        <v>0.59250000000000003</v>
-      </c>
-      <c r="F98" s="10">
-        <v>0.34624524499999998</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="16">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E99" s="4">
+      <c r="C141" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E141" s="4">
         <v>1.45</v>
       </c>
-      <c r="F99" s="10">
-        <v>0.34624524499999998</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="16">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E100" s="23">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F100" s="24">
-        <v>0.337076604</v>
-      </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-    </row>
-    <row r="101" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="19">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" s="20">
-        <v>128.35</v>
-      </c>
-      <c r="F101" s="21">
-        <v>0.33109841200000001</v>
-      </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B102" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E102" s="4">
-        <v>2.6669999999999999E-2</v>
-      </c>
-      <c r="F102" s="10">
-        <v>0.32811815700000002</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" s="16">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E103" s="4">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="F103" s="10">
-        <v>0.32132746299999998</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="19">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="E104" s="20">
-        <v>158.65</v>
-      </c>
-      <c r="F104" s="21">
-        <v>0.32093474100000002</v>
-      </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="16">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E105" s="4">
-        <v>4.74</v>
-      </c>
-      <c r="F105" s="10">
-        <v>0.32049229000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="16">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E106" s="4">
-        <v>3.2379999999999999E-2</v>
-      </c>
-      <c r="F106" s="10">
-        <v>0.31784597999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="16">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E107" s="4">
-        <v>8392.2800000000007</v>
-      </c>
-      <c r="F107" s="10">
-        <v>0.30747406900000002</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="16">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E108" s="4">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="F108" s="10">
-        <v>0.30000935699999998</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="16">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E109" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="F109" s="10">
-        <v>0.29977567399999999</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="16">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110" s="4">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F110" s="10">
-        <v>0.29374433599999999</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="16">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E111" s="4">
-        <v>3.0290000000000001E-2</v>
-      </c>
-      <c r="F111" s="10">
-        <v>0.29265611899999999</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="16">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E112" s="4">
-        <v>5.7360000000000001E-2</v>
-      </c>
-      <c r="F112" s="10">
-        <v>0.28834567100000003</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="16">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E113" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="F113" s="10">
+      <c r="F141" s="10">
         <v>0.28805449599999999</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="16">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="C114" s="1" t="s">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E142" s="4">
         <v>0.27879999999999999</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F142" s="10">
         <v>0.27881266300000002</v>
       </c>
-      <c r="H114" s="15" t="s">
+      <c r="H142" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="16">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B143" s="1">
+        <f t="shared" ref="B143:B185" si="3">B142+1</f>
         <v>141</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E143" s="4">
         <v>5.1619999999999999E-2</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F143" s="10">
         <v>0.27364821299999997</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="16">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="C116" s="1" t="s">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B144" s="1">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E144" s="4">
         <v>9.1170000000000001E-3</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F144" s="10">
         <v>0.38498529799999998</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E117" s="4">
-        <v>3.2759999999999997E-2</v>
-      </c>
-      <c r="F117" s="10">
-        <v>0.31274848100000002</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="16">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E118" s="4">
-        <v>5.7919999999999999E-2</v>
-      </c>
-      <c r="F118" s="10">
-        <v>0.30391054899999997</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="16">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E119" s="4">
-        <v>0.31430000000000002</v>
-      </c>
-      <c r="F119" s="10">
-        <v>0.291509511</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="16">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E120" s="4">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F120" s="10">
-        <v>0.29080200699999997</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="16">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E121" s="4">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="F121" s="10">
-        <v>0.28856063999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="16">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E122" s="4">
-        <v>3.041E-2</v>
-      </c>
-      <c r="F122" s="10">
-        <v>0.27075048800000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="16">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E123" s="4">
-        <v>0.2848</v>
-      </c>
-      <c r="F123" s="10">
-        <v>0.26174855299999999</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="16">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E124" s="4">
-        <v>0.30859999999999999</v>
-      </c>
-      <c r="F124" s="10">
-        <v>0.26134750499999998</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="16">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E125" s="4">
-        <v>0.65759999999999996</v>
-      </c>
-      <c r="F125" s="10">
-        <v>0.26130524900000002</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="16">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="F126" s="10">
-        <v>0.26005180300000003</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="16">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E127" s="4">
-        <v>12.73</v>
-      </c>
-      <c r="F127" s="10">
-        <v>0.257539927</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="16">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E128" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="F128" s="10">
-        <v>0.25512378000000002</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="16">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E129" s="4">
-        <v>1.3679999999999999E-2</v>
-      </c>
-      <c r="F129" s="10">
-        <v>0.25402531299999997</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="16">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E130" s="4">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="F130" s="10">
-        <v>0.24884577099999999</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="16">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E131" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F131" s="10">
-        <v>0.24021580300000001</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="16">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E132" s="4">
-        <v>5.71</v>
-      </c>
-      <c r="F132" s="10">
-        <v>0.232870568</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="16">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E133" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F133" s="10">
-        <v>0.22321063799999999</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="16">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E134" s="4">
-        <v>4.2900000000000004E-3</v>
-      </c>
-      <c r="F134" s="10">
-        <v>0.220735494</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="16">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E135" s="4">
-        <v>0.25209999999999999</v>
-      </c>
-      <c r="F135" s="10">
-        <v>0.220732868</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="16">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0.10290000000000001</v>
-      </c>
-      <c r="F136" s="10">
-        <v>0.217787708</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" s="16">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E137" s="4">
-        <v>17.11</v>
-      </c>
-      <c r="F137" s="10">
-        <v>0.21617287800000001</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="16">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E138" s="4">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="F138" s="10">
-        <v>0.21500584</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" s="16">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E139" s="4">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F139" s="10">
-        <v>0.206020693</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="16">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E140" s="4">
-        <v>0.18990000000000001</v>
-      </c>
-      <c r="F140" s="10">
-        <v>0.20395511</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="16">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E141" s="4">
-        <v>0.46229999999999999</v>
-      </c>
-      <c r="F141" s="10">
-        <v>0.203682638</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="16">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E142" s="4">
-        <v>0.20219999999999999</v>
-      </c>
-      <c r="F142" s="10">
-        <v>0.202452576</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="16">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E143" s="4">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="F143" s="10">
-        <v>0.20110444999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" s="1">
-        <f t="shared" ref="B144:B208" si="1">B143+1</f>
-        <v>142</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E144" s="4">
-        <v>3.6139999999999999E-7</v>
-      </c>
-      <c r="F144" s="10">
-        <v>0.199271797</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="E145" s="4">
-        <v>0.40229999999999999</v>
+        <v>3.2759999999999997E-2</v>
       </c>
       <c r="F145" s="10">
-        <v>0.19770173499999999</v>
+        <v>0.31274848100000002</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>293</v>
+      <c r="C146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="E146" s="4">
-        <v>0.24490000000000001</v>
+        <v>5.7919999999999999E-2</v>
       </c>
       <c r="F146" s="10">
-        <v>0.19735651000000001</v>
+        <v>0.30391054899999997</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>294</v>
+        <v>129</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E147" s="4">
-        <v>5.3719999999999997E-2</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="F147" s="10">
-        <v>0.19538077000000001</v>
+        <v>0.291509511</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>296</v>
+      <c r="C148" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="E148" s="4">
-        <v>42.14</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F148" s="10">
-        <v>0.19337663399999999</v>
+        <v>0.29080200699999997</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>297</v>
+      <c r="C149" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="E149" s="4">
-        <v>2.88</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="F149" s="10">
-        <v>0.19296803800000001</v>
+        <v>0.28856063999999998</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>299</v>
+      <c r="C150" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="E150" s="4">
-        <v>0.21260000000000001</v>
+        <v>3.041E-2</v>
       </c>
       <c r="F150" s="10">
-        <v>0.19115043600000001</v>
+        <v>0.27075048800000001</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>300</v>
+        <v>135</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="E151" s="4">
-        <v>1.1399999999999999</v>
+        <v>0.2848</v>
       </c>
       <c r="F151" s="10">
-        <v>0.18681077500000001</v>
+        <v>0.26174855299999999</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>302</v>
+      <c r="C152" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E152" s="4">
-        <v>4.3470000000000002E-3</v>
+        <v>0.30859999999999999</v>
       </c>
       <c r="F152" s="10">
-        <v>0.18664656499999999</v>
+        <v>0.26134750499999998</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="E153" s="4">
-        <v>6.7199999999999998E-7</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="F153" s="10">
-        <v>0.18636437</v>
+        <v>0.26130524900000002</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>305</v>
+      <c r="C154" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="E154" s="4">
-        <v>24.25</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F154" s="10">
-        <v>0.17454940199999999</v>
+        <v>0.26005180300000003</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>307</v>
+      <c r="C155" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="E155" s="4">
-        <v>1.35</v>
+        <v>12.73</v>
       </c>
       <c r="F155" s="10">
-        <v>0.171127055</v>
+        <v>0.257539927</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>310</v>
+      <c r="C156" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E156" s="4">
-        <v>3.1309999999999998E-2</v>
+        <v>1.44</v>
       </c>
       <c r="F156" s="10">
-        <v>0.17039283699999999</v>
+        <v>0.25512378000000002</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
-        <f>B108+1</f>
-        <v>107</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>312</v>
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E157" s="4">
-        <v>1.0749999999999999E-2</v>
+        <v>1.3679999999999999E-2</v>
       </c>
       <c r="F157" s="10">
-        <v>0.166817468</v>
+        <v>0.25402531299999997</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>156</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="E158" s="4">
-        <v>0.38669999999999999</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="F158" s="10">
-        <v>0.16365843199999999</v>
+        <v>0.24884577099999999</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>316</v>
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="E159" s="4">
-        <v>0.62070000000000003</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="F159" s="10">
-        <v>0.15597830700000001</v>
+        <v>0.24021580300000001</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>158</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="E160" s="4">
-        <v>0.14549999999999999</v>
+        <v>5.71</v>
       </c>
       <c r="F160" s="10">
-        <v>0.14537486599999999</v>
+        <v>0.232870568</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>319</v>
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E161" s="4">
-        <v>1.1299999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F161" s="10">
-        <v>0.14514666400000001</v>
+        <v>0.22321063799999999</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
-        <f t="shared" si="1"/>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="E162" s="4">
-        <v>0.14419999999999999</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="F162" s="10">
-        <v>0.14409846800000001</v>
+        <v>0.220735494</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>323</v>
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="E163" s="4">
-        <v>0.1804</v>
+        <v>0.25209999999999999</v>
       </c>
       <c r="F163" s="10">
-        <v>0.14333210699999999</v>
+        <v>0.220732868</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>325</v>
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="E164" s="4">
-        <v>2.15</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="F164" s="10">
-        <v>0.14090971099999999</v>
+        <v>0.217787708</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>327</v>
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E165" s="4">
-        <v>1.4</v>
+        <v>17.11</v>
       </c>
       <c r="F165" s="10">
-        <v>0.139513416</v>
+        <v>0.21617287800000001</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>164</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="E166" s="4">
-        <v>0.29870000000000002</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F166" s="10">
-        <v>0.139513416</v>
+        <v>0.206020693</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>330</v>
+        <f>B103+1</f>
+        <v>102</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="E167" s="4">
-        <v>0.50900000000000001</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="F167" s="10">
-        <v>0.13805571</v>
+        <v>0.203682638</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>332</v>
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E168" s="4">
-        <v>4.143E-3</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="F168" s="10">
-        <v>0.13791399600000001</v>
+        <v>0.202452576</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="E169" s="4">
-        <v>2.6890000000000001E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="F169" s="10">
-        <v>0.136491687</v>
+        <v>0.20110444999999999</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="E170" s="4">
-        <v>1.933E-2</v>
+        <v>3.6139999999999999E-7</v>
       </c>
       <c r="F170" s="10">
-        <v>0.135654096</v>
+        <v>0.199271797</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>338</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>339</v>
+        <v>159</v>
       </c>
       <c r="E171" s="4">
-        <v>0.18440000000000001</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="F171" s="10">
-        <v>0.13342649000000001</v>
+        <v>0.19770173499999999</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="E172" s="4">
-        <v>0.18890000000000001</v>
+        <v>0.24490000000000001</v>
       </c>
       <c r="F172" s="10">
-        <v>0.132814986</v>
+        <v>0.19735651000000001</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="1">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>342</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E173" s="4">
-        <v>0.95650000000000002</v>
+        <v>0.1019</v>
       </c>
       <c r="F173" s="10">
-        <v>0.12730638799999999</v>
+        <v>0.52775393699999995</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
-        <f>B28+1</f>
-        <v>27</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="E174" s="4">
-        <v>23.66</v>
-      </c>
-      <c r="F174" s="5">
-        <v>3.1693535279999998</v>
+        <v>52.4</v>
+      </c>
+      <c r="F174" s="10">
+        <v>0.52921916099999999</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" s="1">
-        <f>B173+1</f>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E175" s="4">
-        <v>0.39290000000000003</v>
+        <v>2.88</v>
       </c>
       <c r="F175" s="10">
-        <v>0.12376409200000001</v>
+        <v>0.19296803800000001</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="1">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="E176" s="4">
-        <v>4.249E-2</v>
+        <v>0.21260000000000001</v>
       </c>
       <c r="F176" s="10">
-        <v>0.12368742100000001</v>
+        <v>0.19115043600000001</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>243</v>
+        <v>152</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="E177" s="4">
-        <v>0.53439999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F177" s="10">
-        <v>0.122667151</v>
+        <v>0.18681077500000001</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
-        <f t="shared" si="1"/>
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="E178" s="4">
-        <v>4.2380000000000001E-2</v>
+        <v>4.3470000000000002E-3</v>
       </c>
       <c r="F178" s="10">
-        <v>0.121920311</v>
+        <v>0.18664656499999999</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="E179" s="4">
-        <v>0.1202</v>
+        <v>6.7199999999999998E-7</v>
       </c>
       <c r="F179" s="10">
-        <v>0.120184343</v>
+        <v>0.18636437</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="E180" s="4">
-        <v>1.236E-4</v>
+        <v>24.25</v>
       </c>
       <c r="F180" s="10">
-        <v>0.11883542499999999</v>
+        <v>0.17454940199999999</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>116</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="E181" s="4">
-        <v>5.6680000000000001E-2</v>
+        <v>1.35</v>
       </c>
       <c r="F181" s="10">
-        <v>0.11849712699999999</v>
+        <v>0.171127055</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" s="1">
-        <f t="shared" si="1"/>
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="E182" s="4">
-        <v>6.2680000000000001E-3</v>
+        <v>3.1309999999999998E-2</v>
       </c>
       <c r="F182" s="10">
-        <v>0.11766072499999999</v>
+        <v>0.17039283699999999</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" s="1">
-        <f t="shared" si="1"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>118</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="E183" s="4">
-        <v>0.24179999999999999</v>
+        <v>1.0749999999999999E-2</v>
       </c>
       <c r="F183" s="10">
-        <v>0.117367633</v>
+        <v>0.166817468</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
-        <f t="shared" si="1"/>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>119</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="E184" s="4">
-        <v>0.41560000000000002</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="F184" s="10">
-        <v>0.115746405</v>
+        <v>0.16365843199999999</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" s="1">
-        <f t="shared" si="1"/>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="E185" s="4">
-        <v>0.38019999999999998</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="F185" s="10">
-        <v>0.113343336</v>
+        <v>0.14537486599999999</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
-        <f t="shared" si="1"/>
-        <v>135</v>
+        <f t="shared" ref="B186:B238" si="4">B185+1</f>
+        <v>121</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="E186" s="4">
-        <v>0.1842</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F186" s="10">
-        <v>0.11296250200000001</v>
+        <v>0.14514666400000001</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="E187" s="4">
-        <v>0.1961</v>
+        <v>0.14419999999999999</v>
       </c>
       <c r="F187" s="10">
-        <v>0.11127245700000001</v>
+        <v>0.14409846800000001</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
-        <f t="shared" si="1"/>
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="E188" s="4">
-        <v>0.1706</v>
+        <v>0.1804</v>
       </c>
       <c r="F188" s="10">
-        <v>0.111130327</v>
+        <v>0.14333210699999999</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
-        <f t="shared" si="1"/>
-        <v>138</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="E189" s="4">
-        <v>0.1053</v>
+        <v>1.4</v>
       </c>
       <c r="F189" s="10">
-        <v>0.11037901</v>
+        <v>0.139513416</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1">
-        <f t="shared" si="1"/>
-        <v>139</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="E190" s="4">
-        <v>22756.99</v>
+        <v>0.29870000000000002</v>
       </c>
       <c r="F190" s="10">
-        <v>0.10977622400000001</v>
+        <v>0.139513416</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="E191" s="4">
-        <v>6.71</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="F191" s="10">
-        <v>0.10873124200000001</v>
+        <v>0.13805571</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1">
-        <f t="shared" si="1"/>
-        <v>141</v>
+        <f t="shared" si="4"/>
+        <v>127</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="E192" s="4">
-        <v>0.35610000000000003</v>
+        <v>4.143E-3</v>
       </c>
       <c r="F192" s="10">
-        <v>0.108054727</v>
+        <v>0.13791399600000001</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" s="1">
-        <f t="shared" si="1"/>
-        <v>142</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="E193" s="4">
-        <v>0.41720000000000002</v>
+        <v>2.6890000000000001E-2</v>
       </c>
       <c r="F193" s="10">
-        <v>0.10783683099999999</v>
+        <v>0.136491687</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
-        <f t="shared" si="1"/>
-        <v>143</v>
+        <f t="shared" si="4"/>
+        <v>129</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="E194" s="4">
-        <v>0.2636</v>
+        <v>1.933E-2</v>
       </c>
       <c r="F194" s="10">
-        <v>0.10767146</v>
+        <v>0.135654096</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="1">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="E195" s="4">
-        <v>1.52</v>
+        <v>0.18440000000000001</v>
       </c>
       <c r="F195" s="10">
-        <v>0.10756921899999999</v>
+        <v>0.13342649000000001</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" s="1">
-        <f t="shared" si="1"/>
-        <v>145</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="E196" s="4">
-        <v>1.0839999999999999E-3</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="F196" s="10">
-        <v>0.107357832</v>
+        <v>0.132814986</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1">
-        <f t="shared" si="1"/>
-        <v>146</v>
+        <f t="shared" si="4"/>
+        <v>132</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="E197" s="4">
-        <v>3.0849999999999999E-2</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="F197" s="10">
-        <v>0.107066024</v>
+        <v>0.12730638799999999</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
-        <f t="shared" si="1"/>
-        <v>147</v>
+        <f>B91+1</f>
+        <v>90</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="E198" s="4">
-        <v>0.1072</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="F198" s="10">
-        <v>0.107044131</v>
+        <v>0.12376409200000001</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
-        <f t="shared" si="1"/>
-        <v>148</v>
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="E199" s="4">
-        <v>8.201E-2</v>
+        <v>4.249E-2</v>
       </c>
       <c r="F199" s="10">
-        <v>0.103903352</v>
+        <v>0.12368742100000001</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="1">
-        <f t="shared" si="1"/>
-        <v>149</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>390</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="E200" s="4">
-        <v>1.077E-3</v>
+        <v>0.53439999999999999</v>
       </c>
       <c r="F200" s="10">
-        <v>0.103753708</v>
+        <v>0.122667151</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>93</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="E201" s="4">
-        <v>0.84650000000000003</v>
+        <v>4.2380000000000001E-2</v>
       </c>
       <c r="F201" s="10">
-        <v>0.103631457</v>
+        <v>0.121920311</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" s="1">
-        <f t="shared" si="1"/>
-        <v>151</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="E202" s="4">
-        <v>1.665E-3</v>
+        <v>0.1202</v>
       </c>
       <c r="F202" s="10">
-        <v>0.102642196</v>
+        <v>0.120184343</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
-        <f t="shared" si="1"/>
-        <v>152</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="E203" s="4">
-        <v>1</v>
+        <v>1.236E-4</v>
       </c>
       <c r="F203" s="10">
-        <v>0.10247070899999999</v>
+        <v>0.11883542499999999</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
-        <f t="shared" si="1"/>
-        <v>153</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="E204" s="4">
-        <v>8.3800000000000008</v>
+        <v>5.6680000000000001E-2</v>
       </c>
       <c r="F204" s="10">
-        <v>0.10230676900000001</v>
+        <v>0.11849712699999999</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
-        <f t="shared" si="1"/>
-        <v>154</v>
+        <f t="shared" si="4"/>
+        <v>97</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="E205" s="4">
-        <v>2.2179999999999999E-3</v>
+        <v>6.2680000000000001E-3</v>
       </c>
       <c r="F205" s="10">
-        <v>0.1012083</v>
+        <v>0.11766072499999999</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
-        <f t="shared" si="1"/>
-        <v>155</v>
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="E206" s="4">
-        <v>4.2300000000000004</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="F206" s="10">
-        <v>0.10117152</v>
+        <v>0.117367633</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f t="shared" si="4"/>
+        <v>99</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="E207" s="4">
-        <v>1.79</v>
+        <v>0.41560000000000002</v>
       </c>
       <c r="F207" s="10">
-        <v>0.101086226</v>
+        <v>0.115746405</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
-        <f t="shared" si="1"/>
-        <v>157</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="C208" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E208" s="4">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="F208" s="10">
+        <v>0.113343336</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="1">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E209" s="4">
+        <v>0.1842</v>
+      </c>
+      <c r="F209" s="10">
+        <v>0.11296250200000001</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="1">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E210" s="4">
+        <v>0.1961</v>
+      </c>
+      <c r="F210" s="10">
+        <v>0.11127245700000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B211" s="1">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E211" s="4">
+        <v>0.1706</v>
+      </c>
+      <c r="F211" s="10">
+        <v>0.111130327</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="1">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E212" s="4">
+        <v>0.1053</v>
+      </c>
+      <c r="F212" s="10">
+        <v>0.11037901</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="1">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E213" s="4">
+        <v>22756.99</v>
+      </c>
+      <c r="F213" s="10">
+        <v>0.10977622400000001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B214" s="1">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E214" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="F214" s="10">
+        <v>0.10873124200000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" s="1">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E215" s="4">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="F215" s="10">
+        <v>0.108054727</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="1">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E216" s="4">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="F216" s="10">
+        <v>0.10783683099999999</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="1">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E217" s="4">
+        <v>0.2636</v>
+      </c>
+      <c r="F217" s="10">
+        <v>0.10767146</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B218" s="1">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E218" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="F218" s="10">
+        <v>0.10756921899999999</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="1">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E219" s="4">
+        <v>1.0839999999999999E-3</v>
+      </c>
+      <c r="F219" s="10">
+        <v>0.107357832</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B220" s="1">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E220" s="4">
+        <v>3.0849999999999999E-2</v>
+      </c>
+      <c r="F220" s="10">
+        <v>0.107066024</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B221" s="1">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E221" s="4">
+        <v>0.1072</v>
+      </c>
+      <c r="F221" s="10">
+        <v>0.107044131</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" s="1">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E222" s="4">
+        <v>8.201E-2</v>
+      </c>
+      <c r="F222" s="10">
+        <v>0.103903352</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B223" s="1">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1.077E-3</v>
+      </c>
+      <c r="F223" s="10">
+        <v>0.103753708</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="1">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="F224" s="10">
+        <v>0.103631457</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B225" s="1">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1.665E-3</v>
+      </c>
+      <c r="F225" s="10">
+        <v>0.102642196</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B226" s="1">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E226" s="4">
+        <v>1</v>
+      </c>
+      <c r="F226" s="10">
+        <v>0.10247070899999999</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B227" s="1">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E227" s="4">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F227" s="10">
+        <v>0.10230676900000001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B228" s="1">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E228" s="4">
+        <v>2.2179999999999999E-3</v>
+      </c>
+      <c r="F228" s="10">
+        <v>0.1012083</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B229" s="1">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E229" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F229" s="10">
+        <v>0.10117152</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B230" s="1">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E230" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="F230" s="10">
+        <v>0.101086226</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B231" s="1">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="C231" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D231" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E231" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="F208" s="10">
+      <c r="F231" s="10">
         <v>0.100043591</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B209" s="1">
-        <v>201</v>
-      </c>
-      <c r="C209" s="8" t="s">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B232" s="1">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="C232" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D232" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E232" s="4">
         <v>4.2840000000000003E-2</v>
       </c>
-      <c r="F209" s="10"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="F210" s="10"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C211" s="8" t="s">
+      <c r="F232" s="10"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B233" s="1">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
+      <c r="F233" s="10"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B234" s="1">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C234" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D234" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E234" s="4">
         <v>0.19389999999999999</v>
       </c>
-      <c r="F211" s="10">
+      <c r="F234" s="10">
         <v>22.223451000000001</v>
       </c>
-      <c r="G211" s="9">
+      <c r="G234" s="9">
         <v>2</v>
       </c>
-      <c r="H211" s="9" t="s">
+      <c r="H234" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J211" s="9" t="s">
+      <c r="J234" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F212" s="10"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F213" s="10"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F214" s="10"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F215" s="10"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F216" s="10"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F217" s="10"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F218" s="10"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F219" s="10"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F220" s="10"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F221" s="10"/>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B235" s="1">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="F235" s="10"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B236" s="1">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="F236" s="10"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B237" s="1">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="F237" s="10"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B238" s="1">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="F238" s="10"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F239" s="10"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F240" s="10"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F241" s="10"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F242" s="10"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F243" s="10"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F244" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B157:F179">
-    <sortCondition descending="1" ref="F157:F179"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B183:F202">
+    <sortCondition descending="1" ref="F183:F202"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9128,6 +9800,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B004891-7E6B-442F-BB2E-43D985E925DA}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="39" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="39" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="39" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="39" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="39" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{161BAADC-F15A-4932-90E6-57F1DE803B84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -9158,7 +9926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC386A-9505-4334-96E1-D2FB72597872}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -9290,7 +10058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45209BF2-C486-44D4-B8B8-7682D8310EF0}">
   <dimension ref="B2:T547"/>
   <sheetViews>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C02FA2-5A05-424E-B4DE-3D914A146092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1E53D-AA8A-3E49-858C-033AEFC460F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26400" yWindow="1440" windowWidth="25680" windowHeight="17835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22780" yWindow="2100" windowWidth="32200" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="1503">
   <si>
     <t>Name</t>
   </si>
@@ -5114,32 +5114,32 @@
       <selection activeCell="F18" sqref="F18"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="5"/>
-    <col min="7" max="7" width="8.5703125" style="2"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="5"/>
+    <col min="7" max="7" width="8.5" style="2"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.5703125" style="1"/>
+    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F1" s="5">
-        <f>SUM(F3:F40)</f>
-        <v>2398.3922892140004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <f>SUM(F3:F45)</f>
+        <v>2408.0125040000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5168,8 +5168,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B3" s="1">
@@ -5182,10 +5182,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="4">
-        <v>68152.98</v>
+        <v>69014</v>
       </c>
       <c r="F3" s="5">
-        <v>1339.010446</v>
+        <v>1358</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -5200,8 +5200,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B4" s="1">
@@ -5215,10 +5215,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="4">
-        <v>3916</v>
+        <v>3503</v>
       </c>
       <c r="F4" s="5">
-        <v>470.358</v>
+        <v>420.577</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -5233,12 +5233,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B49" si="0">B4+1</f>
+        <f t="shared" ref="B5:B61" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5251,7 +5251,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="F5" s="5">
-        <v>101.848</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -5266,8 +5266,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B6" s="1">
@@ -5281,14 +5281,14 @@
         <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>484.88</v>
+        <v>580</v>
       </c>
       <c r="F6" s="5">
-        <v>72.507999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+        <v>86.701999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B7" s="1">
@@ -5302,10 +5302,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="4">
-        <v>145.78</v>
+        <v>174</v>
       </c>
       <c r="F7" s="5">
-        <v>64.587999999999994</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5314,8 +5314,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B8" s="1">
@@ -5329,14 +5329,14 @@
         <v>13</v>
       </c>
       <c r="E8" s="4">
-        <v>0.62580000000000002</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="F8" s="5">
-        <v>34.25217284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B9" s="1">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>29.957999999999998</v>
+        <v>32.4</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="2" t="s">
@@ -5363,8 +5363,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B10" s="1">
@@ -5372,56 +5372,56 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>0.72870000000000001</v>
+        <v>0.18909999999999999</v>
       </c>
       <c r="F10" s="5">
-        <v>25.8674587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+        <v>27.193999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="32">
+        <v>41614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
+      <c r="C11" s="35" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>1435</v>
       </c>
       <c r="E11" s="4">
-        <v>0.1681</v>
+        <v>6.72</v>
       </c>
       <c r="F11" s="5">
-        <v>24.101165999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="K11" s="32">
-        <v>41614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+        <v>23.321999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B12" s="1">
@@ -5429,78 +5429,69 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4">
-        <v>3.5660000000000001E-5</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="F12" s="5">
-        <v>20.949750625</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
+      <c r="C13" s="35" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>1436</v>
       </c>
       <c r="E13" s="4">
-        <v>42.67</v>
+        <v>12.9</v>
       </c>
       <c r="F13" s="5">
-        <v>16.110036013999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>1436</v>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="4">
-        <v>13.42</v>
+        <v>47.19</v>
       </c>
       <c r="F14" s="5">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+        <v>17.831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B15" s="1">
@@ -5508,20 +5499,29 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4">
-        <v>10.69</v>
+        <v>2.7630000000000001E-5</v>
       </c>
       <c r="F15" s="5">
-        <v>13.765000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+        <v>16.280999999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B16" s="1">
@@ -5529,20 +5529,23 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4">
-        <v>0.13719999999999999</v>
+        <v>675.54</v>
       </c>
       <c r="F16" s="5">
-        <v>12.05695787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+        <v>13.3</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B17" s="1">
@@ -5550,20 +5553,20 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4">
-        <v>19.82</v>
+        <v>8.73</v>
       </c>
       <c r="F17" s="5">
-        <v>11.632261899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+        <v>12.505000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B18" s="1">
@@ -5571,41 +5574,41 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4">
-        <v>1.19</v>
+        <v>0.1212</v>
       </c>
       <c r="F18" s="5">
-        <v>10.409051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+        <v>10.624000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>1435</v>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="4">
-        <v>2.8</v>
+        <v>17.54</v>
       </c>
       <c r="F19" s="5">
-        <v>9.7144720000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B20" s="1">
@@ -5613,23 +5616,20 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="F20" s="5">
-        <v>15.785455000000001</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+        <v>10.409051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B21" s="1">
@@ -5637,23 +5637,20 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4">
-        <v>14.79</v>
-      </c>
-      <c r="F21" s="5">
-        <v>8.8526779999999992</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+        <v>7.3</v>
+      </c>
+      <c r="F21" s="41">
+        <v>7.742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B22" s="1">
@@ -5661,23 +5658,26 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="E22" s="4">
-        <v>446.94</v>
-      </c>
-      <c r="F22" s="5">
-        <v>8.7884523689999998</v>
+        <v>16.12</v>
+      </c>
+      <c r="F22" s="41">
+        <v>7.4502699999999997</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B23" s="1">
@@ -5685,26 +5685,26 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4">
-        <v>14.67</v>
-      </c>
-      <c r="F23" s="41">
-        <v>6.7500270000000002</v>
+        <v>98.02</v>
+      </c>
+      <c r="F23" s="5">
+        <v>7.2930000000000001</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="J23" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B24" s="1">
@@ -5712,26 +5712,23 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E24" s="4">
-        <v>89.07</v>
+        <v>11.19</v>
       </c>
       <c r="F24" s="5">
-        <v>6.6169815420000004</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+        <v>6.6980000000000004</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B25" s="1">
@@ -5739,23 +5736,20 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4">
-        <v>11.73</v>
-      </c>
-      <c r="F25" s="41">
-        <v>6.1171023550000001</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+        <v>5.89</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5.4556469999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B26" s="1">
@@ -5763,20 +5757,23 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="F26" s="41">
-        <v>6.0409480000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5.3470000000000004</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B27" s="1">
@@ -5790,17 +5787,17 @@
         <v>57</v>
       </c>
       <c r="E27" s="4">
-        <v>38.67</v>
+        <v>32.86</v>
       </c>
       <c r="F27" s="5">
-        <v>5.643999</v>
+        <v>4.8</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B28" s="1">
@@ -5808,20 +5805,23 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="E28" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5.4266399999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="F28" s="41">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B29" s="1">
@@ -5829,119 +5829,125 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="E29" s="4">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5.3496259999999998</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+        <v>3.21</v>
+      </c>
+      <c r="F29" s="41">
+        <v>4.6557000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
+      <c r="C30" s="39" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>1467</v>
       </c>
       <c r="E30" s="4">
-        <v>13.38</v>
-      </c>
-      <c r="F30" s="5">
-        <v>5.2119499999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.35</v>
+      </c>
+      <c r="F30" s="41">
+        <v>4.4210000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="39" t="s">
+        <v>1433</v>
+      </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>284</v>
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E31" s="4">
-        <v>3.37</v>
-      </c>
-      <c r="F31" s="41">
-        <v>4.6734809999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10.91</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4.2610000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="39" t="s">
+        <v>1433</v>
+      </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>789</v>
+        <v>1474</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="E32" s="4">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="F32" s="41">
-        <v>4.5462999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.51</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="39" t="s">
+        <v>1433</v>
+      </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>1462</v>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E33" s="4">
-        <v>691.91</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="F33" s="41">
-        <v>4.4080000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+        <v>3.9820000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>168</v>
+      <c r="C34" s="39" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>1462</v>
       </c>
       <c r="E34" s="4">
-        <v>0.13100000000000001</v>
+        <v>594.89</v>
       </c>
       <c r="F34" s="41">
-        <v>4.4109999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+        <v>3.9074249999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B35" s="1">
@@ -5949,528 +5955,519 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4">
-        <v>0.16009999999999999</v>
-      </c>
-      <c r="F35" s="41">
-        <v>4.2539999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="39" t="s">
+        <v>1433</v>
+      </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="E36" s="4">
-        <v>2.83</v>
+        <v>2.66</v>
       </c>
       <c r="F36" s="41">
-        <v>4.0940779999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+        <v>3.7850000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>55</v>
+      <c r="C37" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E37" s="4">
-        <v>0.1419</v>
-      </c>
-      <c r="F37" s="5">
-        <v>4.0619750000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+        <v>9.44</v>
+      </c>
+      <c r="F37" s="41">
+        <v>3.6059199999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="39" t="s">
+        <v>1433</v>
+      </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>1463</v>
+        <v>1482</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E38" s="4">
-        <v>9.285E-6</v>
-      </c>
-      <c r="F38" s="5">
-        <v>3.8969909999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1483</v>
+      </c>
+      <c r="E38" s="38">
+        <v>3.6</v>
+      </c>
+      <c r="F38" s="41">
+        <v>3.6</v>
+      </c>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="39" t="s">
+        <v>1433</v>
+      </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>316</v>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E39" s="4">
-        <v>11.09</v>
+        <v>0.1041</v>
       </c>
       <c r="F39" s="41">
-        <v>4.1948319999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+        <v>3.508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="39" t="s">
         <v>1433</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>30</v>
+      <c r="C40" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>1460</v>
       </c>
       <c r="E40" s="4">
-        <f>+E3</f>
-        <v>68152.98</v>
-      </c>
-      <c r="F40" s="5">
-        <v>4.1390000000000002</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.07</v>
+      </c>
+      <c r="F40" s="41">
+        <v>3.093</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="35"/>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>978</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>1465</v>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E41" s="4">
-        <v>41.71</v>
-      </c>
-      <c r="F41" s="5">
-        <v>3.8956</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="35"/>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>97</v>
+      <c r="C42" s="39" t="s">
+        <v>978</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>1465</v>
       </c>
       <c r="E42" s="4">
-        <v>58.87</v>
-      </c>
-      <c r="F42" s="41">
-        <v>3.532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>33.340000000000003</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3.1135000000000002</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="35"/>
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4">
-        <v>4.7739999999999998E-2</v>
-      </c>
-      <c r="F43" s="41">
-        <v>3.471651</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="35"/>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E44" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="F44" s="41">
-        <v>3.4414159999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.285E-6</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3.8969909999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="35"/>
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>1469</v>
+      <c r="C45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E45" s="4">
-        <v>0.15040000000000001</v>
-      </c>
-      <c r="F45" s="41">
-        <v>3.452391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <f>+E3</f>
+        <v>69014</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="35"/>
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="E46" s="4">
-        <v>0.36499999999999999</v>
+        <v>58.87</v>
       </c>
       <c r="F46" s="41">
-        <v>3.4385110000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="35"/>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>1471</v>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
+        <v>4.7739999999999998E-2</v>
       </c>
       <c r="F47" s="41">
-        <v>3.304913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>3.471651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="35"/>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>241</v>
+      <c r="C48" s="39" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>1469</v>
       </c>
       <c r="E48" s="4">
-        <v>3.42</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="F48" s="41">
-        <v>3.0486780000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>3.452391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="35"/>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E49" s="4">
-        <v>3.05</v>
-      </c>
-      <c r="F49" s="10">
-        <v>3.0510090000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F49" s="41">
+        <v>3.4385110000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="35"/>
       <c r="B50" s="1">
-        <f t="shared" ref="B50:B119" si="1">B49+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="39" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="41">
+        <v>3.304913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="35"/>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="F51" s="41">
+        <v>3.0486780000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E52" s="4">
         <v>45.88</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F52" s="10">
         <v>3.0104519999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="39" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>1472</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D53" s="39" t="s">
         <v>1473</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E53" s="4">
         <v>16.32</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F53" s="10">
         <v>2.7634949999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2.14</v>
-      </c>
-      <c r="F52" s="10">
-        <v>2.7229999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="4">
-        <v>148.1</v>
-      </c>
-      <c r="F53" s="10">
-        <v>2.726245</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="35"/>
       <c r="B54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="4">
+        <v>148.1</v>
+      </c>
+      <c r="F54" s="10">
+        <v>2.726245</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="35"/>
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="39" t="s">
         <v>1476</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D55" s="39" t="s">
         <v>1477</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>2.566E-4</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>2.4470000000000001</v>
       </c>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="H55" s="37"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>7.25</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>2.4660000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="39" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>1478</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D57" s="39" t="s">
         <v>1479</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>2.92</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="35" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0.81689999999999996</v>
-      </c>
-      <c r="F57" s="10">
-        <v>2.290152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
       <c r="B58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="F58" s="10">
+        <v>2.290152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="35"/>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>1480</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D59" s="39" t="s">
         <v>1481</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>0.90290000000000004</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="35" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="38">
-        <v>116.77</v>
-      </c>
-      <c r="F59" s="10">
-        <v>2.29522</v>
-      </c>
-      <c r="G59" s="2">
-        <v>1</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="35"/>
       <c r="B60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>1483</v>
+      <c r="C60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E60" s="38">
-        <v>2.1</v>
+        <v>116.77</v>
       </c>
       <c r="F60" s="10">
-        <v>2.0998939999999999</v>
-      </c>
-      <c r="H60" s="37"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
-        <v>1433</v>
-      </c>
+        <v>2.29522</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="35"/>
       <c r="B61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -6486,10 +6483,10 @@
         <v>2.158083</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="35"/>
       <c r="B62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B60:B104" si="1">B61+1</f>
         <v>60</v>
       </c>
       <c r="C62" s="39" t="s">
@@ -6505,7 +6502,7 @@
         <v>2.0670929999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="35"/>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -6524,10 +6521,8 @@
         <v>2.0497589999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="35"/>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6545,7 +6540,7 @@
         <v>1.9841420000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6563,10 +6558,8 @@
         <v>1.983738118</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="35"/>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6584,10 +6577,8 @@
         <v>1.953042717</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="35"/>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6605,7 +6596,7 @@
         <v>1.925249</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="35"/>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
@@ -6624,10 +6615,8 @@
         <v>1.88662</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="35"/>
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6645,7 +6634,7 @@
         <v>1.7958689999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="35"/>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
@@ -6664,13 +6653,11 @@
         <v>1.4440120000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="35"/>
       <c r="B71" s="1">
-        <f>B80+1</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>1438</v>
@@ -6685,11 +6672,11 @@
         <v>1.782637</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="35"/>
       <c r="B72" s="1">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>1490</v>
@@ -6704,11 +6691,11 @@
         <v>1.6901729999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="35"/>
       <c r="B73" s="1">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="39" t="s">
         <v>1492</v>
@@ -6723,11 +6710,11 @@
         <v>1.6525319999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="35"/>
       <c r="B74" s="1">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>1494</v>
@@ -6742,13 +6729,11 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="35"/>
       <c r="B75" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>69</v>
@@ -6766,13 +6751,11 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="35"/>
       <c r="B76" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>91</v>
@@ -6787,13 +6770,11 @@
         <v>1.488364</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="35"/>
       <c r="B77" s="1">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>72</v>
@@ -6811,13 +6792,11 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="35"/>
       <c r="B78" s="1">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>65</v>
@@ -6835,13 +6814,11 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="35"/>
       <c r="B79" s="1">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>71</v>
@@ -6859,13 +6836,11 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="35"/>
       <c r="B80" s="1">
-        <f>B70+1</f>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>66</v>
@@ -6883,12 +6858,10 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="35"/>
       <c r="B81" s="1">
-        <f>B79+1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -6904,10 +6877,8 @@
         <v>1.1986702490000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="35"/>
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6925,13 +6896,11 @@
         <v>1.414088813</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="35"/>
       <c r="B83" s="1">
-        <f>B89+1</f>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>89</v>
@@ -6946,13 +6915,11 @@
         <v>1.4269419999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="35"/>
       <c r="B84" s="1">
-        <f>B82+1</f>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>75</v>
@@ -6967,13 +6934,11 @@
         <v>1.1945250000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="35"/>
       <c r="B85" s="1">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>417</v>
@@ -6988,13 +6953,11 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="35"/>
       <c r="B86" s="1">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>78</v>
@@ -7012,13 +6975,11 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="35"/>
       <c r="B87" s="1">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>98</v>
@@ -7033,13 +6994,11 @@
         <v>0.92534499999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="35"/>
       <c r="B88" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>90</v>
@@ -7057,13 +7016,11 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="35"/>
       <c r="B89" s="1">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>73</v>
@@ -7081,9 +7038,9 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B90" s="1">
-        <f>B83+1</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -7099,7 +7056,7 @@
         <v>1.2050000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7117,10 +7074,8 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="35"/>
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -7138,10 +7093,8 @@
         <v>0.72014599999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="35"/>
       <c r="B93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -7159,10 +7112,8 @@
         <v>0.66539700000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="35"/>
       <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -7180,10 +7131,8 @@
         <v>0.82979899999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="35"/>
       <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -7201,10 +7150,8 @@
         <v>0.22685149199999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="35"/>
       <c r="B96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -7222,10 +7169,8 @@
         <v>0.87511399999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="35"/>
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -7243,10 +7188,8 @@
         <v>0.63667726499999999</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="35"/>
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -7264,10 +7207,8 @@
         <v>0.61030981299999998</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="35"/>
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -7285,10 +7226,8 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="35" t="s">
-        <v>1433</v>
-      </c>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="35"/>
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -7306,7 +7245,7 @@
         <v>1.446615</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="35"/>
       <c r="B101" s="1">
         <f t="shared" si="1"/>
@@ -7325,7 +7264,7 @@
         <v>1.345</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="35"/>
       <c r="B102" s="1">
         <f t="shared" si="1"/>
@@ -7344,7 +7283,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -7362,10 +7301,10 @@
         <v>1.0895980000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B104" s="1">
-        <f>B111+1</f>
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>100</v>
@@ -7380,10 +7319,10 @@
         <v>0.61134288400000003</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B105" s="1">
-        <f>B103+1</f>
-        <v>102</v>
+        <f t="shared" ref="B105:B132" si="2">B104+1</f>
+        <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>106</v>
@@ -7398,10 +7337,10 @@
         <v>0.53980675300000003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B106" s="1">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f t="shared" si="2"/>
+        <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>107</v>
@@ -7416,10 +7355,10 @@
         <v>0.51052593199999996</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B107" s="1">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>96</v>
@@ -7434,10 +7373,10 @@
         <v>0.498732234</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B108" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>108</v>
@@ -7452,10 +7391,10 @@
         <v>0.47984337799999999</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B109" s="1">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>110</v>
@@ -7470,10 +7409,10 @@
         <v>0.45076466500000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B110" s="1">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>123</v>
@@ -7488,10 +7427,10 @@
         <v>0.44902305300000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B111" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <f t="shared" si="2"/>
+        <v>109</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>102</v>
@@ -7506,9 +7445,9 @@
         <v>0.44337546999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B112" s="1">
-        <f>B104+1</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -7524,9 +7463,9 @@
         <v>0.41965282799999998</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -7542,9 +7481,9 @@
         <v>0.43095742300000001</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -7560,9 +7499,9 @@
         <v>0.41637566399999998</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -7578,9 +7517,9 @@
         <v>0.40336259400000002</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -7596,9 +7535,9 @@
         <v>0.400227634</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -7614,9 +7553,9 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -7632,9 +7571,9 @@
         <v>0.38138114899999997</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -7650,10 +7589,10 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="120" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="1">
-        <f>B125+1</f>
-        <v>123</v>
+        <f t="shared" si="2"/>
+        <v>118</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>420</v>
@@ -7672,10 +7611,10 @@
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B121" s="1">
-        <f>B119+1</f>
-        <v>118</v>
+        <f t="shared" si="2"/>
+        <v>119</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>101</v>
@@ -7690,10 +7629,10 @@
         <v>0.37034398000000002</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B122" s="1">
-        <f t="shared" ref="B122:B142" si="2">B121+1</f>
-        <v>119</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>120</v>
@@ -7708,10 +7647,10 @@
         <v>0.36007262400000001</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B123" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>104</v>
@@ -7726,10 +7665,10 @@
         <v>0.352850041</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B124" s="1">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>116</v>
@@ -7744,10 +7683,10 @@
         <v>0.35219167299999998</v>
       </c>
     </row>
-    <row r="125" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B125" s="1">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>122</v>
@@ -7768,9 +7707,9 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B126" s="1">
-        <f>B120+1</f>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -7786,7 +7725,7 @@
         <v>0.34624524499999998</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B127" s="1">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -7804,7 +7743,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B128" s="1">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -7822,7 +7761,7 @@
         <v>0.34624524499999998</v>
       </c>
     </row>
-    <row r="129" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="1">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -7844,7 +7783,7 @@
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="1">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -7866,10 +7805,10 @@
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B131" s="1">
-        <f>B137+1</f>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>124</v>
@@ -7884,10 +7823,10 @@
         <v>0.54332366700000001</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B132" s="1">
-        <f>B130+1</f>
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>114</v>
@@ -7902,10 +7841,10 @@
         <v>0.32811815700000002</v>
       </c>
     </row>
-    <row r="133" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B133" s="1">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f t="shared" ref="B133:B196" si="3">B132+1</f>
+        <v>131</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>422</v>
@@ -7924,10 +7863,10 @@
       <c r="I133" s="22"/>
       <c r="J133" s="22"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B134" s="1">
-        <f t="shared" si="2"/>
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>103</v>
@@ -7942,10 +7881,10 @@
         <v>0.32049229000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B135" s="1">
-        <f t="shared" si="2"/>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>161</v>
@@ -7960,10 +7899,10 @@
         <v>0.31784597999999997</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B136" s="1">
-        <f t="shared" si="2"/>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>148</v>
@@ -7978,10 +7917,10 @@
         <v>0.30747406900000002</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B137" s="1">
-        <f t="shared" si="2"/>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>135</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>147</v>
@@ -7996,9 +7935,9 @@
         <v>0.30000935699999998</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B138" s="1">
-        <f>B131+1</f>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -8014,9 +7953,9 @@
         <v>0.29374433599999999</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -8032,9 +7971,9 @@
         <v>0.29265611899999999</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -8050,9 +7989,9 @@
         <v>0.28834567100000003</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -8068,9 +8007,9 @@
         <v>0.28805449599999999</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -8089,9 +8028,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B143" s="1">
-        <f t="shared" ref="B143:B185" si="3">B142+1</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -8107,7 +8046,7 @@
         <v>0.27364821299999997</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B144" s="1">
         <f t="shared" si="3"/>
         <v>142</v>
@@ -8125,7 +8064,7 @@
         <v>0.38498529799999998</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B145" s="1">
         <f t="shared" si="3"/>
         <v>143</v>
@@ -8143,7 +8082,7 @@
         <v>0.31274848100000002</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B146" s="1">
         <f t="shared" si="3"/>
         <v>144</v>
@@ -8161,7 +8100,7 @@
         <v>0.30391054899999997</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B147" s="1">
         <f t="shared" si="3"/>
         <v>145</v>
@@ -8179,7 +8118,7 @@
         <v>0.291509511</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B148" s="1">
         <f t="shared" si="3"/>
         <v>146</v>
@@ -8197,7 +8136,7 @@
         <v>0.29080200699999997</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B149" s="1">
         <f t="shared" si="3"/>
         <v>147</v>
@@ -8215,7 +8154,7 @@
         <v>0.28856063999999998</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B150" s="1">
         <f t="shared" si="3"/>
         <v>148</v>
@@ -8233,7 +8172,7 @@
         <v>0.27075048800000001</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B151" s="1">
         <f t="shared" si="3"/>
         <v>149</v>
@@ -8251,7 +8190,7 @@
         <v>0.26174855299999999</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B152" s="1">
         <f t="shared" si="3"/>
         <v>150</v>
@@ -8269,7 +8208,7 @@
         <v>0.26134750499999998</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" s="1">
         <f t="shared" si="3"/>
         <v>151</v>
@@ -8287,7 +8226,7 @@
         <v>0.26130524900000002</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B154" s="1">
         <f t="shared" si="3"/>
         <v>152</v>
@@ -8305,7 +8244,7 @@
         <v>0.26005180300000003</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" s="1">
         <f t="shared" si="3"/>
         <v>153</v>
@@ -8323,7 +8262,7 @@
         <v>0.257539927</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B156" s="1">
         <f t="shared" si="3"/>
         <v>154</v>
@@ -8341,7 +8280,7 @@
         <v>0.25512378000000002</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B157" s="1">
         <f t="shared" si="3"/>
         <v>155</v>
@@ -8359,7 +8298,7 @@
         <v>0.25402531299999997</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B158" s="1">
         <f t="shared" si="3"/>
         <v>156</v>
@@ -8377,7 +8316,7 @@
         <v>0.24884577099999999</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B159" s="1">
         <f t="shared" si="3"/>
         <v>157</v>
@@ -8395,7 +8334,7 @@
         <v>0.24021580300000001</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B160" s="1">
         <f t="shared" si="3"/>
         <v>158</v>
@@ -8413,7 +8352,7 @@
         <v>0.232870568</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="1">
         <f t="shared" si="3"/>
         <v>159</v>
@@ -8431,7 +8370,7 @@
         <v>0.22321063799999999</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" s="1">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -8449,7 +8388,7 @@
         <v>0.220735494</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B163" s="1">
         <f t="shared" si="3"/>
         <v>161</v>
@@ -8467,7 +8406,7 @@
         <v>0.220732868</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B164" s="1">
         <f t="shared" si="3"/>
         <v>162</v>
@@ -8485,7 +8424,7 @@
         <v>0.217787708</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B165" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -8503,7 +8442,7 @@
         <v>0.21617287800000001</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B166" s="1">
         <f t="shared" si="3"/>
         <v>164</v>
@@ -8521,10 +8460,10 @@
         <v>0.206020693</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B167" s="1">
-        <f>B103+1</f>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>164</v>
@@ -8539,10 +8478,10 @@
         <v>0.203682638</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B168" s="1">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>150</v>
@@ -8557,10 +8496,10 @@
         <v>0.202452576</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B169" s="1">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>290</v>
@@ -8575,10 +8514,10 @@
         <v>0.20110444999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B170" s="1">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>155</v>
@@ -8593,10 +8532,10 @@
         <v>0.199271797</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B171" s="1">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>159</v>
@@ -8611,10 +8550,10 @@
         <v>0.19770173499999999</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B172" s="1">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>292</v>
@@ -8629,10 +8568,10 @@
         <v>0.19735651000000001</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B173" s="1">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>160</v>
@@ -8647,10 +8586,10 @@
         <v>0.52775393699999995</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B174" s="1">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>295</v>
@@ -8665,10 +8604,10 @@
         <v>0.52921916099999999</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B175" s="1">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>297</v>
@@ -8683,10 +8622,10 @@
         <v>0.19296803800000001</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B176" s="1">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>298</v>
@@ -8701,10 +8640,10 @@
         <v>0.19115043600000001</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B177" s="1">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>152</v>
@@ -8719,10 +8658,10 @@
         <v>0.18681077500000001</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B178" s="1">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>301</v>
@@ -8737,10 +8676,10 @@
         <v>0.18664656499999999</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B179" s="1">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>303</v>
@@ -8755,10 +8694,10 @@
         <v>0.18636437</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B180" s="1">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>305</v>
@@ -8773,10 +8712,10 @@
         <v>0.17454940199999999</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="1">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>307</v>
@@ -8791,10 +8730,10 @@
         <v>0.171127055</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B182" s="1">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>309</v>
@@ -8809,10 +8748,10 @@
         <v>0.17039283699999999</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" s="1">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>311</v>
@@ -8827,10 +8766,10 @@
         <v>0.166817468</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" s="1">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>313</v>
@@ -8845,10 +8784,10 @@
         <v>0.16365843199999999</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" s="1">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>317</v>
@@ -8863,10 +8802,10 @@
         <v>0.14537486599999999</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B186" s="1">
-        <f t="shared" ref="B186:B238" si="4">B185+1</f>
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>184</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>319</v>
@@ -8881,10 +8820,10 @@
         <v>0.14514666400000001</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="1">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>321</v>
@@ -8899,10 +8838,10 @@
         <v>0.14409846800000001</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" s="1">
-        <f t="shared" si="4"/>
-        <v>123</v>
+        <f t="shared" si="3"/>
+        <v>186</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>323</v>
@@ -8917,10 +8856,10 @@
         <v>0.14333210699999999</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B189" s="1">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>187</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>327</v>
@@ -8935,10 +8874,10 @@
         <v>0.139513416</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="1">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>188</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>328</v>
@@ -8953,10 +8892,10 @@
         <v>0.139513416</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="1">
-        <f t="shared" si="4"/>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>189</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>330</v>
@@ -8971,10 +8910,10 @@
         <v>0.13805571</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="1">
-        <f t="shared" si="4"/>
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>332</v>
@@ -8989,10 +8928,10 @@
         <v>0.13791399600000001</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" s="1">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>191</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>334</v>
@@ -9007,10 +8946,10 @@
         <v>0.136491687</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" s="1">
-        <f t="shared" si="4"/>
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>192</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>336</v>
@@ -9025,10 +8964,10 @@
         <v>0.135654096</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" s="1">
-        <f t="shared" si="4"/>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>193</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>338</v>
@@ -9043,10 +8982,10 @@
         <v>0.13342649000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B196" s="1">
-        <f t="shared" si="4"/>
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>194</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>340</v>
@@ -9061,10 +9000,10 @@
         <v>0.132814986</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" s="1">
-        <f t="shared" si="4"/>
-        <v>132</v>
+        <f t="shared" ref="B197:B238" si="4">B196+1</f>
+        <v>195</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>342</v>
@@ -9079,10 +9018,10 @@
         <v>0.12730638799999999</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B198" s="1">
-        <f>B91+1</f>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>196</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>344</v>
@@ -9097,10 +9036,10 @@
         <v>0.12376409200000001</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B199" s="1">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>346</v>
@@ -9115,10 +9054,10 @@
         <v>0.12368742100000001</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B200" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>138</v>
@@ -9133,10 +9072,10 @@
         <v>0.122667151</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B201" s="1">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>348</v>
@@ -9151,10 +9090,10 @@
         <v>0.121920311</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B202" s="1">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>350</v>
@@ -9169,10 +9108,10 @@
         <v>0.120184343</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B203" s="1">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>352</v>
@@ -9187,10 +9126,10 @@
         <v>0.11883542499999999</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B204" s="1">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>354</v>
@@ -9205,10 +9144,10 @@
         <v>0.11849712699999999</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>356</v>
@@ -9223,10 +9162,10 @@
         <v>0.11766072499999999</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="1">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>358</v>
@@ -9241,10 +9180,10 @@
         <v>0.117367633</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="1">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>163</v>
@@ -9259,10 +9198,10 @@
         <v>0.115746405</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>361</v>
@@ -9277,10 +9216,10 @@
         <v>0.113343336</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="1">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>362</v>
@@ -9295,10 +9234,10 @@
         <v>0.11296250200000001</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" s="1">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>364</v>
@@ -9313,10 +9252,10 @@
         <v>0.11127245700000001</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" s="1">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>366</v>
@@ -9331,10 +9270,10 @@
         <v>0.111130327</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" s="1">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>368</v>
@@ -9349,10 +9288,10 @@
         <v>0.11037901</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B213" s="1">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>369</v>
@@ -9367,10 +9306,10 @@
         <v>0.10977622400000001</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B214" s="1">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>371</v>
@@ -9385,10 +9324,10 @@
         <v>0.10873124200000001</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" s="1">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>373</v>
@@ -9403,10 +9342,10 @@
         <v>0.108054727</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" s="1">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>375</v>
@@ -9421,10 +9360,10 @@
         <v>0.10783683099999999</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" s="1">
         <f t="shared" si="4"/>
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>377</v>
@@ -9439,10 +9378,10 @@
         <v>0.10767146</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" s="1">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>379</v>
@@ -9457,10 +9396,10 @@
         <v>0.10756921899999999</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" s="1">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>381</v>
@@ -9475,10 +9414,10 @@
         <v>0.107357832</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" s="1">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>383</v>
@@ -9493,10 +9432,10 @@
         <v>0.107066024</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" s="1">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>385</v>
@@ -9511,10 +9450,10 @@
         <v>0.107044131</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" s="1">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>387</v>
@@ -9529,10 +9468,10 @@
         <v>0.103903352</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" s="1">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>389</v>
@@ -9547,10 +9486,10 @@
         <v>0.103753708</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" s="1">
         <f t="shared" si="4"/>
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>391</v>
@@ -9565,10 +9504,10 @@
         <v>0.103631457</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="1">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>393</v>
@@ -9583,10 +9522,10 @@
         <v>0.102642196</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="1">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>395</v>
@@ -9601,10 +9540,10 @@
         <v>0.10247070899999999</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="1">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>397</v>
@@ -9619,10 +9558,10 @@
         <v>0.10230676900000001</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="1">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>399</v>
@@ -9637,10 +9576,10 @@
         <v>0.1012083</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B229" s="1">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>401</v>
@@ -9655,10 +9594,10 @@
         <v>0.10117152</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B230" s="1">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>403</v>
@@ -9673,10 +9612,10 @@
         <v>0.101086226</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B231" s="1">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>404</v>
@@ -9691,10 +9630,10 @@
         <v>0.100043591</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="1">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>406</v>
@@ -9707,19 +9646,19 @@
       </c>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="1">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B234" s="1">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>260</v>
@@ -9743,50 +9682,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B236" s="1">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="1">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B238" s="1">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F244" s="10"/>
     </row>
   </sheetData>
@@ -9805,29 +9744,29 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="39"/>
+    <col min="2" max="2" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="39" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="39" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="39" t="s">
         <v>1447</v>
       </c>
@@ -9835,7 +9774,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="39" t="s">
         <v>1445</v>
       </c>
@@ -9843,17 +9782,17 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="39" t="s">
         <v>1458</v>
       </c>
@@ -9861,7 +9800,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="39" t="s">
         <v>1449</v>
       </c>
@@ -9869,7 +9808,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="39" t="s">
         <v>1450</v>
       </c>
@@ -9877,12 +9816,12 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="39" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="39" t="s">
         <v>1454</v>
       </c>
@@ -9901,22 +9840,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.5703125" style="1"/>
+    <col min="1" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>256</v>
       </c>
@@ -9937,21 +9876,21 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="5" width="9.140625" style="13"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="13.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="12"/>
+    <col min="4" max="5" width="9.1640625" style="13"/>
+    <col min="6" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9974,7 +9913,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
         <v>424</v>
       </c>
@@ -9994,7 +9933,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
         <v>424</v>
       </c>
@@ -10008,7 +9947,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>424</v>
       </c>
@@ -10022,7 +9961,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>407</v>
       </c>
@@ -10039,12 +9978,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
         <v>1431</v>
       </c>
@@ -10069,17 +10008,17 @@
       <selection pane="bottomRight" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.1640625" style="27"/>
+    <col min="2" max="2" width="11.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -10132,7 +10071,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B3" s="27" t="s">
         <v>137</v>
       </c>
@@ -10152,7 +10091,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="27" t="s">
         <v>137</v>
       </c>
@@ -10169,7 +10108,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="27" t="s">
         <v>1423</v>
       </c>
@@ -10186,7 +10125,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="27" t="s">
         <v>1423</v>
       </c>
@@ -10203,7 +10142,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>1421</v>
       </c>
@@ -10217,7 +10156,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B8" s="27" t="s">
         <v>1420</v>
       </c>
@@ -10234,7 +10173,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
         <v>1415</v>
       </c>
@@ -10254,7 +10193,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>1415</v>
       </c>
@@ -10271,7 +10210,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B11" s="27" t="s">
         <v>1413</v>
       </c>
@@ -10288,7 +10227,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="27" t="s">
         <v>1410</v>
       </c>
@@ -10305,7 +10244,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B13" s="27" t="s">
         <v>1410</v>
       </c>
@@ -10322,7 +10261,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="27" t="s">
         <v>1408</v>
       </c>
@@ -10339,7 +10278,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="27" t="s">
         <v>1404</v>
       </c>
@@ -10356,7 +10295,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>1404</v>
       </c>
@@ -10373,7 +10312,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>1404</v>
       </c>
@@ -10390,7 +10329,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="27" t="s">
         <v>1404</v>
       </c>
@@ -10407,7 +10346,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>1402</v>
       </c>
@@ -10424,7 +10363,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="27" t="s">
         <v>1400</v>
       </c>
@@ -10441,7 +10380,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B21" s="27" t="s">
         <v>1398</v>
       </c>
@@ -10458,7 +10397,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B22" s="27" t="s">
         <v>1396</v>
       </c>
@@ -10478,7 +10417,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
         <v>1393</v>
       </c>
@@ -10495,7 +10434,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24" s="27" t="s">
         <v>1390</v>
       </c>
@@ -10512,7 +10451,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>1390</v>
       </c>
@@ -10529,7 +10468,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>1390</v>
       </c>
@@ -10555,7 +10494,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>1386</v>
       </c>
@@ -10572,7 +10511,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>1386</v>
       </c>
@@ -10589,7 +10528,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>1384</v>
       </c>
@@ -10609,7 +10548,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>1382</v>
       </c>
@@ -10626,7 +10565,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>1380</v>
       </c>
@@ -10643,7 +10582,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>1380</v>
       </c>
@@ -10663,7 +10602,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>1378</v>
       </c>
@@ -10680,7 +10619,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>1376</v>
       </c>
@@ -10697,7 +10636,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B35" s="27" t="s">
         <v>1373</v>
       </c>
@@ -10714,7 +10653,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="27" t="s">
         <v>1373</v>
       </c>
@@ -10731,7 +10670,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="27" t="s">
         <v>1371</v>
       </c>
@@ -10748,7 +10687,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="27" t="s">
         <v>403</v>
       </c>
@@ -10768,7 +10707,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="27" t="s">
         <v>1368</v>
       </c>
@@ -10782,7 +10721,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="27" t="s">
         <v>1368</v>
       </c>
@@ -10799,7 +10738,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="27" t="s">
         <v>1367</v>
       </c>
@@ -10816,7 +10755,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="27" t="s">
         <v>1365</v>
       </c>
@@ -10833,7 +10772,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" s="27" t="s">
         <v>1362</v>
       </c>
@@ -10850,7 +10789,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B44" s="27" t="s">
         <v>1362</v>
       </c>
@@ -10867,7 +10806,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B45" s="27" t="s">
         <v>1360</v>
       </c>
@@ -10884,7 +10823,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="27" t="s">
         <v>1358</v>
       </c>
@@ -10901,7 +10840,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="27" t="s">
         <v>274</v>
       </c>
@@ -10921,7 +10860,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="27" t="s">
         <v>274</v>
       </c>
@@ -10938,7 +10877,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B49" s="27" t="s">
         <v>274</v>
       </c>
@@ -10955,7 +10894,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B50" s="27" t="s">
         <v>1354</v>
       </c>
@@ -10972,7 +10911,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B51" s="27" t="s">
         <v>1352</v>
       </c>
@@ -10983,7 +10922,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B52" s="27" t="s">
         <v>1350</v>
       </c>
@@ -11003,7 +10942,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="27" t="s">
         <v>1350</v>
       </c>
@@ -11020,7 +10959,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="27" t="s">
         <v>1350</v>
       </c>
@@ -11037,7 +10976,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="27" t="s">
         <v>1347</v>
       </c>
@@ -11057,7 +10996,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="27" t="s">
         <v>1347</v>
       </c>
@@ -11077,7 +11016,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B57" s="27" t="s">
         <v>1344</v>
       </c>
@@ -11094,7 +11033,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B58" s="27" t="s">
         <v>1344</v>
       </c>
@@ -11111,7 +11050,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B59" s="27" t="s">
         <v>1342</v>
       </c>
@@ -11128,7 +11067,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B60" s="27" t="s">
         <v>1336</v>
       </c>
@@ -11145,7 +11084,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="27" t="s">
         <v>1336</v>
       </c>
@@ -11162,7 +11101,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="27" t="s">
         <v>1336</v>
       </c>
@@ -11179,7 +11118,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="27" t="s">
         <v>1334</v>
       </c>
@@ -11196,7 +11135,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="27" t="s">
         <v>1331</v>
       </c>
@@ -11213,7 +11152,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B65" s="27" t="s">
         <v>1331</v>
       </c>
@@ -11230,7 +11169,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="27" t="s">
         <v>1328</v>
       </c>
@@ -11247,7 +11186,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="27" t="s">
         <v>1326</v>
       </c>
@@ -11267,7 +11206,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B68" s="27" t="s">
         <v>1324</v>
       </c>
@@ -11284,7 +11223,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="27" t="s">
         <v>1320</v>
       </c>
@@ -11301,7 +11240,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B70" s="27" t="s">
         <v>1320</v>
       </c>
@@ -11318,7 +11257,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B71" s="27" t="s">
         <v>1318</v>
       </c>
@@ -11335,7 +11274,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B72" s="27" t="s">
         <v>1316</v>
       </c>
@@ -11352,7 +11291,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B73" s="27" t="s">
         <v>1314</v>
       </c>
@@ -11369,7 +11308,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B74" s="27" t="s">
         <v>1312</v>
       </c>
@@ -11386,7 +11325,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B75" s="27" t="s">
         <v>1309</v>
       </c>
@@ -11406,7 +11345,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B76" s="27" t="s">
         <v>1309</v>
       </c>
@@ -11426,7 +11365,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B77" s="27" t="s">
         <v>1307</v>
       </c>
@@ -11443,7 +11382,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B78" s="27" t="s">
         <v>1304</v>
       </c>
@@ -11460,7 +11399,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B79" s="27" t="s">
         <v>1302</v>
       </c>
@@ -11471,7 +11410,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B80" s="27" t="s">
         <v>1300</v>
       </c>
@@ -11488,7 +11427,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B81" s="27" t="s">
         <v>1300</v>
       </c>
@@ -11505,7 +11444,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="27" t="s">
         <v>1297</v>
       </c>
@@ -11522,7 +11461,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B83" s="27" t="s">
         <v>1297</v>
       </c>
@@ -11539,7 +11478,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B84" s="27" t="s">
         <v>1294</v>
       </c>
@@ -11559,7 +11498,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B85" s="27" t="s">
         <v>1294</v>
       </c>
@@ -11576,7 +11515,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B86" s="27" t="s">
         <v>1291</v>
       </c>
@@ -11593,7 +11532,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B87" s="27" t="s">
         <v>1289</v>
       </c>
@@ -11610,7 +11549,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B88" s="27" t="s">
         <v>1287</v>
       </c>
@@ -11627,7 +11566,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B89" s="27" t="s">
         <v>1285</v>
       </c>
@@ -11644,7 +11583,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B90" s="27" t="s">
         <v>1285</v>
       </c>
@@ -11661,7 +11600,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B91" s="27" t="s">
         <v>1282</v>
       </c>
@@ -11678,7 +11617,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B92" s="27" t="s">
         <v>1282</v>
       </c>
@@ -11695,7 +11634,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B93" s="27" t="s">
         <v>1279</v>
       </c>
@@ -11712,7 +11651,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B94" s="27" t="s">
         <v>1277</v>
       </c>
@@ -11729,7 +11668,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B95" s="27" t="s">
         <v>285</v>
       </c>
@@ -11746,7 +11685,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B96" s="27" t="s">
         <v>1274</v>
       </c>
@@ -11766,7 +11705,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B97" s="27" t="s">
         <v>1272</v>
       </c>
@@ -11783,7 +11722,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B98" s="27" t="s">
         <v>1270</v>
       </c>
@@ -11794,7 +11733,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B99" s="27" t="s">
         <v>1269</v>
       </c>
@@ -11811,7 +11750,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B100" s="27" t="s">
         <v>1267</v>
       </c>
@@ -11822,7 +11761,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B101" s="27" t="s">
         <v>1266</v>
       </c>
@@ -11839,7 +11778,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B102" s="27" t="s">
         <v>1264</v>
       </c>
@@ -11856,7 +11795,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B103" s="27" t="s">
         <v>1262</v>
       </c>
@@ -11876,7 +11815,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B104" s="27" t="s">
         <v>1260</v>
       </c>
@@ -11896,7 +11835,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B105" s="27" t="s">
         <v>1258</v>
       </c>
@@ -11913,7 +11852,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B106" s="27" t="s">
         <v>1258</v>
       </c>
@@ -11930,7 +11869,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B107" s="27" t="s">
         <v>1255</v>
       </c>
@@ -11947,7 +11886,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B108" s="27" t="s">
         <v>1255</v>
       </c>
@@ -11964,7 +11903,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B109" s="27" t="s">
         <v>1252</v>
       </c>
@@ -11981,7 +11920,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B110" s="27" t="s">
         <v>1250</v>
       </c>
@@ -11998,7 +11937,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B111" s="27" t="s">
         <v>1248</v>
       </c>
@@ -12015,7 +11954,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B112" s="27" t="s">
         <v>1246</v>
       </c>
@@ -12032,7 +11971,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B113" s="27" t="s">
         <v>1242</v>
       </c>
@@ -12049,7 +11988,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B114" s="27" t="s">
         <v>1242</v>
       </c>
@@ -12066,7 +12005,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B115" s="27" t="s">
         <v>1238</v>
       </c>
@@ -12083,7 +12022,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B116" s="27" t="s">
         <v>1238</v>
       </c>
@@ -12100,7 +12039,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B117" s="27" t="s">
         <v>1238</v>
       </c>
@@ -12117,7 +12056,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B118" s="27" t="s">
         <v>1235</v>
       </c>
@@ -12134,7 +12073,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B119" s="27" t="s">
         <v>321</v>
       </c>
@@ -12151,7 +12090,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B120" s="27" t="s">
         <v>1230</v>
       </c>
@@ -12168,7 +12107,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B121" s="27" t="s">
         <v>1228</v>
       </c>
@@ -12185,7 +12124,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B122" s="27" t="s">
         <v>1225</v>
       </c>
@@ -12202,7 +12141,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B123" s="27" t="s">
         <v>255</v>
       </c>
@@ -12219,7 +12158,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B124" s="27" t="s">
         <v>255</v>
       </c>
@@ -12236,7 +12175,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B125" s="27" t="s">
         <v>1221</v>
       </c>
@@ -12247,7 +12186,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B126" s="27" t="s">
         <v>1214</v>
       </c>
@@ -12267,7 +12206,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B127" s="27" t="s">
         <v>1214</v>
       </c>
@@ -12284,7 +12223,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B128" s="27" t="s">
         <v>1214</v>
       </c>
@@ -12301,7 +12240,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B129" s="27" t="s">
         <v>1214</v>
       </c>
@@ -12318,7 +12257,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B130" s="27" t="s">
         <v>1214</v>
       </c>
@@ -12335,7 +12274,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B131" s="27" t="s">
         <v>1211</v>
       </c>
@@ -12352,7 +12291,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B132" s="27" t="s">
         <v>1211</v>
       </c>
@@ -12369,7 +12308,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B133" s="27" t="s">
         <v>1211</v>
       </c>
@@ -12386,7 +12325,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B134" s="27" t="s">
         <v>1208</v>
       </c>
@@ -12403,7 +12342,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B135" s="27" t="s">
         <v>1208</v>
       </c>
@@ -12420,7 +12359,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B136" s="27" t="s">
         <v>1206</v>
       </c>
@@ -12437,7 +12376,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B137" s="27" t="s">
         <v>1204</v>
       </c>
@@ -12454,7 +12393,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B138" s="27" t="s">
         <v>1202</v>
       </c>
@@ -12471,7 +12410,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B139" s="27" t="s">
         <v>1198</v>
       </c>
@@ -12488,7 +12427,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B140" s="27" t="s">
         <v>1198</v>
       </c>
@@ -12505,7 +12444,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B141" s="27" t="s">
         <v>1196</v>
       </c>
@@ -12522,7 +12461,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B142" s="27" t="s">
         <v>1196</v>
       </c>
@@ -12539,7 +12478,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B143" s="27" t="s">
         <v>1194</v>
       </c>
@@ -12550,7 +12489,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B144" s="27" t="s">
         <v>121</v>
       </c>
@@ -12570,7 +12509,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B145" s="27" t="s">
         <v>121</v>
       </c>
@@ -12587,7 +12526,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B146" s="27" t="s">
         <v>1190</v>
       </c>
@@ -12604,7 +12543,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B147" s="27" t="s">
         <v>1188</v>
       </c>
@@ -12621,7 +12560,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B148" s="27" t="s">
         <v>1186</v>
       </c>
@@ -12638,7 +12577,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B149" s="27" t="s">
         <v>1184</v>
       </c>
@@ -12655,13 +12594,13 @@
         <v>446</v>
       </c>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B150" s="27" t="s">
         <v>1182</v>
       </c>
       <c r="D150" s="28"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B151" s="27" t="s">
         <v>1180</v>
       </c>
@@ -12678,7 +12617,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B152" s="27" t="s">
         <v>1180</v>
       </c>
@@ -12695,7 +12634,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B153" s="27" t="s">
         <v>1173</v>
       </c>
@@ -12712,7 +12651,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B154" s="27" t="s">
         <v>1173</v>
       </c>
@@ -12729,7 +12668,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B155" s="27" t="s">
         <v>1173</v>
       </c>
@@ -12746,7 +12685,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B156" s="27" t="s">
         <v>1173</v>
       </c>
@@ -12763,7 +12702,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B157" s="27" t="s">
         <v>1171</v>
       </c>
@@ -12774,7 +12713,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B158" s="27" t="s">
         <v>1170</v>
       </c>
@@ -12791,7 +12730,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B159" s="27" t="s">
         <v>1168</v>
       </c>
@@ -12802,7 +12741,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B160" s="27" t="s">
         <v>1166</v>
       </c>
@@ -12819,7 +12758,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B161" s="27" t="s">
         <v>1164</v>
       </c>
@@ -12830,7 +12769,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B162" s="27" t="s">
         <v>1163</v>
       </c>
@@ -12850,7 +12789,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B163" s="27" t="s">
         <v>1160</v>
       </c>
@@ -12867,7 +12806,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B164" s="27" t="s">
         <v>1157</v>
       </c>
@@ -12884,7 +12823,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B165" s="27" t="s">
         <v>1157</v>
       </c>
@@ -12901,7 +12840,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B166" s="27" t="s">
         <v>1154</v>
       </c>
@@ -12912,7 +12851,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B167" s="27" t="s">
         <v>1153</v>
       </c>
@@ -12929,7 +12868,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B168" s="27" t="s">
         <v>1149</v>
       </c>
@@ -12946,7 +12885,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B169" s="27" t="s">
         <v>1149</v>
       </c>
@@ -12963,7 +12902,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B170" s="27" t="s">
         <v>1146</v>
       </c>
@@ -12974,7 +12913,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B171" s="27" t="s">
         <v>1145</v>
       </c>
@@ -12991,7 +12930,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B172" s="27" t="s">
         <v>1143</v>
       </c>
@@ -13008,7 +12947,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B173" s="27" t="s">
         <v>1141</v>
       </c>
@@ -13025,7 +12964,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B174" s="27" t="s">
         <v>1138</v>
       </c>
@@ -13042,7 +12981,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B175" s="27" t="s">
         <v>1136</v>
       </c>
@@ -13059,7 +12998,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B176" s="27" t="s">
         <v>1134</v>
       </c>
@@ -13076,7 +13015,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B177" s="27" t="s">
         <v>1129</v>
       </c>
@@ -13096,7 +13035,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B178" s="27" t="s">
         <v>1129</v>
       </c>
@@ -13116,7 +13055,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B179" s="27" t="s">
         <v>1129</v>
       </c>
@@ -13139,7 +13078,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B180" s="27" t="s">
         <v>1127</v>
       </c>
@@ -13156,7 +13095,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B181" s="27" t="s">
         <v>325</v>
       </c>
@@ -13179,7 +13118,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B182" s="27" t="s">
         <v>325</v>
       </c>
@@ -13196,7 +13135,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B183" s="27" t="s">
         <v>325</v>
       </c>
@@ -13216,7 +13155,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B184" s="27" t="s">
         <v>325</v>
       </c>
@@ -13233,7 +13172,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B185" s="27" t="s">
         <v>1121</v>
       </c>
@@ -13250,7 +13189,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B186" s="27" t="s">
         <v>1117</v>
       </c>
@@ -13267,7 +13206,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B187" s="27" t="s">
         <v>1117</v>
       </c>
@@ -13284,7 +13223,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B188" s="27" t="s">
         <v>1114</v>
       </c>
@@ -13301,7 +13240,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B189" s="27" t="s">
         <v>1112</v>
       </c>
@@ -13318,7 +13257,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B190" s="27" t="s">
         <v>1110</v>
       </c>
@@ -13335,7 +13274,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B191" s="27" t="s">
         <v>1107</v>
       </c>
@@ -13352,7 +13291,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B192" s="27" t="s">
         <v>1107</v>
       </c>
@@ -13369,7 +13308,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B193" s="27" t="s">
         <v>1105</v>
       </c>
@@ -13389,7 +13328,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B194" s="27" t="s">
         <v>1105</v>
       </c>
@@ -13406,7 +13345,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B195" s="27" t="s">
         <v>1103</v>
       </c>
@@ -13423,7 +13362,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B196" s="27" t="s">
         <v>1100</v>
       </c>
@@ -13440,7 +13379,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B197" s="27" t="s">
         <v>1098</v>
       </c>
@@ -13451,7 +13390,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B198" s="27" t="s">
         <v>1098</v>
       </c>
@@ -13468,7 +13407,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B199" s="27" t="s">
         <v>1096</v>
       </c>
@@ -13479,7 +13418,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B200" s="27" t="s">
         <v>1095</v>
       </c>
@@ -13490,7 +13429,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B201" s="27" t="s">
         <v>1093</v>
       </c>
@@ -13507,7 +13446,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B202" s="27" t="s">
         <v>1093</v>
       </c>
@@ -13524,7 +13463,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B203" s="27" t="s">
         <v>1091</v>
       </c>
@@ -13541,7 +13480,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="204" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B204" s="27" t="s">
         <v>1088</v>
       </c>
@@ -13558,7 +13497,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="205" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B205" s="27" t="s">
         <v>1088</v>
       </c>
@@ -13575,7 +13514,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="206" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B206" s="27" t="s">
         <v>1086</v>
       </c>
@@ -13592,7 +13531,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="207" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B207" s="27" t="s">
         <v>1082</v>
       </c>
@@ -13609,7 +13548,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="208" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B208" s="27" t="s">
         <v>1082</v>
       </c>
@@ -13626,7 +13565,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="209" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B209" s="27" t="s">
         <v>1076</v>
       </c>
@@ -13643,7 +13582,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="210" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B210" s="27" t="s">
         <v>1076</v>
       </c>
@@ -13660,7 +13599,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="211" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B211" s="27" t="s">
         <v>1076</v>
       </c>
@@ -13677,7 +13616,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="212" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B212" s="27" t="s">
         <v>1073</v>
       </c>
@@ -13694,7 +13633,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="213" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B213" s="27" t="s">
         <v>1071</v>
       </c>
@@ -13711,7 +13650,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B214" s="27" t="s">
         <v>1068</v>
       </c>
@@ -13722,7 +13661,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="215" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B215" s="27" t="s">
         <v>1067</v>
       </c>
@@ -13739,7 +13678,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="216" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B216" s="27" t="s">
         <v>1065</v>
       </c>
@@ -13759,7 +13698,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="217" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B217" s="27" t="s">
         <v>1063</v>
       </c>
@@ -13776,7 +13715,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B218" s="27" t="s">
         <v>1059</v>
       </c>
@@ -13793,7 +13732,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="219" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B219" s="27" t="s">
         <v>1059</v>
       </c>
@@ -13810,7 +13749,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="220" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B220" s="27" t="s">
         <v>1056</v>
       </c>
@@ -13830,7 +13769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B221" s="27" t="s">
         <v>1053</v>
       </c>
@@ -13847,7 +13786,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B222" s="27" t="s">
         <v>1045</v>
       </c>
@@ -13867,7 +13806,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B223" s="27" t="s">
         <v>1045</v>
       </c>
@@ -13887,7 +13826,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B224" s="27" t="s">
         <v>1045</v>
       </c>
@@ -13904,7 +13843,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="225" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B225" s="27" t="s">
         <v>1045</v>
       </c>
@@ -13921,7 +13860,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="226" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B226" s="27" t="s">
         <v>1045</v>
       </c>
@@ -13938,7 +13877,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="227" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B227" s="27" t="s">
         <v>1042</v>
       </c>
@@ -13955,7 +13894,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="228" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B228" s="27" t="s">
         <v>1039</v>
       </c>
@@ -13972,7 +13911,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B229" s="27" t="s">
         <v>1036</v>
       </c>
@@ -13989,7 +13928,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="230" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B230" s="27" t="s">
         <v>1034</v>
       </c>
@@ -14006,7 +13945,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="231" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B231" s="27" t="s">
         <v>1031</v>
       </c>
@@ -14017,7 +13956,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="232" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B232" s="27" t="s">
         <v>1030</v>
       </c>
@@ -14034,7 +13973,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="233" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B233" s="27" t="s">
         <v>1027</v>
       </c>
@@ -14051,7 +13990,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="234" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B234" s="27" t="s">
         <v>1024</v>
       </c>
@@ -14068,7 +14007,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B235" s="27" t="s">
         <v>1024</v>
       </c>
@@ -14085,7 +14024,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="236" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B236" s="27" t="s">
         <v>115</v>
       </c>
@@ -14096,7 +14035,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="237" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B237" s="27" t="s">
         <v>1022</v>
       </c>
@@ -14113,7 +14052,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="238" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B238" s="27" t="s">
         <v>1020</v>
       </c>
@@ -14130,7 +14069,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="239" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B239" s="27" t="s">
         <v>1018</v>
       </c>
@@ -14147,7 +14086,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="240" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B240" s="27" t="s">
         <v>1016</v>
       </c>
@@ -14158,7 +14097,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B241" s="27" t="s">
         <v>1015</v>
       </c>
@@ -14175,7 +14114,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B242" s="27" t="s">
         <v>1013</v>
       </c>
@@ -14192,7 +14131,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B243" s="27" t="s">
         <v>1010</v>
       </c>
@@ -14203,7 +14142,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B244" s="27" t="s">
         <v>1010</v>
       </c>
@@ -14220,7 +14159,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="245" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B245" s="27" t="s">
         <v>1010</v>
       </c>
@@ -14237,7 +14176,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B246" s="27" t="s">
         <v>1008</v>
       </c>
@@ -14254,7 +14193,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B247" s="27" t="s">
         <v>1006</v>
       </c>
@@ -14271,7 +14210,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B248" s="27" t="s">
         <v>1004</v>
       </c>
@@ -14288,7 +14227,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B249" s="27" t="s">
         <v>82</v>
       </c>
@@ -14326,7 +14265,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B250" s="27" t="s">
         <v>994</v>
       </c>
@@ -14337,7 +14276,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B251" s="27" t="s">
         <v>993</v>
       </c>
@@ -14354,7 +14293,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B252" s="27" t="s">
         <v>991</v>
       </c>
@@ -14371,7 +14310,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B253" s="27" t="s">
         <v>991</v>
       </c>
@@ -14388,7 +14327,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B254" s="27" t="s">
         <v>989</v>
       </c>
@@ -14405,7 +14344,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B255" s="27" t="s">
         <v>987</v>
       </c>
@@ -14422,7 +14361,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="256" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B256" s="27" t="s">
         <v>985</v>
       </c>
@@ -14439,7 +14378,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B257" s="27" t="s">
         <v>982</v>
       </c>
@@ -14456,7 +14395,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B258" s="27" t="s">
         <v>978</v>
       </c>
@@ -14473,7 +14412,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B259" s="27" t="s">
         <v>978</v>
       </c>
@@ -14490,7 +14429,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B260" s="27" t="s">
         <v>975</v>
       </c>
@@ -14507,7 +14446,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B261" s="27" t="s">
         <v>973</v>
       </c>
@@ -14527,7 +14466,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B262" s="27" t="s">
         <v>971</v>
       </c>
@@ -14544,7 +14483,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B263" s="27" t="s">
         <v>969</v>
       </c>
@@ -14561,7 +14500,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B264" s="27" t="s">
         <v>966</v>
       </c>
@@ -14578,7 +14517,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B265" s="27" t="s">
         <v>964</v>
       </c>
@@ -14598,7 +14537,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B266" s="27" t="s">
         <v>962</v>
       </c>
@@ -14615,7 +14554,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B267" s="27" t="s">
         <v>960</v>
       </c>
@@ -14632,7 +14571,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="268" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B268" s="27" t="s">
         <v>958</v>
       </c>
@@ -14649,7 +14588,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B269" s="27" t="s">
         <v>958</v>
       </c>
@@ -14666,7 +14605,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B270" s="27" t="s">
         <v>956</v>
       </c>
@@ -14683,7 +14622,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B271" s="27" t="s">
         <v>71</v>
       </c>
@@ -14694,7 +14633,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B272" s="27" t="s">
         <v>953</v>
       </c>
@@ -14711,7 +14650,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="273" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B273" s="27" t="s">
         <v>950</v>
       </c>
@@ -14728,7 +14667,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B274" s="27" t="s">
         <v>947</v>
       </c>
@@ -14745,7 +14684,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B275" s="27" t="s">
         <v>945</v>
       </c>
@@ -14756,7 +14695,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B276" s="27" t="s">
         <v>944</v>
       </c>
@@ -14770,7 +14709,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B277" s="27" t="s">
         <v>943</v>
       </c>
@@ -14787,7 +14726,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B278" s="27" t="s">
         <v>940</v>
       </c>
@@ -14804,7 +14743,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B279" s="27" t="s">
         <v>938</v>
       </c>
@@ -14821,7 +14760,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B280" s="27" t="s">
         <v>935</v>
       </c>
@@ -14838,7 +14777,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B281" s="27" t="s">
         <v>933</v>
       </c>
@@ -14855,7 +14794,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B282" s="27" t="s">
         <v>931</v>
       </c>
@@ -14872,7 +14811,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B283" s="27" t="s">
         <v>928</v>
       </c>
@@ -14889,7 +14828,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B284" s="27" t="s">
         <v>928</v>
       </c>
@@ -14906,7 +14845,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B285" s="27" t="s">
         <v>925</v>
       </c>
@@ -14923,7 +14862,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="286" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B286" s="27" t="s">
         <v>923</v>
       </c>
@@ -14940,7 +14879,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B287" s="27" t="s">
         <v>921</v>
       </c>
@@ -14957,7 +14896,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B288" s="27" t="s">
         <v>919</v>
       </c>
@@ -14974,7 +14913,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="289" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B289" s="27" t="s">
         <v>917</v>
       </c>
@@ -14985,7 +14924,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="290" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B290" s="27" t="s">
         <v>916</v>
       </c>
@@ -15002,7 +14941,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="291" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B291" s="27" t="s">
         <v>914</v>
       </c>
@@ -15019,7 +14958,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="292" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B292" s="27" t="s">
         <v>911</v>
       </c>
@@ -15036,7 +14975,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B293" s="27" t="s">
         <v>911</v>
       </c>
@@ -15053,7 +14992,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="294" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B294" s="27" t="s">
         <v>908</v>
       </c>
@@ -15070,7 +15009,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="295" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B295" s="27" t="s">
         <v>908</v>
       </c>
@@ -15087,7 +15026,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="296" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B296" s="27" t="s">
         <v>908</v>
       </c>
@@ -15104,7 +15043,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="297" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B297" s="27" t="s">
         <v>905</v>
       </c>
@@ -15121,7 +15060,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="298" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B298" s="27" t="s">
         <v>901</v>
       </c>
@@ -15138,7 +15077,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="299" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B299" s="27" t="s">
         <v>901</v>
       </c>
@@ -15155,7 +15094,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="300" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B300" s="27" t="s">
         <v>899</v>
       </c>
@@ -15172,7 +15111,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="301" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B301" s="27" t="s">
         <v>897</v>
       </c>
@@ -15189,7 +15128,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="302" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B302" s="27" t="s">
         <v>894</v>
       </c>
@@ -15209,7 +15148,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="303" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B303" s="27" t="s">
         <v>894</v>
       </c>
@@ -15226,7 +15165,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="304" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B304" s="27" t="s">
         <v>894</v>
       </c>
@@ -15243,7 +15182,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B305" s="27" t="s">
         <v>894</v>
       </c>
@@ -15260,7 +15199,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B306" s="27" t="s">
         <v>892</v>
       </c>
@@ -15277,7 +15216,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B307" s="27" t="s">
         <v>890</v>
       </c>
@@ -15294,7 +15233,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="308" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B308" s="27" t="s">
         <v>884</v>
       </c>
@@ -15311,7 +15250,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B309" s="27" t="s">
         <v>884</v>
       </c>
@@ -15328,7 +15267,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B310" s="27" t="s">
         <v>884</v>
       </c>
@@ -15345,7 +15284,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B311" s="27" t="s">
         <v>884</v>
       </c>
@@ -15362,7 +15301,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B312" s="27" t="s">
         <v>881</v>
       </c>
@@ -15376,7 +15315,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B313" s="27" t="s">
         <v>880</v>
       </c>
@@ -15387,7 +15326,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B314" s="27" t="s">
         <v>879</v>
       </c>
@@ -15404,7 +15343,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B315" s="27" t="s">
         <v>877</v>
       </c>
@@ -15421,7 +15360,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B316" s="27" t="s">
         <v>875</v>
       </c>
@@ -15438,7 +15377,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B317" s="27" t="s">
         <v>875</v>
       </c>
@@ -15455,7 +15394,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B318" s="27" t="s">
         <v>872</v>
       </c>
@@ -15472,7 +15411,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="319" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B319" s="27" t="s">
         <v>870</v>
       </c>
@@ -15489,7 +15428,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B320" s="27" t="s">
         <v>118</v>
       </c>
@@ -15506,7 +15445,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B321" s="27" t="s">
         <v>118</v>
       </c>
@@ -15523,7 +15462,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B322" s="27" t="s">
         <v>865</v>
       </c>
@@ -15540,7 +15479,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B323" s="27" t="s">
         <v>863</v>
       </c>
@@ -15551,7 +15490,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B324" s="27" t="s">
         <v>862</v>
       </c>
@@ -15568,7 +15507,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B325" s="27" t="s">
         <v>858</v>
       </c>
@@ -15579,7 +15518,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B326" s="27" t="s">
         <v>858</v>
       </c>
@@ -15596,7 +15535,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B327" s="27" t="s">
         <v>856</v>
       </c>
@@ -15613,7 +15552,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B328" s="27" t="s">
         <v>854</v>
       </c>
@@ -15630,7 +15569,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B329" s="27" t="s">
         <v>852</v>
       </c>
@@ -15647,7 +15586,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="330" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B330" s="27" t="s">
         <v>43</v>
       </c>
@@ -15664,7 +15603,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B331" s="27" t="s">
         <v>43</v>
       </c>
@@ -15681,7 +15620,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B332" s="27" t="s">
         <v>844</v>
       </c>
@@ -15698,7 +15637,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B333" s="27" t="s">
         <v>844</v>
       </c>
@@ -15715,7 +15654,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B334" s="27" t="s">
         <v>844</v>
       </c>
@@ -15732,7 +15671,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B335" s="27" t="s">
         <v>842</v>
       </c>
@@ -15749,7 +15688,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B336" s="27" t="s">
         <v>332</v>
       </c>
@@ -15766,7 +15705,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B337" s="27" t="s">
         <v>332</v>
       </c>
@@ -15783,7 +15722,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B338" s="27" t="s">
         <v>837</v>
       </c>
@@ -15800,7 +15739,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B339" s="27" t="s">
         <v>834</v>
       </c>
@@ -15817,7 +15756,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B340" s="27" t="s">
         <v>834</v>
       </c>
@@ -15834,7 +15773,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="341" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B341" s="27" t="s">
         <v>830</v>
       </c>
@@ -15851,7 +15790,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B342" s="27" t="s">
         <v>830</v>
       </c>
@@ -15868,7 +15807,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B343" s="27" t="s">
         <v>340</v>
       </c>
@@ -15885,7 +15824,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B344" s="27" t="s">
         <v>340</v>
       </c>
@@ -15902,7 +15841,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B345" s="27" t="s">
         <v>340</v>
       </c>
@@ -15919,7 +15858,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B346" s="27" t="s">
         <v>823</v>
       </c>
@@ -15936,7 +15875,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B347" s="27" t="s">
         <v>821</v>
       </c>
@@ -15953,7 +15892,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B348" s="27" t="s">
         <v>821</v>
       </c>
@@ -15970,7 +15909,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B349" s="27" t="s">
         <v>819</v>
       </c>
@@ -15993,7 +15932,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B350" s="27" t="s">
         <v>816</v>
       </c>
@@ -16013,7 +15952,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B351" s="27" t="s">
         <v>816</v>
       </c>
@@ -16030,7 +15969,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="352" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B352" s="27" t="s">
         <v>814</v>
       </c>
@@ -16050,7 +15989,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B353" s="27" t="s">
         <v>811</v>
       </c>
@@ -16061,7 +16000,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B354" s="27" t="s">
         <v>810</v>
       </c>
@@ -16078,7 +16017,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B355" s="27" t="s">
         <v>806</v>
       </c>
@@ -16098,7 +16037,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B356" s="27" t="s">
         <v>806</v>
       </c>
@@ -16115,7 +16054,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B357" s="27" t="s">
         <v>803</v>
       </c>
@@ -16126,7 +16065,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B358" s="27" t="s">
         <v>801</v>
       </c>
@@ -16143,7 +16082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B359" s="27" t="s">
         <v>801</v>
       </c>
@@ -16160,7 +16099,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B360" s="27" t="s">
         <v>799</v>
       </c>
@@ -16177,7 +16116,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B361" s="27" t="s">
         <v>797</v>
       </c>
@@ -16188,7 +16127,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B362" s="27" t="s">
         <v>797</v>
       </c>
@@ -16205,7 +16144,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B363" s="27" t="s">
         <v>794</v>
       </c>
@@ -16222,7 +16161,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B364" s="27" t="s">
         <v>792</v>
       </c>
@@ -16239,7 +16178,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B365" s="27" t="s">
         <v>789</v>
       </c>
@@ -16256,7 +16195,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B366" s="27" t="s">
         <v>789</v>
       </c>
@@ -16273,7 +16212,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B367" s="27" t="s">
         <v>785</v>
       </c>
@@ -16290,7 +16229,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B368" s="27" t="s">
         <v>785</v>
       </c>
@@ -16307,7 +16246,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B369" s="27" t="s">
         <v>785</v>
       </c>
@@ -16324,7 +16263,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B370" s="27" t="s">
         <v>781</v>
       </c>
@@ -16341,7 +16280,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B371" s="27" t="s">
         <v>781</v>
       </c>
@@ -16358,7 +16297,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B372" s="27" t="s">
         <v>779</v>
       </c>
@@ -16369,7 +16308,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B373" s="27" t="s">
         <v>779</v>
       </c>
@@ -16386,7 +16325,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="374" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B374" s="27" t="s">
         <v>779</v>
       </c>
@@ -16403,7 +16342,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B375" s="27" t="s">
         <v>777</v>
       </c>
@@ -16420,7 +16359,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B376" s="27" t="s">
         <v>775</v>
       </c>
@@ -16437,7 +16376,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B377" s="27" t="s">
         <v>773</v>
       </c>
@@ -16454,7 +16393,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B378" s="27" t="s">
         <v>771</v>
       </c>
@@ -16471,7 +16410,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B379" s="27" t="s">
         <v>769</v>
       </c>
@@ -16488,7 +16427,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B380" s="27" t="s">
         <v>767</v>
       </c>
@@ -16499,7 +16438,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B381" s="27" t="s">
         <v>430</v>
       </c>
@@ -16516,7 +16455,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B382" s="27" t="s">
         <v>430</v>
       </c>
@@ -16533,7 +16472,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B383" s="27" t="s">
         <v>430</v>
       </c>
@@ -16550,7 +16489,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B384" s="27" t="s">
         <v>430</v>
       </c>
@@ -16567,7 +16506,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="385" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B385" s="27" t="s">
         <v>763</v>
       </c>
@@ -16584,7 +16523,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B386" s="27" t="s">
         <v>761</v>
       </c>
@@ -16601,7 +16540,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B387" s="27" t="s">
         <v>758</v>
       </c>
@@ -16621,7 +16560,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="388" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B388" s="27" t="s">
         <v>758</v>
       </c>
@@ -16638,7 +16577,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B389" s="27" t="s">
         <v>756</v>
       </c>
@@ -16655,7 +16594,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B390" s="27" t="s">
         <v>753</v>
       </c>
@@ -16672,7 +16611,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B391" s="27" t="s">
         <v>753</v>
       </c>
@@ -16689,7 +16628,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B392" s="27" t="s">
         <v>751</v>
       </c>
@@ -16706,7 +16645,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B393" s="27" t="s">
         <v>749</v>
       </c>
@@ -16717,7 +16656,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="394" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B394" s="27" t="s">
         <v>748</v>
       </c>
@@ -16728,7 +16667,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B395" s="27" t="s">
         <v>747</v>
       </c>
@@ -16739,7 +16678,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B396" s="27" t="s">
         <v>747</v>
       </c>
@@ -16759,7 +16698,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="397" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B397" s="27" t="s">
         <v>744</v>
       </c>
@@ -16776,7 +16715,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="398" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B398" s="27" t="s">
         <v>739</v>
       </c>
@@ -16793,7 +16732,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="399" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B399" s="27" t="s">
         <v>739</v>
       </c>
@@ -16810,7 +16749,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="400" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B400" s="27" t="s">
         <v>739</v>
       </c>
@@ -16827,7 +16766,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="401" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B401" s="27" t="s">
         <v>737</v>
       </c>
@@ -16835,7 +16774,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B402" s="27" t="s">
         <v>21</v>
       </c>
@@ -16855,7 +16794,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="403" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B403" s="27" t="s">
         <v>440</v>
       </c>
@@ -16872,7 +16811,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="404" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B404" s="27" t="s">
         <v>34</v>
       </c>
@@ -16889,7 +16828,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="405" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B405" s="27" t="s">
         <v>731</v>
       </c>
@@ -16906,7 +16845,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="406" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B406" s="27" t="s">
         <v>729</v>
       </c>
@@ -16923,7 +16862,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="407" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B407" s="27" t="s">
         <v>727</v>
       </c>
@@ -16940,7 +16879,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="408" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B408" s="27" t="s">
         <v>725</v>
       </c>
@@ -16951,7 +16890,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="409" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B409" s="27" t="s">
         <v>724</v>
       </c>
@@ -16971,7 +16910,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="410" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B410" s="27" t="s">
         <v>722</v>
       </c>
@@ -16988,7 +16927,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="411" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B411" s="27" t="s">
         <v>719</v>
       </c>
@@ -16999,7 +16938,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="412" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B412" s="27" t="s">
         <v>717</v>
       </c>
@@ -17016,7 +16955,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="413" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B413" s="27" t="s">
         <v>717</v>
       </c>
@@ -17033,7 +16972,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="414" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B414" s="27" t="s">
         <v>715</v>
       </c>
@@ -17050,7 +16989,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="415" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B415" s="27" t="s">
         <v>713</v>
       </c>
@@ -17067,7 +17006,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="416" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B416" s="27" t="s">
         <v>711</v>
       </c>
@@ -17084,7 +17023,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="417" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B417" s="27" t="s">
         <v>708</v>
       </c>
@@ -17101,7 +17040,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="418" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B418" s="27" t="s">
         <v>706</v>
       </c>
@@ -17118,7 +17057,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="419" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B419" s="27" t="s">
         <v>701</v>
       </c>
@@ -17135,7 +17074,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="420" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B420" s="27" t="s">
         <v>701</v>
       </c>
@@ -17152,7 +17091,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="421" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B421" s="27" t="s">
         <v>699</v>
       </c>
@@ -17169,7 +17108,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="422" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B422" s="27" t="s">
         <v>697</v>
       </c>
@@ -17186,7 +17125,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="423" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B423" s="27" t="s">
         <v>692</v>
       </c>
@@ -17203,7 +17142,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="424" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B424" s="27" t="s">
         <v>692</v>
       </c>
@@ -17220,7 +17159,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="425" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B425" s="27" t="s">
         <v>317</v>
       </c>
@@ -17237,7 +17176,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="426" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B426" s="27" t="s">
         <v>687</v>
       </c>
@@ -17248,7 +17187,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="427" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B427" s="27" t="s">
         <v>686</v>
       </c>
@@ -17265,7 +17204,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="428" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B428" s="27" t="s">
         <v>683</v>
       </c>
@@ -17282,7 +17221,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="429" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B429" s="27" t="s">
         <v>679</v>
       </c>
@@ -17299,7 +17238,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="430" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B430" s="27" t="s">
         <v>679</v>
       </c>
@@ -17316,7 +17255,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="431" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B431" s="27" t="s">
         <v>676</v>
       </c>
@@ -17333,7 +17272,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="432" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B432" s="27" t="s">
         <v>674</v>
       </c>
@@ -17350,7 +17289,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="433" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B433" s="27" t="s">
         <v>671</v>
       </c>
@@ -17367,7 +17306,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="434" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B434" s="27" t="s">
         <v>671</v>
       </c>
@@ -17384,7 +17323,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="435" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B435" s="27" t="s">
         <v>668</v>
       </c>
@@ -17395,7 +17334,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="436" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B436" s="27" t="s">
         <v>664</v>
       </c>
@@ -17412,7 +17351,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="437" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B437" s="27" t="s">
         <v>664</v>
       </c>
@@ -17429,7 +17368,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="438" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B438" s="27" t="s">
         <v>661</v>
       </c>
@@ -17446,7 +17385,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="439" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B439" s="27" t="s">
         <v>657</v>
       </c>
@@ -17463,7 +17402,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="440" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B440" s="27" t="s">
         <v>657</v>
       </c>
@@ -17480,7 +17419,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B441" s="27" t="s">
         <v>657</v>
       </c>
@@ -17497,7 +17436,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="442" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B442" s="27" t="s">
         <v>654</v>
       </c>
@@ -17514,7 +17453,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B443" s="27" t="s">
         <v>652</v>
       </c>
@@ -17531,7 +17470,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B444" s="27" t="s">
         <v>650</v>
       </c>
@@ -17542,7 +17481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="445" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B445" s="27" t="s">
         <v>649</v>
       </c>
@@ -17559,7 +17498,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="446" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B446" s="27" t="s">
         <v>646</v>
       </c>
@@ -17576,7 +17515,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="447" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B447" s="27" t="s">
         <v>643</v>
       </c>
@@ -17593,7 +17532,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="448" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B448" s="27" t="s">
         <v>639</v>
       </c>
@@ -17610,7 +17549,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="449" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B449" s="27" t="s">
         <v>639</v>
       </c>
@@ -17627,7 +17566,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B450" s="27" t="s">
         <v>639</v>
       </c>
@@ -17644,7 +17583,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="451" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B451" s="27" t="s">
         <v>637</v>
       </c>
@@ -17661,7 +17600,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="452" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B452" s="27" t="s">
         <v>637</v>
       </c>
@@ -17678,7 +17617,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="453" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B453" s="27" t="s">
         <v>635</v>
       </c>
@@ -17695,7 +17634,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="454" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B454" s="27" t="s">
         <v>631</v>
       </c>
@@ -17706,7 +17645,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="455" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B455" s="27" t="s">
         <v>631</v>
       </c>
@@ -17723,7 +17662,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="456" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B456" s="27" t="s">
         <v>631</v>
       </c>
@@ -17740,7 +17679,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B457" s="27" t="s">
         <v>627</v>
       </c>
@@ -17760,7 +17699,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="458" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B458" s="27" t="s">
         <v>627</v>
       </c>
@@ -17780,7 +17719,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="459" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B459" s="27" t="s">
         <v>624</v>
       </c>
@@ -17797,7 +17736,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="460" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B460" s="27" t="s">
         <v>624</v>
       </c>
@@ -17814,7 +17753,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="461" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B461" s="27" t="s">
         <v>624</v>
       </c>
@@ -17831,7 +17770,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="462" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B462" s="27" t="s">
         <v>15</v>
       </c>
@@ -17842,7 +17781,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="463" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B463" s="27" t="s">
         <v>15</v>
       </c>
@@ -17862,7 +17801,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="464" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B464" s="27" t="s">
         <v>620</v>
       </c>
@@ -17879,7 +17818,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="465" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B465" s="27" t="s">
         <v>617</v>
       </c>
@@ -17890,7 +17829,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="466" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B466" s="27" t="s">
         <v>616</v>
       </c>
@@ -17907,7 +17846,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="467" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B467" s="27" t="s">
         <v>613</v>
       </c>
@@ -17918,7 +17857,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="468" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B468" s="27" t="s">
         <v>612</v>
       </c>
@@ -17938,7 +17877,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="469" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B469" s="27" t="s">
         <v>610</v>
       </c>
@@ -17958,7 +17897,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="470" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B470" s="27" t="s">
         <v>608</v>
       </c>
@@ -17975,7 +17914,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="471" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B471" s="27" t="s">
         <v>605</v>
       </c>
@@ -17992,7 +17931,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="472" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B472" s="27" t="s">
         <v>602</v>
       </c>
@@ -18009,7 +17948,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="473" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B473" s="27" t="s">
         <v>599</v>
       </c>
@@ -18020,7 +17959,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="474" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B474" s="27" t="s">
         <v>598</v>
       </c>
@@ -18037,7 +17976,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="475" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B475" s="27" t="s">
         <v>595</v>
       </c>
@@ -18054,7 +17993,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="476" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B476" s="27" t="s">
         <v>593</v>
       </c>
@@ -18071,7 +18010,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="477" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B477" s="27" t="s">
         <v>589</v>
       </c>
@@ -18088,7 +18027,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="478" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B478" s="27" t="s">
         <v>589</v>
       </c>
@@ -18105,7 +18044,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="479" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B479" s="27" t="s">
         <v>584</v>
       </c>
@@ -18125,7 +18064,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="480" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B480" s="27" t="s">
         <v>584</v>
       </c>
@@ -18145,7 +18084,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="481" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B481" s="27" t="s">
         <v>584</v>
       </c>
@@ -18165,7 +18104,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="482" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B482" s="27" t="s">
         <v>581</v>
       </c>
@@ -18182,7 +18121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="483" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B483" s="27" t="s">
         <v>579</v>
       </c>
@@ -18199,7 +18138,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="484" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B484" s="27" t="s">
         <v>577</v>
       </c>
@@ -18216,7 +18155,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="485" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B485" s="27" t="s">
         <v>575</v>
       </c>
@@ -18233,7 +18172,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="486" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B486" s="27" t="s">
         <v>572</v>
       </c>
@@ -18250,7 +18189,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="487" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B487" s="27" t="s">
         <v>570</v>
       </c>
@@ -18267,7 +18206,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="488" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B488" s="27" t="s">
         <v>566</v>
       </c>
@@ -18284,7 +18223,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="489" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B489" s="27" t="s">
         <v>566</v>
       </c>
@@ -18301,7 +18240,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="490" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B490" s="27" t="s">
         <v>566</v>
       </c>
@@ -18318,7 +18257,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="491" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B491" s="27" t="s">
         <v>564</v>
       </c>
@@ -18335,7 +18274,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="492" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B492" s="27" t="s">
         <v>136</v>
       </c>
@@ -18352,7 +18291,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="493" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B493" s="27" t="s">
         <v>560</v>
       </c>
@@ -18369,7 +18308,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="494" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B494" s="27" t="s">
         <v>558</v>
       </c>
@@ -18386,7 +18325,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="495" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B495" s="27" t="s">
         <v>555</v>
       </c>
@@ -18406,7 +18345,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="496" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B496" s="27" t="s">
         <v>555</v>
       </c>
@@ -18423,7 +18362,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="497" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B497" s="27" t="s">
         <v>552</v>
       </c>
@@ -18440,7 +18379,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="498" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B498" s="27" t="s">
         <v>550</v>
       </c>
@@ -18457,7 +18396,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="499" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B499" s="27" t="s">
         <v>544</v>
       </c>
@@ -18474,7 +18413,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="500" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B500" s="27" t="s">
         <v>544</v>
       </c>
@@ -18491,7 +18430,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="501" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B501" s="27" t="s">
         <v>544</v>
       </c>
@@ -18508,7 +18447,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="502" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B502" s="27" t="s">
         <v>420</v>
       </c>
@@ -18525,7 +18464,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="503" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B503" s="27" t="s">
         <v>420</v>
       </c>
@@ -18542,7 +18481,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="504" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B504" s="27" t="s">
         <v>539</v>
       </c>
@@ -18559,7 +18498,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="505" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B505" s="27" t="s">
         <v>537</v>
       </c>
@@ -18576,7 +18515,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="506" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B506" s="27" t="s">
         <v>534</v>
       </c>
@@ -18593,7 +18532,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="507" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B507" s="27" t="s">
         <v>532</v>
       </c>
@@ -18613,7 +18552,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="508" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B508" s="27" t="s">
         <v>529</v>
       </c>
@@ -18630,7 +18569,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="509" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B509" s="27" t="s">
         <v>526</v>
       </c>
@@ -18647,7 +18586,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="510" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B510" s="27" t="s">
         <v>524</v>
       </c>
@@ -18664,7 +18603,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="511" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B511" s="27" t="s">
         <v>521</v>
       </c>
@@ -18681,7 +18620,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="512" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B512" s="27" t="s">
         <v>518</v>
       </c>
@@ -18698,7 +18637,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="513" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B513" s="27" t="s">
         <v>515</v>
       </c>
@@ -18715,7 +18654,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="514" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B514" s="27" t="s">
         <v>513</v>
       </c>
@@ -18732,7 +18671,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="515" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B515" s="27" t="s">
         <v>510</v>
       </c>
@@ -18749,7 +18688,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="516" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B516" s="27" t="s">
         <v>507</v>
       </c>
@@ -18766,7 +18705,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="517" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B517" s="27" t="s">
         <v>505</v>
       </c>
@@ -18783,7 +18722,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="518" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B518" s="27" t="s">
         <v>46</v>
       </c>
@@ -18800,7 +18739,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="519" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B519" s="27" t="s">
         <v>500</v>
       </c>
@@ -18817,7 +18756,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="520" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B520" s="27" t="s">
         <v>497</v>
       </c>
@@ -18834,7 +18773,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="521" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B521" s="27" t="s">
         <v>494</v>
       </c>
@@ -18851,7 +18790,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="522" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B522" s="27" t="s">
         <v>492</v>
       </c>
@@ -18868,7 +18807,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="523" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B523" s="27" t="s">
         <v>490</v>
       </c>
@@ -18885,7 +18824,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="524" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B524" s="27" t="s">
         <v>486</v>
       </c>
@@ -18902,7 +18841,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="525" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B525" s="27" t="s">
         <v>486</v>
       </c>
@@ -18919,7 +18858,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="526" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B526" s="27" t="s">
         <v>478</v>
       </c>
@@ -18936,7 +18875,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="527" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B527" s="27" t="s">
         <v>478</v>
       </c>
@@ -18953,7 +18892,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="528" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B528" s="27" t="s">
         <v>478</v>
       </c>
@@ -18970,7 +18909,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="529" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B529" s="27" t="s">
         <v>478</v>
       </c>
@@ -18987,7 +18926,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="530" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B530" s="27" t="s">
         <v>476</v>
       </c>
@@ -19004,7 +18943,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="531" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B531" s="27" t="s">
         <v>474</v>
       </c>
@@ -19021,7 +18960,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="532" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B532" s="27" t="s">
         <v>472</v>
       </c>
@@ -19038,7 +18977,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="533" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B533" s="29" t="s">
         <v>469</v>
       </c>
@@ -19055,7 +18994,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="534" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B534" s="27" t="s">
         <v>466</v>
       </c>
@@ -19066,7 +19005,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="535" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B535" s="27" t="s">
         <v>464</v>
       </c>
@@ -19083,7 +19022,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="536" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B536" s="27" t="s">
         <v>287</v>
       </c>
@@ -19100,7 +19039,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="537" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B537" s="27" t="s">
         <v>460</v>
       </c>
@@ -19117,7 +19056,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="538" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B538" s="27" t="s">
         <v>455</v>
       </c>
@@ -19134,7 +19073,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="539" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B539" s="27" t="s">
         <v>455</v>
       </c>
@@ -19151,7 +19090,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="540" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B540" s="27" t="s">
         <v>453</v>
       </c>
@@ -19168,7 +19107,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="541" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B541" s="27" t="s">
         <v>449</v>
       </c>
@@ -19179,7 +19118,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="542" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B542" s="27" t="s">
         <v>449</v>
       </c>
@@ -19196,7 +19135,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="543" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B543" s="27" t="s">
         <v>443</v>
       </c>
@@ -19213,7 +19152,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="544" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B544" s="27" t="s">
         <v>443</v>
       </c>
@@ -19230,7 +19169,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="545" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B545" s="27" t="s">
         <v>439</v>
       </c>
@@ -19247,7 +19186,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="546" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B546" s="27" t="s">
         <v>73</v>
       </c>
@@ -19264,7 +19203,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="547" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B547" s="27" t="s">
         <v>433</v>
       </c>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89AC52-53EB-44D2-BADD-9C1A21D225D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E3B78-1B56-40E4-BCF2-7B933F021375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37230" yWindow="1110" windowWidth="34740" windowHeight="19380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31770" yWindow="1140" windowWidth="28530" windowHeight="18735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1154">
   <si>
     <t>Name</t>
   </si>
@@ -3525,6 +3525,9 @@
   </si>
   <si>
     <t>a16z, WAGMI Ventures, GD1, Founderheads, Fenbushi, DCV Capital, Cyfrin, A.Capital</t>
+  </si>
+  <si>
+    <t>Distributed Global Investments</t>
   </si>
 </sst>
 </file>
@@ -3539,13 +3542,19 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3675,121 +3684,122 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9340,19 +9350,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6324C-2642-4F63-A053-17FE4931E5F1}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="49"/>
-    <col min="2" max="2" width="12.140625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
@@ -9392,6 +9402,11 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>1060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="59" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -10441,7 +10456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45209BF2-C486-44D4-B8B8-7682D8310EF0}">
   <dimension ref="B2:Z553"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="H433" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B00177-5C87-5F4E-A7A6-09CFB1E1EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D3559-43F8-4944-9B32-6477059B707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75000" yWindow="2300" windowWidth="29180" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="1498">
   <si>
     <t>Name</t>
   </si>
@@ -4546,6 +4546,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SHA-256 Collision Attack with Programmatic SAT</t>
+  </si>
+  <si>
+    <t>SAT and Lattice Reduction for Integer Factorization</t>
+  </si>
+  <si>
+    <t>Generalized Quantum-assisted Digital Signature</t>
+  </si>
+  <si>
+    <t>On the Response Entropy of APUFs</t>
+  </si>
+  <si>
+    <t>Secure Outsourced Decryption for HE-based Privacy-preserving Cloud Computing System</t>
   </si>
 </sst>
 </file>
@@ -4713,7 +4728,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4835,6 +4850,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9915,7 +9937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865AFB5A-3B93-0B44-9178-00C790FC52BE}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -13620,10 +13642,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13631,39 +13653,109 @@
     <col min="1" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="45" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="45" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="48" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="45" t="s">
         <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C14" s="67">
+        <v>20072</v>
+      </c>
+      <c r="D14" s="68">
+        <v>45472</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C15" s="67">
+        <v>20071</v>
+      </c>
+      <c r="D15" s="68">
+        <v>45472</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C16" s="67">
+        <v>19978</v>
+      </c>
+      <c r="D16" s="68">
+        <v>45472</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C17" s="67">
+        <v>19975</v>
+      </c>
+      <c r="D17" s="68">
+        <v>45472</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C18" s="67">
+        <v>19964</v>
+      </c>
+      <c r="D18" s="68">
+        <v>45472</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>1497</v>
       </c>
     </row>
   </sheetData>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D3559-43F8-4944-9B32-6477059B707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128046B8-7750-47FB-AD14-C65B6A90F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-49875" yWindow="1095" windowWidth="29520" windowHeight="18210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1514">
   <si>
     <t>Name</t>
   </si>
@@ -4561,6 +4561,54 @@
   </si>
   <si>
     <t>Secure Outsourced Decryption for HE-based Privacy-preserving Cloud Computing System</t>
+  </si>
+  <si>
+    <t>Quantum-Enhanced Secure Approval Voting Protocol</t>
+  </si>
+  <si>
+    <t>A Hardware-Friendly Shuffling Countermeasure Against Side-Channel Attacks for Kyber</t>
+  </si>
+  <si>
+    <t>A New Achievable Region of the K-User MAC Wiretap Channel with Confidential and Open Messages Under Strong Secrecy\</t>
+  </si>
+  <si>
+    <t>RollupTheCrowd: Leveraging ZkRollups for a Scalable and Privacy-Preserving Reputation-based Crowdsourcing Platform</t>
+  </si>
+  <si>
+    <t>Reusable Formal Verification of DAG-based Consensus Protocols</t>
+  </si>
+  <si>
+    <t>An Efficient and Sybil Attack Resistant Voting Mechanism</t>
+  </si>
+  <si>
+    <t>Immutable in Principle, Upgradeable by Design: Exploratory Study of Smart Contract Upgradeability</t>
+  </si>
+  <si>
+    <t>Maximizing Blockchain Performance: Mitigating Conflicting Transactions through Parallelism and Dependency Management</t>
+  </si>
+  <si>
+    <t>An Operational Semantics for Yul</t>
+  </si>
+  <si>
+    <t>SCIF: A Language for Compositional Smart Contract Security</t>
+  </si>
+  <si>
+    <t>TierDrop: Harnessing Airdrop Farmers for User Growth</t>
+  </si>
+  <si>
+    <t>Blockchain based Decentralized Petition System</t>
+  </si>
+  <si>
+    <t>Dual-view Aware Smart Contract Vulnerability Detection for Ethereum</t>
+  </si>
+  <si>
+    <t>On Orchestrating Parallel Broadcasts for Distributed Ledgers</t>
+  </si>
+  <si>
+    <t>Unraveling Shadows: Exploring the Realm of Elite Cyber Spies</t>
+  </si>
+  <si>
+    <t>Commodification of Compute</t>
   </si>
 </sst>
 </file>
@@ -4577,13 +4625,79 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4725,138 +4839,150 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5202,29 +5328,29 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="5"/>
-    <col min="7" max="7" width="8.5" style="2"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="5"/>
+    <col min="7" max="7" width="8.42578125" style="2"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.5" style="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="5">
         <f>SUM(F3:F115)</f>
         <v>2423.594409300073</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5382,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>952</v>
       </c>
@@ -5289,7 +5415,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>952</v>
       </c>
@@ -5323,7 +5449,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>952</v>
       </c>
@@ -5356,7 +5482,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>952</v>
       </c>
@@ -5381,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>952</v>
       </c>
@@ -5409,7 +5535,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>952</v>
       </c>
@@ -5437,7 +5563,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>952</v>
       </c>
@@ -5462,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>952</v>
       </c>
@@ -5499,7 +5625,7 @@
         <v>41614</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
         <v>952</v>
       </c>
@@ -5521,7 +5647,7 @@
         <v>21.625444659140001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>952</v>
       </c>
@@ -5543,7 +5669,7 @@
         <v>18.015364507830302</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
         <v>952</v>
       </c>
@@ -5571,7 +5697,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
         <v>952</v>
       </c>
@@ -5602,7 +5728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>952</v>
       </c>
@@ -5624,7 +5750,7 @@
         <v>14.405332780429999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>952</v>
       </c>
@@ -5649,7 +5775,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
         <v>952</v>
       </c>
@@ -5671,7 +5797,7 @@
         <v>10.338076173600001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
         <v>952</v>
       </c>
@@ -5693,7 +5819,7 @@
         <v>9.7234173692580015</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
         <v>952</v>
       </c>
@@ -5715,7 +5841,7 @@
         <v>8.7066925551000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>952</v>
       </c>
@@ -5737,7 +5863,7 @@
         <v>7.2993493033305006</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
         <v>952</v>
       </c>
@@ -5768,7 +5894,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>952</v>
       </c>
@@ -5790,7 +5916,7 @@
         <v>6.6631956763</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
         <v>952</v>
       </c>
@@ -5818,7 +5944,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
         <v>952</v>
       </c>
@@ -5840,7 +5966,7 @@
         <v>5.3463364344399995</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
         <v>952</v>
       </c>
@@ -5864,7 +5990,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
         <v>952</v>
       </c>
@@ -5889,7 +6015,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
         <v>952</v>
       </c>
@@ -5920,7 +6046,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
         <v>952</v>
       </c>
@@ -5942,7 +6068,7 @@
         <v>4.0805521350000005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>952</v>
       </c>
@@ -5964,7 +6090,7 @@
         <v>4.0263326385299996</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
         <v>952</v>
       </c>
@@ -5989,7 +6115,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>952</v>
       </c>
@@ -6010,7 +6136,7 @@
         <v>3.5908228520000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
         <v>952</v>
       </c>
@@ -6044,7 +6170,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
         <v>952</v>
       </c>
@@ -6066,7 +6192,7 @@
         <v>3.3737316907300006</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
         <v>952</v>
       </c>
@@ -6088,7 +6214,7 @@
         <v>3.4729029829672</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
         <v>952</v>
       </c>
@@ -6110,7 +6236,7 @@
         <v>3.3353999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
         <v>952</v>
       </c>
@@ -6132,7 +6258,7 @@
         <v>3.3391750892115</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
         <v>952</v>
       </c>
@@ -6154,7 +6280,7 @@
         <v>3.2112666546400002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
         <v>952</v>
       </c>
@@ -6176,7 +6302,7 @@
         <v>3.1220268856436997</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>952</v>
       </c>
@@ -6198,7 +6324,7 @@
         <v>3.05255541669132</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
         <v>952</v>
       </c>
@@ -6229,7 +6355,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
         <v>952</v>
       </c>
@@ -6251,7 +6377,7 @@
         <v>3.2049935478</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>952</v>
       </c>
@@ -6282,7 +6408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>952</v>
       </c>
@@ -6304,7 +6430,7 @@
         <v>2.8794392776200004</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>952</v>
       </c>
@@ -6326,7 +6452,7 @@
         <v>2.8078792441199996</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
         <v>952</v>
       </c>
@@ -6349,7 +6475,7 @@
       </c>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
         <v>952</v>
       </c>
@@ -6371,7 +6497,7 @@
         <v>2.7527571056932003</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="44" t="s">
         <v>952</v>
       </c>
@@ -6393,7 +6519,7 @@
         <v>2.6029958688300003</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
         <v>952</v>
       </c>
@@ -6415,7 +6541,7 @@
         <v>2.4374720659999998</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
         <v>952</v>
       </c>
@@ -6437,7 +6563,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="44" t="s">
         <v>952</v>
       </c>
@@ -6462,7 +6588,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="35"/>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
@@ -6481,7 +6607,7 @@
         <v>3.0486780000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6499,7 +6625,7 @@
         <v>3.0104519999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6517,7 +6643,7 @@
         <v>2.7634949999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="35"/>
       <c r="B54" s="1">
         <f t="shared" si="0"/>
@@ -6537,7 +6663,7 @@
       </c>
       <c r="H54" s="37"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6555,7 +6681,7 @@
         <v>2.4660000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6573,7 +6699,7 @@
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="B57" s="1">
         <f t="shared" ref="B57:B58" si="1">B56+1</f>
@@ -6592,7 +6718,7 @@
         <v>2.290152</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -6611,7 +6737,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
@@ -6636,7 +6762,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
@@ -6655,7 +6781,7 @@
         <v>2.158083</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
@@ -6674,7 +6800,7 @@
         <v>2.0670929999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
@@ -6693,7 +6819,7 @@
         <v>2.0497589999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
@@ -6712,7 +6838,7 @@
         <v>1.9841420000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6730,7 +6856,7 @@
         <v>1.983738118</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
@@ -6749,7 +6875,7 @@
         <v>1.925249</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
@@ -6768,7 +6894,7 @@
         <v>1.88662</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="B67" s="1">
         <f t="shared" ref="B67:B68" si="2">B66+1</f>
@@ -6787,7 +6913,7 @@
         <v>1.7958689999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
       <c r="B68" s="1">
         <f t="shared" si="2"/>
@@ -6806,7 +6932,7 @@
         <v>1.4440120000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
       <c r="B69" s="1">
         <f t="shared" ref="B69" si="3">B68+1</f>
@@ -6825,7 +6951,7 @@
         <v>1.782637</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
       <c r="B70" s="1">
         <f t="shared" ref="B70:B132" si="4">B69+1</f>
@@ -6844,7 +6970,7 @@
         <v>1.6901729999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
@@ -6863,7 +6989,7 @@
         <v>1.6525319999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
@@ -6882,7 +7008,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
@@ -6904,7 +7030,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
@@ -6923,7 +7049,7 @@
         <v>1.488364</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
@@ -6945,7 +7071,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
@@ -6967,7 +7093,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
@@ -6989,7 +7115,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="35"/>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
@@ -7011,7 +7137,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
@@ -7030,7 +7156,7 @@
         <v>1.1986702490000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="35"/>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
@@ -7049,7 +7175,7 @@
         <v>1.414088813</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="35"/>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
@@ -7068,7 +7194,7 @@
         <v>1.4269419999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="35"/>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
@@ -7087,7 +7213,7 @@
         <v>1.1945250000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="35"/>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
@@ -7106,7 +7232,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="35"/>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
@@ -7128,7 +7254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="35"/>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
@@ -7147,7 +7273,7 @@
         <v>0.92534499999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="35"/>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
@@ -7169,7 +7295,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="35"/>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
@@ -7191,7 +7317,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -7209,7 +7335,7 @@
         <v>1.2050000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -7227,7 +7353,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="35"/>
       <c r="B90" s="1">
         <f t="shared" si="4"/>
@@ -7246,7 +7372,7 @@
         <v>0.72014599999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="35"/>
       <c r="B91" s="1">
         <f t="shared" si="4"/>
@@ -7265,7 +7391,7 @@
         <v>0.66539700000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="35"/>
       <c r="B92" s="1">
         <f t="shared" si="4"/>
@@ -7284,7 +7410,7 @@
         <v>0.82979899999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="35"/>
       <c r="B93" s="1">
         <f t="shared" si="4"/>
@@ -7303,7 +7429,7 @@
         <v>0.22685149199999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="35"/>
       <c r="B94" s="1">
         <f t="shared" si="4"/>
@@ -7322,7 +7448,7 @@
         <v>0.87511399999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="35"/>
       <c r="B95" s="1">
         <f t="shared" si="4"/>
@@ -7341,7 +7467,7 @@
         <v>0.63667726499999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="35"/>
       <c r="B96" s="1">
         <f t="shared" si="4"/>
@@ -7360,7 +7486,7 @@
         <v>0.61030981299999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="35"/>
       <c r="B97" s="1">
         <f t="shared" si="4"/>
@@ -7379,7 +7505,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="35"/>
       <c r="B98" s="1">
         <f t="shared" si="4"/>
@@ -7398,7 +7524,7 @@
         <v>1.446615</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="35"/>
       <c r="B99" s="1">
         <f t="shared" si="4"/>
@@ -7417,7 +7543,7 @@
         <v>1.345</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="35"/>
       <c r="B100" s="1">
         <f t="shared" si="4"/>
@@ -7436,7 +7562,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <f t="shared" si="4"/>
         <v>99</v>
@@ -7454,7 +7580,7 @@
         <v>1.0895980000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -7472,7 +7598,7 @@
         <v>0.61134288400000003</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -7490,7 +7616,7 @@
         <v>0.53980675300000003</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -7508,7 +7634,7 @@
         <v>0.51052593199999996</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -7526,7 +7652,7 @@
         <v>0.498732234</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -7544,7 +7670,7 @@
         <v>0.47984337799999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -7562,7 +7688,7 @@
         <v>0.45076466500000001</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -7580,7 +7706,7 @@
         <v>0.44902305300000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -7598,7 +7724,7 @@
         <v>0.44337546999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -7616,7 +7742,7 @@
         <v>0.41965282799999998</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <f t="shared" si="4"/>
         <v>109</v>
@@ -7634,7 +7760,7 @@
         <v>0.43095742300000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <f t="shared" si="4"/>
         <v>110</v>
@@ -7652,7 +7778,7 @@
         <v>0.41637566399999998</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <f t="shared" si="4"/>
         <v>111</v>
@@ -7670,7 +7796,7 @@
         <v>0.40336259400000002</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <f t="shared" si="4"/>
         <v>112</v>
@@ -7688,7 +7814,7 @@
         <v>0.400227634</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="35"/>
       <c r="B115" s="1">
         <f>B123+1</f>
@@ -7711,7 +7837,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <f>B114+1</f>
         <v>113</v>
@@ -7729,7 +7855,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <f t="shared" si="4"/>
         <v>114</v>
@@ -7747,7 +7873,7 @@
         <v>0.38138114899999997</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -7765,7 +7891,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <f t="shared" si="4"/>
         <v>116</v>
@@ -7787,7 +7913,7 @@
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <f t="shared" si="4"/>
         <v>117</v>
@@ -7805,7 +7931,7 @@
         <v>0.37034398000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <f t="shared" si="4"/>
         <v>118</v>
@@ -7823,7 +7949,7 @@
         <v>0.36007262400000001</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <f t="shared" si="4"/>
         <v>119</v>
@@ -7841,7 +7967,7 @@
         <v>0.352850041</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="35"/>
       <c r="B123" s="1">
         <f>B50+1</f>
@@ -7860,7 +7986,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <f>B122+1</f>
         <v>120</v>
@@ -7878,7 +8004,7 @@
         <v>0.35219167299999998</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <f t="shared" si="4"/>
         <v>121</v>
@@ -7902,7 +8028,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <f t="shared" si="4"/>
         <v>122</v>
@@ -7920,7 +8046,7 @@
         <v>0.34624524499999998</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <f t="shared" si="4"/>
         <v>123</v>
@@ -7938,7 +8064,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <f t="shared" si="4"/>
         <v>124</v>
@@ -7956,7 +8082,7 @@
         <v>0.34624524499999998</v>
       </c>
     </row>
-    <row r="129" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <f t="shared" si="4"/>
         <v>125</v>
@@ -7978,7 +8104,7 @@
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <f t="shared" si="4"/>
         <v>126</v>
@@ -8000,7 +8126,7 @@
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <f t="shared" si="4"/>
         <v>127</v>
@@ -8018,7 +8144,7 @@
         <v>0.54332366700000001</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <f t="shared" si="4"/>
         <v>128</v>
@@ -8036,7 +8162,7 @@
         <v>0.32811815700000002</v>
       </c>
     </row>
-    <row r="133" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <f t="shared" ref="B133:B196" si="5">B132+1</f>
         <v>129</v>
@@ -8058,7 +8184,7 @@
       <c r="I133" s="22"/>
       <c r="J133" s="22"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <f t="shared" si="5"/>
         <v>130</v>
@@ -8076,7 +8202,7 @@
         <v>0.32049229000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <f t="shared" si="5"/>
         <v>131</v>
@@ -8094,7 +8220,7 @@
         <v>0.31784597999999997</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8112,7 +8238,7 @@
         <v>0.30747406900000002</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -8130,7 +8256,7 @@
         <v>0.30000935699999998</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -8148,7 +8274,7 @@
         <v>0.29374433599999999</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -8166,7 +8292,7 @@
         <v>0.29265611899999999</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -8184,7 +8310,7 @@
         <v>0.28834567100000003</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -8202,7 +8328,7 @@
         <v>0.28805449599999999</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -8223,7 +8349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -8241,7 +8367,7 @@
         <v>0.27364821299999997</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -8259,7 +8385,7 @@
         <v>0.38498529799999998</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -8277,7 +8403,7 @@
         <v>0.31274848100000002</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -8295,7 +8421,7 @@
         <v>0.30391054899999997</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -8313,7 +8439,7 @@
         <v>0.291509511</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -8331,7 +8457,7 @@
         <v>0.29080200699999997</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -8349,7 +8475,7 @@
         <v>0.28856063999999998</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -8367,7 +8493,7 @@
         <v>0.27075048800000001</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -8385,7 +8511,7 @@
         <v>0.26174855299999999</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -8403,7 +8529,7 @@
         <v>0.26134750499999998</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -8421,7 +8547,7 @@
         <v>0.26130524900000002</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -8439,7 +8565,7 @@
         <v>0.26005180300000003</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -8457,7 +8583,7 @@
         <v>0.257539927</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -8475,7 +8601,7 @@
         <v>0.25512378000000002</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -8493,7 +8619,7 @@
         <v>0.25402531299999997</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -8511,7 +8637,7 @@
         <v>0.24884577099999999</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -8529,7 +8655,7 @@
         <v>0.24021580300000001</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -8547,7 +8673,7 @@
         <v>0.232870568</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -8565,7 +8691,7 @@
         <v>0.22321063799999999</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -8583,7 +8709,7 @@
         <v>0.220735494</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <f t="shared" si="5"/>
         <v>159</v>
@@ -8601,7 +8727,7 @@
         <v>0.220732868</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -8619,7 +8745,7 @@
         <v>0.217787708</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -8637,7 +8763,7 @@
         <v>0.21617287800000001</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -8655,7 +8781,7 @@
         <v>0.206020693</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -8673,7 +8799,7 @@
         <v>0.203682638</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <f t="shared" si="5"/>
         <v>164</v>
@@ -8691,7 +8817,7 @@
         <v>0.202452576</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -8709,7 +8835,7 @@
         <v>0.20110444999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
         <f t="shared" si="5"/>
         <v>166</v>
@@ -8727,7 +8853,7 @@
         <v>0.199271797</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -8745,7 +8871,7 @@
         <v>0.19770173499999999</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -8763,7 +8889,7 @@
         <v>0.19735651000000001</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="1">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -8781,7 +8907,7 @@
         <v>0.52775393699999995</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -8799,7 +8925,7 @@
         <v>0.52921916099999999</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" s="1">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -8817,7 +8943,7 @@
         <v>0.19296803800000001</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="1">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -8835,7 +8961,7 @@
         <v>0.19115043600000001</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -8853,7 +8979,7 @@
         <v>0.18681077500000001</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
         <f t="shared" si="5"/>
         <v>174</v>
@@ -8871,7 +8997,7 @@
         <v>0.18664656499999999</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <f t="shared" si="5"/>
         <v>175</v>
@@ -8889,7 +9015,7 @@
         <v>0.18636437</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
         <f t="shared" si="5"/>
         <v>176</v>
@@ -8907,7 +9033,7 @@
         <v>0.17454940199999999</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
         <f t="shared" si="5"/>
         <v>177</v>
@@ -8925,7 +9051,7 @@
         <v>0.171127055</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" s="1">
         <f t="shared" si="5"/>
         <v>178</v>
@@ -8943,7 +9069,7 @@
         <v>0.17039283699999999</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" s="1">
         <f t="shared" si="5"/>
         <v>179</v>
@@ -8961,7 +9087,7 @@
         <v>0.166817468</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <f t="shared" si="5"/>
         <v>180</v>
@@ -8979,7 +9105,7 @@
         <v>0.16365843199999999</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" s="1">
         <f t="shared" si="5"/>
         <v>181</v>
@@ -8997,7 +9123,7 @@
         <v>0.14537486599999999</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
         <f t="shared" si="5"/>
         <v>182</v>
@@ -9015,7 +9141,7 @@
         <v>0.14514666400000001</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
         <f t="shared" si="5"/>
         <v>183</v>
@@ -9033,7 +9159,7 @@
         <v>0.14409846800000001</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
         <f t="shared" si="5"/>
         <v>184</v>
@@ -9051,7 +9177,7 @@
         <v>0.14333210699999999</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
         <f t="shared" si="5"/>
         <v>185</v>
@@ -9069,7 +9195,7 @@
         <v>0.139513416</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1">
         <f t="shared" si="5"/>
         <v>186</v>
@@ -9087,7 +9213,7 @@
         <v>0.139513416</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
         <f t="shared" si="5"/>
         <v>187</v>
@@ -9105,7 +9231,7 @@
         <v>0.13805571</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1">
         <f t="shared" si="5"/>
         <v>188</v>
@@ -9123,7 +9249,7 @@
         <v>0.13791399600000001</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" s="1">
         <f t="shared" si="5"/>
         <v>189</v>
@@ -9141,7 +9267,7 @@
         <v>0.136491687</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
         <f t="shared" si="5"/>
         <v>190</v>
@@ -9159,7 +9285,7 @@
         <v>0.135654096</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="1">
         <f t="shared" si="5"/>
         <v>191</v>
@@ -9177,7 +9303,7 @@
         <v>0.13342649000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" s="1">
         <f t="shared" si="5"/>
         <v>192</v>
@@ -9195,7 +9321,7 @@
         <v>0.132814986</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1">
         <f t="shared" ref="B197:B238" si="6">B196+1</f>
         <v>193</v>
@@ -9213,7 +9339,7 @@
         <v>0.12730638799999999</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
         <f t="shared" si="6"/>
         <v>194</v>
@@ -9231,7 +9357,7 @@
         <v>0.12376409200000001</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
         <f t="shared" si="6"/>
         <v>195</v>
@@ -9249,7 +9375,7 @@
         <v>0.12368742100000001</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="1">
         <f t="shared" si="6"/>
         <v>196</v>
@@ -9267,7 +9393,7 @@
         <v>0.122667151</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" s="1">
         <f t="shared" si="6"/>
         <v>197</v>
@@ -9285,7 +9411,7 @@
         <v>0.121920311</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" s="1">
         <f t="shared" si="6"/>
         <v>198</v>
@@ -9303,7 +9429,7 @@
         <v>0.120184343</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
         <f t="shared" si="6"/>
         <v>199</v>
@@ -9321,7 +9447,7 @@
         <v>0.11883542499999999</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
         <f t="shared" si="6"/>
         <v>200</v>
@@ -9339,7 +9465,7 @@
         <v>0.11849712699999999</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
         <f t="shared" si="6"/>
         <v>201</v>
@@ -9357,7 +9483,7 @@
         <v>0.11766072499999999</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
         <f t="shared" si="6"/>
         <v>202</v>
@@ -9375,7 +9501,7 @@
         <v>0.117367633</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
         <f t="shared" si="6"/>
         <v>203</v>
@@ -9393,7 +9519,7 @@
         <v>0.115746405</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
         <f t="shared" si="6"/>
         <v>204</v>
@@ -9411,7 +9537,7 @@
         <v>0.113343336</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" s="1">
         <f t="shared" si="6"/>
         <v>205</v>
@@ -9429,7 +9555,7 @@
         <v>0.11296250200000001</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" s="1">
         <f t="shared" si="6"/>
         <v>206</v>
@@ -9447,7 +9573,7 @@
         <v>0.11127245700000001</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" s="1">
         <f t="shared" si="6"/>
         <v>207</v>
@@ -9465,7 +9591,7 @@
         <v>0.111130327</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" s="1">
         <f t="shared" si="6"/>
         <v>208</v>
@@ -9483,7 +9609,7 @@
         <v>0.11037901</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" s="1">
         <f t="shared" si="6"/>
         <v>209</v>
@@ -9501,7 +9627,7 @@
         <v>0.10977622400000001</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" s="1">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -9519,7 +9645,7 @@
         <v>0.10873124200000001</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="1">
         <f t="shared" si="6"/>
         <v>211</v>
@@ -9537,7 +9663,7 @@
         <v>0.108054727</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" s="1">
         <f t="shared" si="6"/>
         <v>212</v>
@@ -9555,7 +9681,7 @@
         <v>0.10783683099999999</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" s="1">
         <f t="shared" si="6"/>
         <v>213</v>
@@ -9573,7 +9699,7 @@
         <v>0.10767146</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" s="1">
         <f t="shared" si="6"/>
         <v>214</v>
@@ -9591,7 +9717,7 @@
         <v>0.10756921899999999</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" s="1">
         <f t="shared" si="6"/>
         <v>215</v>
@@ -9609,7 +9735,7 @@
         <v>0.107357832</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" s="1">
         <f t="shared" si="6"/>
         <v>216</v>
@@ -9627,7 +9753,7 @@
         <v>0.107066024</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" s="1">
         <f t="shared" si="6"/>
         <v>217</v>
@@ -9645,7 +9771,7 @@
         <v>0.107044131</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" s="1">
         <f t="shared" si="6"/>
         <v>218</v>
@@ -9663,7 +9789,7 @@
         <v>0.103903352</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" s="1">
         <f t="shared" si="6"/>
         <v>219</v>
@@ -9681,7 +9807,7 @@
         <v>0.103753708</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
         <f t="shared" si="6"/>
         <v>220</v>
@@ -9699,7 +9825,7 @@
         <v>0.103631457</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B225" s="1">
         <f t="shared" si="6"/>
         <v>221</v>
@@ -9717,7 +9843,7 @@
         <v>0.102642196</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
         <f t="shared" si="6"/>
         <v>222</v>
@@ -9735,7 +9861,7 @@
         <v>0.10247070899999999</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B227" s="1">
         <f t="shared" si="6"/>
         <v>223</v>
@@ -9753,7 +9879,7 @@
         <v>0.10230676900000001</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B228" s="1">
         <f t="shared" si="6"/>
         <v>224</v>
@@ -9771,7 +9897,7 @@
         <v>0.1012083</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B229" s="1">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -9789,7 +9915,7 @@
         <v>0.10117152</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B230" s="1">
         <f t="shared" si="6"/>
         <v>226</v>
@@ -9807,7 +9933,7 @@
         <v>0.101086226</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B231" s="1">
         <f t="shared" si="6"/>
         <v>227</v>
@@ -9825,7 +9951,7 @@
         <v>0.100043591</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
         <f t="shared" si="6"/>
         <v>228</v>
@@ -9841,7 +9967,7 @@
       </c>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B233" s="1">
         <f t="shared" si="6"/>
         <v>229</v>
@@ -9850,7 +9976,7 @@
       <c r="D233" s="8"/>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B234" s="1">
         <f t="shared" si="6"/>
         <v>230</v>
@@ -9877,50 +10003,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B235" s="1">
         <f t="shared" si="6"/>
         <v>231</v>
       </c>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B236" s="1">
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B237" s="1">
         <f t="shared" si="6"/>
         <v>233</v>
       </c>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B238" s="1">
         <f t="shared" si="6"/>
         <v>234</v>
       </c>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F244" s="10"/>
     </row>
   </sheetData>
@@ -9941,23 +10067,23 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="59" customWidth="1"/>
     <col min="3" max="4" width="15" style="59" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="59"/>
-    <col min="8" max="8" width="15.83203125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="59" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="59"/>
+    <col min="5" max="7" width="10.85546875" style="59"/>
+    <col min="8" max="8" width="15.85546875" style="59" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="59" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>8</v>
       </c>
@@ -9980,7 +10106,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>15</v>
       </c>
@@ -10009,7 +10135,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="59">
         <v>1</v>
       </c>
@@ -10044,7 +10170,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>+A5+1</f>
         <v>2</v>
@@ -10080,7 +10206,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <f t="shared" ref="A7:A97" si="0">+A6+1</f>
         <v>3</v>
@@ -10116,7 +10242,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10152,7 +10278,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10188,7 +10314,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10224,7 +10350,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10260,7 +10386,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10296,7 +10422,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10332,7 +10458,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10368,7 +10494,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10404,7 +10530,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10440,7 +10566,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10476,7 +10602,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10512,7 +10638,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10548,7 +10674,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10584,7 +10710,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10620,7 +10746,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10656,7 +10782,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10692,7 +10818,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="59">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10728,7 +10854,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="59">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10764,7 +10890,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="59">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10800,7 +10926,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="59">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10836,7 +10962,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="59">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10872,7 +10998,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10908,7 +11034,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="59">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10944,7 +11070,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="59">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10980,7 +11106,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="59">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -11016,7 +11142,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="59">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -11052,7 +11178,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="59">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -11088,7 +11214,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="59">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -11124,7 +11250,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="59">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -11160,7 +11286,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="59">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -11196,7 +11322,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="59">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -11232,7 +11358,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="59">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -11268,7 +11394,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="59">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -11304,7 +11430,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="59">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -11340,7 +11466,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="59">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -11376,7 +11502,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="59">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -11412,7 +11538,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="59">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -11448,7 +11574,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="59">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -11484,7 +11610,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="59">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -11520,7 +11646,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="59">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -11556,7 +11682,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="59">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -11592,7 +11718,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="59">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -11628,7 +11754,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="59">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -11664,7 +11790,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="59">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -11700,7 +11826,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="59">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -11736,7 +11862,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -11772,7 +11898,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="59">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -11808,7 +11934,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="59">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -11844,7 +11970,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="59">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -11880,7 +12006,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="59">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -11916,7 +12042,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="59">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -11952,7 +12078,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="59">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -11988,7 +12114,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="59">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -12024,7 +12150,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -12060,7 +12186,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -12096,7 +12222,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="59">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -12132,7 +12258,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="59">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -12168,7 +12294,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="59">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -12204,7 +12330,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="59">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -12240,7 +12366,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="59">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -12276,7 +12402,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="59">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -12312,7 +12438,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="63">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -12340,7 +12466,7 @@
       </c>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="59">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -12376,7 +12502,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="59">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -12412,7 +12538,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="59">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -12448,7 +12574,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="59">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -12484,7 +12610,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="59">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -12520,7 +12646,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="59">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -12556,7 +12682,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="59">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -12592,7 +12718,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="59">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -12628,7 +12754,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="59">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -12664,7 +12790,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="59">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -12700,7 +12826,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="59">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -12736,7 +12862,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="59">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -12772,7 +12898,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="59">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -12808,7 +12934,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="59">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -12844,7 +12970,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="59">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -12880,7 +13006,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="59">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -12916,7 +13042,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="59">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -12952,7 +13078,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="59">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -12988,7 +13114,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="59">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -13024,7 +13150,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="59">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -13060,7 +13186,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="59">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -13096,7 +13222,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="59">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -13132,7 +13258,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="59">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -13168,7 +13294,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="59">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -13204,7 +13330,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="59">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -13240,7 +13366,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="59">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -13276,7 +13402,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="59">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -13312,7 +13438,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="59">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -13361,33 +13487,33 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="39" customWidth="1"/>
-    <col min="3" max="9" width="9.1640625" style="39"/>
+    <col min="2" max="2" width="26.42578125" style="39" customWidth="1"/>
+    <col min="3" max="9" width="9.140625" style="39"/>
     <col min="10" max="10" width="10" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="39"/>
-    <col min="12" max="12" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="39"/>
+    <col min="11" max="11" width="9.140625" style="39"/>
+    <col min="12" max="12" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
         <v>1029</v>
       </c>
@@ -13395,13 +13521,13 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="45" t="s">
         <v>1027</v>
       </c>
       <c r="C5" s="45"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>1026</v>
       </c>
@@ -13409,7 +13535,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
         <v>966</v>
       </c>
@@ -13417,7 +13543,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="39" t="s">
         <v>964</v>
       </c>
@@ -13425,17 +13551,17 @@
         <v>965</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
         <v>977</v>
       </c>
@@ -13443,7 +13569,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="45" t="s">
         <v>1024</v>
       </c>
@@ -13451,7 +13577,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
         <v>968</v>
       </c>
@@ -13462,7 +13588,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>1054</v>
       </c>
@@ -13471,13 +13597,13 @@
       </c>
       <c r="J14" s="45"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>1048</v>
       </c>
       <c r="J15" s="45"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>1025</v>
       </c>
@@ -13492,7 +13618,7 @@
         <v>343512.76149908971</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
         <v>969</v>
       </c>
@@ -13510,7 +13636,7 @@
         <v>89605.734767025089</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>974</v>
       </c>
@@ -13525,7 +13651,7 @@
         <v>259369.73155232784</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="45" t="s">
         <v>1043</v>
       </c>
@@ -13540,7 +13666,7 @@
         <v>451875.28242205153</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>1031</v>
       </c>
@@ -13552,7 +13678,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>1032</v>
       </c>
@@ -13567,7 +13693,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
         <v>973</v>
       </c>
@@ -13579,7 +13705,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="45" t="s">
         <v>1036</v>
       </c>
@@ -13594,7 +13720,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="45" t="s">
         <v>1034</v>
       </c>
@@ -13606,7 +13732,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="45" t="s">
         <v>1052</v>
       </c>
@@ -13616,7 +13742,7 @@
       <c r="J25" s="47"/>
       <c r="K25" s="45"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
         <v>1055</v>
       </c>
@@ -13624,7 +13750,7 @@
       <c r="J26" s="47"/>
       <c r="K26" s="45"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
         <v>1047</v>
       </c>
@@ -13642,120 +13768,347 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.5" style="1"/>
+    <col min="1" max="2" width="8.42578125" style="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="45" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="48" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="45" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="67">
         <v>2406</v>
       </c>
       <c r="C14" s="67">
         <v>20072</v>
       </c>
-      <c r="D14" s="68">
-        <v>45472</v>
-      </c>
-      <c r="E14" s="69" t="s">
+      <c r="D14" s="69">
+        <v>45474</v>
+      </c>
+      <c r="E14" s="68" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="67">
         <v>2406</v>
       </c>
       <c r="C15" s="67">
         <v>20071</v>
       </c>
-      <c r="D15" s="68">
-        <v>45472</v>
-      </c>
-      <c r="E15" s="69" t="s">
+      <c r="D15" s="69">
+        <v>45474</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="67">
         <v>2406</v>
       </c>
       <c r="C16" s="67">
         <v>19978</v>
       </c>
-      <c r="D16" s="68">
-        <v>45472</v>
-      </c>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="69">
+        <v>45474</v>
+      </c>
+      <c r="E16" s="68" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="67">
         <v>2406</v>
       </c>
       <c r="C17" s="67">
         <v>19975</v>
       </c>
-      <c r="D17" s="68">
-        <v>45472</v>
-      </c>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="69">
+        <v>45474</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="67">
         <v>2406</v>
       </c>
       <c r="C18" s="67">
         <v>19964</v>
       </c>
-      <c r="D18" s="68">
-        <v>45472</v>
+      <c r="D18" s="69">
+        <v>45474</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>1497</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C19" s="67">
+        <v>19730</v>
+      </c>
+      <c r="D19" s="69">
+        <v>45474</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C20" s="67">
+        <v>2452</v>
+      </c>
+      <c r="D20" s="69">
+        <v>45476</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C21" s="67">
+        <v>2442</v>
+      </c>
+      <c r="D21" s="69">
+        <v>45476</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C22" s="67">
+        <v>2226</v>
+      </c>
+      <c r="D22" s="69">
+        <v>45476</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C23" s="67">
+        <v>2167</v>
+      </c>
+      <c r="D23" s="69">
+        <v>45476</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C24" s="67">
+        <v>1844</v>
+      </c>
+      <c r="D24" s="69">
+        <v>45475</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C25" s="67">
+        <v>1493</v>
+      </c>
+      <c r="D25" s="69">
+        <v>45475</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C26" s="67">
+        <v>1426</v>
+      </c>
+      <c r="D26" s="69">
+        <v>45476</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C27" s="67">
+        <v>1365</v>
+      </c>
+      <c r="D27" s="69">
+        <v>45475</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C28" s="67">
+        <v>1204</v>
+      </c>
+      <c r="D28" s="69">
+        <v>45475</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C29" s="67">
+        <v>1176</v>
+      </c>
+      <c r="D29" s="69">
+        <v>45475</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C30" s="67">
+        <v>534</v>
+      </c>
+      <c r="D30" s="69">
+        <v>45473</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C31" s="67">
+        <v>336</v>
+      </c>
+      <c r="D31" s="69">
+        <v>45473</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C32" s="67">
+        <v>30</v>
+      </c>
+      <c r="D32" s="69">
+        <v>45430</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C33" s="67">
+        <v>19489</v>
+      </c>
+      <c r="D33" s="69">
+        <v>45471</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C34" s="67">
+        <v>19261</v>
+      </c>
+      <c r="D34" s="69">
+        <v>45477</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -13774,21 +14127,21 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="12"/>
-    <col min="4" max="5" width="9.1640625" style="13"/>
-    <col min="6" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="13.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="5" width="9.140625" style="13"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -13811,7 +14164,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>424</v>
       </c>
@@ -13831,7 +14184,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>424</v>
       </c>
@@ -13845,7 +14198,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>424</v>
       </c>
@@ -13859,7 +14212,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>407</v>
       </c>
@@ -13876,12 +14229,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>950</v>
       </c>
@@ -13906,19 +14259,19 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="49"/>
+    <col min="2" max="2" width="26.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
@@ -13926,32 +14279,32 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="59" t="s">
         <v>1153</v>
       </c>
@@ -13975,19 +14328,19 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="49"/>
+    <col min="3" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
@@ -13995,37 +14348,37 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="49" t="s">
         <v>43</v>
       </c>
@@ -14046,21 +14399,21 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="49"/>
+    <col min="2" max="2" width="26.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
         <v>1061</v>
       </c>
@@ -14086,7 +14439,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>1062</v>
       </c>
@@ -14113,7 +14466,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
         <v>1063</v>
       </c>
@@ -14140,7 +14493,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
         <v>1064</v>
       </c>
@@ -14166,7 +14519,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
         <v>1065</v>
       </c>
@@ -14192,7 +14545,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>1066</v>
       </c>
@@ -14218,7 +14571,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
         <v>1067</v>
       </c>
@@ -14244,7 +14597,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="49" t="s">
         <v>786</v>
       </c>
@@ -14256,7 +14609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
         <v>1068</v>
       </c>
@@ -14268,7 +14621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="49" t="s">
         <v>1069</v>
       </c>
@@ -14280,7 +14633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
         <v>1070</v>
       </c>
@@ -14292,7 +14645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
         <v>1071</v>
       </c>
@@ -14304,7 +14657,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
         <v>1072</v>
       </c>
@@ -14316,7 +14669,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="49" t="s">
         <v>1073</v>
       </c>
@@ -14328,7 +14681,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="49" t="s">
         <v>1074</v>
       </c>
@@ -14340,7 +14693,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="49" t="s">
         <v>1075</v>
       </c>
@@ -14352,7 +14705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="s">
         <v>1076</v>
       </c>
@@ -14364,7 +14717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="49" t="s">
         <v>1077</v>
       </c>
@@ -14376,7 +14729,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="49" t="s">
         <v>1078</v>
       </c>
@@ -14388,7 +14741,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="49" t="s">
         <v>1079</v>
       </c>
@@ -14400,7 +14753,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="49" t="s">
         <v>1080</v>
       </c>
@@ -14412,7 +14765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="49" t="s">
         <v>1081</v>
       </c>
@@ -14424,7 +14777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="49" t="s">
         <v>1082</v>
       </c>
@@ -14436,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="49" t="s">
         <v>1083</v>
       </c>
@@ -14448,7 +14801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="49" t="s">
         <v>1084</v>
       </c>
@@ -14460,7 +14813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="49" t="s">
         <v>452</v>
       </c>
@@ -14472,7 +14825,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="49" t="s">
         <v>1085</v>
       </c>
@@ -14484,7 +14837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="49" t="s">
         <v>1081</v>
       </c>
@@ -14496,7 +14849,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="49" t="s">
         <v>1086</v>
       </c>
@@ -14508,7 +14861,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="49" t="s">
         <v>1087</v>
       </c>
@@ -14517,7 +14870,7 @@
       </c>
       <c r="D31" s="50"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="49" t="s">
         <v>1088</v>
       </c>
@@ -14529,7 +14882,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="49" t="s">
         <v>1089</v>
       </c>
@@ -14541,7 +14894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="49" t="s">
         <v>1090</v>
       </c>
@@ -14553,7 +14906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="49" t="s">
         <v>1091</v>
       </c>
@@ -14565,7 +14918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="49" t="s">
         <v>1092</v>
       </c>
@@ -14577,7 +14930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="49" t="s">
         <v>1093</v>
       </c>
@@ -14589,7 +14942,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="49" t="s">
         <v>1094</v>
       </c>
@@ -14601,7 +14954,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="49" t="s">
         <v>46</v>
       </c>
@@ -14613,7 +14966,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="49" t="s">
         <v>1095</v>
       </c>
@@ -14625,7 +14978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="49" t="s">
         <v>1096</v>
       </c>
@@ -14634,7 +14987,7 @@
       </c>
       <c r="D41" s="50"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="49" t="s">
         <v>1097</v>
       </c>
@@ -14646,7 +14999,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="49" t="s">
         <v>1098</v>
       </c>
@@ -14658,7 +15011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="49" t="s">
         <v>1099</v>
       </c>
@@ -14670,7 +15023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="49" t="s">
         <v>1100</v>
       </c>
@@ -14682,7 +15035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="49" t="s">
         <v>1101</v>
       </c>
@@ -14694,7 +15047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="49" t="s">
         <v>1102</v>
       </c>
@@ -14706,7 +15059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="49" t="s">
         <v>788</v>
       </c>
@@ -14718,7 +15071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="49" t="s">
         <v>1103</v>
       </c>
@@ -14730,7 +15083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="49" t="s">
         <v>1104</v>
       </c>
@@ -14742,7 +15095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="49" t="s">
         <v>1105</v>
       </c>
@@ -14754,7 +15107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="49" t="s">
         <v>1106</v>
       </c>
@@ -14766,7 +15119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="49" t="s">
         <v>703</v>
       </c>
@@ -14775,7 +15128,7 @@
       </c>
       <c r="D53" s="50"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="49" t="s">
         <v>1107</v>
       </c>
@@ -14787,7 +15140,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="49" t="s">
         <v>43</v>
       </c>
@@ -14799,7 +15152,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="49" t="s">
         <v>1108</v>
       </c>
@@ -14811,7 +15164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="49" t="s">
         <v>1108</v>
       </c>
@@ -14820,7 +15173,7 @@
       </c>
       <c r="D57" s="50"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="49" t="s">
         <v>1109</v>
       </c>
@@ -14832,7 +15185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="49" t="s">
         <v>570</v>
       </c>
@@ -14844,7 +15197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="49" t="s">
         <v>1110</v>
       </c>
@@ -14856,7 +15209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="49" t="s">
         <v>793</v>
       </c>
@@ -14868,7 +15221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="49" t="s">
         <v>1108</v>
       </c>
@@ -14880,7 +15233,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="49" t="s">
         <v>1111</v>
       </c>
@@ -14889,7 +15242,7 @@
       </c>
       <c r="D63" s="50"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="49" t="s">
         <v>793</v>
       </c>
@@ -14901,7 +15254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="49" t="s">
         <v>43</v>
       </c>
@@ -14913,7 +15266,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="49" t="s">
         <v>1112</v>
       </c>
@@ -14925,7 +15278,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="49" t="s">
         <v>119</v>
       </c>
@@ -14937,7 +15290,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="49" t="s">
         <v>119</v>
       </c>
@@ -14949,7 +15302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="49" t="s">
         <v>865</v>
       </c>
@@ -14961,7 +15314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="49" t="s">
         <v>1113</v>
       </c>
@@ -14970,7 +15323,7 @@
       </c>
       <c r="D70" s="50"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="49" t="s">
         <v>325</v>
       </c>
@@ -14982,7 +15335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="49" t="s">
         <v>651</v>
       </c>
@@ -15010,20 +15363,20 @@
       <selection pane="bottomRight" activeCell="T445" sqref="T445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="27"/>
-    <col min="2" max="2" width="11.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" style="27" customWidth="1"/>
     <col min="6" max="6" width="25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="27" customWidth="1"/>
-    <col min="8" max="10" width="11.6640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="3.1640625" style="27" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="27"/>
+    <col min="7" max="7" width="14.42578125" style="27" customWidth="1"/>
+    <col min="8" max="10" width="11.7109375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="27" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="27" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -15094,7 +15447,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>137</v>
       </c>
@@ -15114,7 +15467,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
         <v>137</v>
       </c>
@@ -15131,7 +15484,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>945</v>
       </c>
@@ -15148,7 +15501,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>945</v>
       </c>
@@ -15165,7 +15518,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>944</v>
       </c>
@@ -15179,7 +15532,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>943</v>
       </c>
@@ -15196,7 +15549,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>940</v>
       </c>
@@ -15216,7 +15569,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>940</v>
       </c>
@@ -15233,7 +15586,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>939</v>
       </c>
@@ -15250,7 +15603,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>938</v>
       </c>
@@ -15264,7 +15617,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>938</v>
       </c>
@@ -15281,7 +15634,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>937</v>
       </c>
@@ -15298,7 +15651,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>936</v>
       </c>
@@ -15315,7 +15668,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>936</v>
       </c>
@@ -15332,7 +15685,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>936</v>
       </c>
@@ -15349,7 +15702,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
         <v>936</v>
       </c>
@@ -15366,7 +15719,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>935</v>
       </c>
@@ -15383,7 +15736,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>934</v>
       </c>
@@ -15397,7 +15750,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>933</v>
       </c>
@@ -15414,7 +15767,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>932</v>
       </c>
@@ -15434,7 +15787,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>930</v>
       </c>
@@ -15451,7 +15804,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>929</v>
       </c>
@@ -15468,7 +15821,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>929</v>
       </c>
@@ -15485,7 +15838,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
         <v>929</v>
       </c>
@@ -15511,7 +15864,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="27" t="s">
         <v>927</v>
       </c>
@@ -15525,7 +15878,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
         <v>927</v>
       </c>
@@ -15542,7 +15895,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
         <v>926</v>
       </c>
@@ -15559,7 +15912,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="27" t="s">
         <v>925</v>
       </c>
@@ -15576,7 +15929,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
         <v>924</v>
       </c>
@@ -15593,7 +15946,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="27" t="s">
         <v>924</v>
       </c>
@@ -15613,7 +15966,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" s="27" t="s">
         <v>923</v>
       </c>
@@ -15630,7 +15983,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="27" t="s">
         <v>922</v>
       </c>
@@ -15644,7 +15997,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" s="27" t="s">
         <v>921</v>
       </c>
@@ -15661,7 +16014,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>921</v>
       </c>
@@ -15675,7 +16028,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="27" t="s">
         <v>920</v>
       </c>
@@ -15692,7 +16045,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" s="27" t="s">
         <v>403</v>
       </c>
@@ -15712,7 +16065,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="27" t="s">
         <v>919</v>
       </c>
@@ -15726,7 +16079,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>919</v>
       </c>
@@ -15743,7 +16096,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B41" s="27" t="s">
         <v>918</v>
       </c>
@@ -15760,7 +16113,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" s="27" t="s">
         <v>917</v>
       </c>
@@ -15774,7 +16127,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" s="27" t="s">
         <v>916</v>
       </c>
@@ -15791,7 +16144,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44" s="27" t="s">
         <v>916</v>
       </c>
@@ -15808,7 +16161,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B45" s="27" t="s">
         <v>915</v>
       </c>
@@ -15825,7 +16178,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B46" s="27" t="s">
         <v>914</v>
       </c>
@@ -15839,7 +16192,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" s="27" t="s">
         <v>274</v>
       </c>
@@ -15856,7 +16209,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B48" s="27" t="s">
         <v>274</v>
       </c>
@@ -15870,7 +16223,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
         <v>274</v>
       </c>
@@ -15887,7 +16240,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" s="27" t="s">
         <v>913</v>
       </c>
@@ -15904,7 +16257,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" s="27" t="s">
         <v>912</v>
       </c>
@@ -15915,7 +16268,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="27" t="s">
         <v>911</v>
       </c>
@@ -15935,7 +16288,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="27" t="s">
         <v>911</v>
       </c>
@@ -15952,7 +16305,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="27" t="s">
         <v>911</v>
       </c>
@@ -15969,7 +16322,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" s="27" t="s">
         <v>910</v>
       </c>
@@ -15989,7 +16342,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
         <v>910</v>
       </c>
@@ -16009,7 +16362,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" s="27" t="s">
         <v>909</v>
       </c>
@@ -16026,7 +16379,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" s="27" t="s">
         <v>909</v>
       </c>
@@ -16043,7 +16396,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="27" t="s">
         <v>908</v>
       </c>
@@ -16060,7 +16413,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" s="27" t="s">
         <v>905</v>
       </c>
@@ -16077,7 +16430,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="27" t="s">
         <v>905</v>
       </c>
@@ -16094,7 +16447,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" s="27" t="s">
         <v>905</v>
       </c>
@@ -16108,7 +16461,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" s="27" t="s">
         <v>904</v>
       </c>
@@ -16122,7 +16475,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" s="27" t="s">
         <v>903</v>
       </c>
@@ -16139,7 +16492,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" s="27" t="s">
         <v>903</v>
       </c>
@@ -16156,7 +16509,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" s="27" t="s">
         <v>901</v>
       </c>
@@ -16173,7 +16526,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B67" s="27" t="s">
         <v>900</v>
       </c>
@@ -16193,7 +16546,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B68" s="27" t="s">
         <v>899</v>
       </c>
@@ -16210,7 +16563,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
         <v>897</v>
       </c>
@@ -16227,7 +16580,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B70" s="27" t="s">
         <v>897</v>
       </c>
@@ -16241,7 +16594,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B71" s="27" t="s">
         <v>896</v>
       </c>
@@ -16255,7 +16608,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B72" s="27" t="s">
         <v>895</v>
       </c>
@@ -16272,7 +16625,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B73" s="27" t="s">
         <v>894</v>
       </c>
@@ -16286,7 +16639,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B74" s="27" t="s">
         <v>893</v>
       </c>
@@ -16303,7 +16656,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B75" s="27" t="s">
         <v>892</v>
       </c>
@@ -16323,7 +16676,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B76" s="27" t="s">
         <v>892</v>
       </c>
@@ -16340,7 +16693,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B77" s="27" t="s">
         <v>891</v>
       </c>
@@ -16354,7 +16707,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B78" s="27" t="s">
         <v>889</v>
       </c>
@@ -16368,7 +16721,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="27" t="s">
         <v>888</v>
       </c>
@@ -16379,7 +16732,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B80" s="27" t="s">
         <v>887</v>
       </c>
@@ -16396,7 +16749,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B81" s="27" t="s">
         <v>887</v>
       </c>
@@ -16410,7 +16763,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B82" s="27" t="s">
         <v>886</v>
       </c>
@@ -16427,7 +16780,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B83" s="27" t="s">
         <v>886</v>
       </c>
@@ -16441,7 +16794,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B84" s="27" t="s">
         <v>885</v>
       </c>
@@ -16461,7 +16814,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B85" s="27" t="s">
         <v>885</v>
       </c>
@@ -16478,7 +16831,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B86" s="27" t="s">
         <v>883</v>
       </c>
@@ -16492,7 +16845,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B87" s="27" t="s">
         <v>882</v>
       </c>
@@ -16509,7 +16862,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B88" s="27" t="s">
         <v>881</v>
       </c>
@@ -16526,7 +16879,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B89" s="27" t="s">
         <v>880</v>
       </c>
@@ -16543,7 +16896,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B90" s="27" t="s">
         <v>880</v>
       </c>
@@ -16560,7 +16913,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B91" s="27" t="s">
         <v>878</v>
       </c>
@@ -16577,7 +16930,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B92" s="27" t="s">
         <v>878</v>
       </c>
@@ -16594,7 +16947,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B93" s="27" t="s">
         <v>876</v>
       </c>
@@ -16611,7 +16964,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B94" s="27" t="s">
         <v>875</v>
       </c>
@@ -16625,7 +16978,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B95" s="27" t="s">
         <v>285</v>
       </c>
@@ -16639,7 +16992,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B96" s="27" t="s">
         <v>874</v>
       </c>
@@ -16659,7 +17012,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B97" s="27" t="s">
         <v>873</v>
       </c>
@@ -16676,7 +17029,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B98" s="27" t="s">
         <v>872</v>
       </c>
@@ -16687,7 +17040,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B99" s="27" t="s">
         <v>871</v>
       </c>
@@ -16704,7 +17057,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B100" s="27" t="s">
         <v>870</v>
       </c>
@@ -16715,7 +17068,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B101" s="27" t="s">
         <v>869</v>
       </c>
@@ -16732,7 +17085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B102" s="27" t="s">
         <v>868</v>
       </c>
@@ -16749,7 +17102,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B103" s="27" t="s">
         <v>867</v>
       </c>
@@ -16769,7 +17122,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B104" s="27" t="s">
         <v>866</v>
       </c>
@@ -16789,7 +17142,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B105" s="27" t="s">
         <v>865</v>
       </c>
@@ -16803,7 +17156,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B106" s="27" t="s">
         <v>865</v>
       </c>
@@ -16817,7 +17170,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B107" s="27" t="s">
         <v>864</v>
       </c>
@@ -16834,7 +17187,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B108" s="27" t="s">
         <v>864</v>
       </c>
@@ -16851,7 +17204,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B109" s="27" t="s">
         <v>862</v>
       </c>
@@ -16868,7 +17221,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B110" s="27" t="s">
         <v>861</v>
       </c>
@@ -16882,7 +17235,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B111" s="27" t="s">
         <v>860</v>
       </c>
@@ -16899,7 +17252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B112" s="27" t="s">
         <v>859</v>
       </c>
@@ -16916,7 +17269,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B113" s="27" t="s">
         <v>857</v>
       </c>
@@ -16933,7 +17286,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B114" s="27" t="s">
         <v>857</v>
       </c>
@@ -16947,7 +17300,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B115" s="27" t="s">
         <v>856</v>
       </c>
@@ -16964,7 +17317,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B116" s="27" t="s">
         <v>856</v>
       </c>
@@ -16981,7 +17334,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B117" s="27" t="s">
         <v>856</v>
       </c>
@@ -16998,7 +17351,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B118" s="27" t="s">
         <v>854</v>
       </c>
@@ -17012,7 +17365,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B119" s="27" t="s">
         <v>321</v>
       </c>
@@ -17029,7 +17382,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B120" s="27" t="s">
         <v>851</v>
       </c>
@@ -17046,7 +17399,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B121" s="27" t="s">
         <v>850</v>
       </c>
@@ -17063,7 +17416,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B122" s="27" t="s">
         <v>848</v>
       </c>
@@ -17080,7 +17433,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B123" s="27" t="s">
         <v>255</v>
       </c>
@@ -17094,7 +17447,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B124" s="27" t="s">
         <v>255</v>
       </c>
@@ -17111,7 +17464,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B125" s="27" t="s">
         <v>847</v>
       </c>
@@ -17122,7 +17475,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B126" s="27" t="s">
         <v>843</v>
       </c>
@@ -17142,7 +17495,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B127" s="27" t="s">
         <v>843</v>
       </c>
@@ -17159,7 +17512,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B128" s="27" t="s">
         <v>843</v>
       </c>
@@ -17176,7 +17529,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="129" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B129" s="27" t="s">
         <v>843</v>
       </c>
@@ -17193,7 +17546,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B130" s="27" t="s">
         <v>843</v>
       </c>
@@ -17210,7 +17563,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="131" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B131" s="27" t="s">
         <v>842</v>
       </c>
@@ -17224,7 +17577,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="132" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B132" s="27" t="s">
         <v>842</v>
       </c>
@@ -17241,7 +17594,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="133" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B133" s="27" t="s">
         <v>842</v>
       </c>
@@ -17255,7 +17608,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B134" s="27" t="s">
         <v>841</v>
       </c>
@@ -17269,7 +17622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B135" s="27" t="s">
         <v>841</v>
       </c>
@@ -17286,7 +17639,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="136" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B136" s="27" t="s">
         <v>840</v>
       </c>
@@ -17300,7 +17653,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="137" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B137" s="27" t="s">
         <v>839</v>
       </c>
@@ -17317,7 +17670,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B138" s="27" t="s">
         <v>838</v>
       </c>
@@ -17334,7 +17687,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B139" s="27" t="s">
         <v>836</v>
       </c>
@@ -17351,7 +17704,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B140" s="27" t="s">
         <v>836</v>
       </c>
@@ -17368,7 +17721,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="141" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B141" s="27" t="s">
         <v>835</v>
       </c>
@@ -17382,7 +17735,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="142" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B142" s="27" t="s">
         <v>835</v>
       </c>
@@ -17396,7 +17749,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B143" s="27" t="s">
         <v>834</v>
       </c>
@@ -17407,7 +17760,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="144" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B144" s="27" t="s">
         <v>121</v>
       </c>
@@ -17427,7 +17780,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B145" s="27" t="s">
         <v>121</v>
       </c>
@@ -17444,7 +17797,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B146" s="27" t="s">
         <v>832</v>
       </c>
@@ -17461,7 +17814,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B147" s="27" t="s">
         <v>831</v>
       </c>
@@ -17478,7 +17831,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="148" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B148" s="27" t="s">
         <v>830</v>
       </c>
@@ -17495,7 +17848,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="149" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B149" s="27" t="s">
         <v>829</v>
       </c>
@@ -17512,13 +17865,13 @@
         <v>441</v>
       </c>
     </row>
-    <row r="150" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B150" s="27" t="s">
         <v>828</v>
       </c>
       <c r="D150" s="28"/>
     </row>
-    <row r="151" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B151" s="27" t="s">
         <v>827</v>
       </c>
@@ -17535,7 +17888,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="152" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B152" s="27" t="s">
         <v>827</v>
       </c>
@@ -17552,7 +17905,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B153" s="27" t="s">
         <v>824</v>
       </c>
@@ -17569,7 +17922,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B154" s="27" t="s">
         <v>824</v>
       </c>
@@ -17586,7 +17939,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B155" s="27" t="s">
         <v>824</v>
       </c>
@@ -17600,7 +17953,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B156" s="27" t="s">
         <v>824</v>
       </c>
@@ -17617,7 +17970,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B157" s="27" t="s">
         <v>823</v>
       </c>
@@ -17628,7 +17981,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="158" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B158" s="27" t="s">
         <v>822</v>
       </c>
@@ -17642,7 +17995,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="159" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B159" s="27" t="s">
         <v>821</v>
       </c>
@@ -17653,7 +18006,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B160" s="27" t="s">
         <v>819</v>
       </c>
@@ -17670,7 +18023,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B161" s="27" t="s">
         <v>818</v>
       </c>
@@ -17681,7 +18034,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B162" s="27" t="s">
         <v>817</v>
       </c>
@@ -17701,7 +18054,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B163" s="27" t="s">
         <v>815</v>
       </c>
@@ -17718,7 +18071,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B164" s="27" t="s">
         <v>813</v>
       </c>
@@ -17732,7 +18085,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B165" s="27" t="s">
         <v>813</v>
       </c>
@@ -17746,7 +18099,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B166" s="27" t="s">
         <v>811</v>
       </c>
@@ -17757,7 +18110,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B167" s="27" t="s">
         <v>810</v>
       </c>
@@ -17774,7 +18127,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B168" s="27" t="s">
         <v>808</v>
       </c>
@@ -17791,7 +18144,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B169" s="27" t="s">
         <v>808</v>
       </c>
@@ -17808,7 +18161,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B170" s="27" t="s">
         <v>806</v>
       </c>
@@ -17819,7 +18172,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B171" s="27" t="s">
         <v>805</v>
       </c>
@@ -17836,7 +18189,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B172" s="27" t="s">
         <v>804</v>
       </c>
@@ -17853,7 +18206,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B173" s="27" t="s">
         <v>803</v>
       </c>
@@ -17870,7 +18223,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B174" s="27" t="s">
         <v>801</v>
       </c>
@@ -17884,7 +18237,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B175" s="27" t="s">
         <v>800</v>
       </c>
@@ -17898,7 +18251,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B176" s="27" t="s">
         <v>799</v>
       </c>
@@ -17915,7 +18268,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B177" s="27" t="s">
         <v>797</v>
       </c>
@@ -17935,7 +18288,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B178" s="27" t="s">
         <v>797</v>
       </c>
@@ -17955,7 +18308,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B179" s="27" t="s">
         <v>797</v>
       </c>
@@ -17978,7 +18331,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B180" s="27" t="s">
         <v>796</v>
       </c>
@@ -17995,7 +18348,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B181" s="27" t="s">
         <v>325</v>
       </c>
@@ -18018,7 +18371,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B182" s="27" t="s">
         <v>325</v>
       </c>
@@ -18035,7 +18388,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B183" s="27" t="s">
         <v>325</v>
       </c>
@@ -18055,7 +18408,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B184" s="27" t="s">
         <v>325</v>
       </c>
@@ -18072,7 +18425,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B185" s="27" t="s">
         <v>795</v>
       </c>
@@ -18089,7 +18442,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="186" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B186" s="27" t="s">
         <v>793</v>
       </c>
@@ -18106,7 +18459,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="187" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B187" s="27" t="s">
         <v>793</v>
       </c>
@@ -18123,7 +18476,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B188" s="27" t="s">
         <v>791</v>
       </c>
@@ -18140,7 +18493,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B189" s="27" t="s">
         <v>790</v>
       </c>
@@ -18154,7 +18507,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="190" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B190" s="27" t="s">
         <v>789</v>
       </c>
@@ -18168,7 +18521,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="191" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B191" s="27" t="s">
         <v>788</v>
       </c>
@@ -18185,7 +18538,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="192" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B192" s="27" t="s">
         <v>788</v>
       </c>
@@ -18202,7 +18555,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="193" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B193" s="27" t="s">
         <v>787</v>
       </c>
@@ -18222,7 +18575,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="194" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B194" s="27" t="s">
         <v>787</v>
       </c>
@@ -18239,7 +18592,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="195" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B195" s="27" t="s">
         <v>786</v>
       </c>
@@ -18256,7 +18609,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="196" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B196" s="27" t="s">
         <v>784</v>
       </c>
@@ -18273,7 +18626,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="197" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B197" s="27" t="s">
         <v>783</v>
       </c>
@@ -18284,7 +18637,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="198" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B198" s="27" t="s">
         <v>783</v>
       </c>
@@ -18301,7 +18654,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="199" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B199" s="27" t="s">
         <v>782</v>
       </c>
@@ -18312,7 +18665,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="200" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B200" s="54" t="s">
         <v>1063</v>
       </c>
@@ -18335,7 +18688,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="201" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B201" s="27" t="s">
         <v>781</v>
       </c>
@@ -18346,7 +18699,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="202" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B202" s="27" t="s">
         <v>780</v>
       </c>
@@ -18363,7 +18716,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="203" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B203" s="27" t="s">
         <v>780</v>
       </c>
@@ -18380,7 +18733,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="204" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B204" s="27" t="s">
         <v>779</v>
       </c>
@@ -18397,7 +18750,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="205" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B205" s="27" t="s">
         <v>778</v>
       </c>
@@ -18414,7 +18767,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="206" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B206" s="27" t="s">
         <v>778</v>
       </c>
@@ -18431,7 +18784,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B207" s="27" t="s">
         <v>777</v>
       </c>
@@ -18445,7 +18798,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B208" s="27" t="s">
         <v>775</v>
       </c>
@@ -18462,7 +18815,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="209" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B209" s="27" t="s">
         <v>775</v>
       </c>
@@ -18479,7 +18832,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="210" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B210" s="27" t="s">
         <v>774</v>
       </c>
@@ -18493,7 +18846,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B211" s="27" t="s">
         <v>774</v>
       </c>
@@ -18510,7 +18863,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="212" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B212" s="27" t="s">
         <v>774</v>
       </c>
@@ -18527,7 +18880,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="213" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B213" s="27" t="s">
         <v>773</v>
       </c>
@@ -18544,7 +18897,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B214" s="27" t="s">
         <v>772</v>
       </c>
@@ -18561,7 +18914,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="215" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B215" s="27" t="s">
         <v>771</v>
       </c>
@@ -18572,7 +18925,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="216" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B216" s="27" t="s">
         <v>770</v>
       </c>
@@ -18586,7 +18939,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B217" s="27" t="s">
         <v>769</v>
       </c>
@@ -18606,7 +18959,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B218" s="27" t="s">
         <v>768</v>
       </c>
@@ -18623,7 +18976,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="219" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B219" s="27" t="s">
         <v>767</v>
       </c>
@@ -18640,7 +18993,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="220" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B220" s="27" t="s">
         <v>767</v>
       </c>
@@ -18657,7 +19010,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B221" s="27" t="s">
         <v>766</v>
       </c>
@@ -18677,7 +19030,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="222" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B222" s="27" t="s">
         <v>765</v>
       </c>
@@ -18694,7 +19047,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="223" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B223" s="27" t="s">
         <v>763</v>
       </c>
@@ -18714,7 +19067,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="224" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B224" s="27" t="s">
         <v>763</v>
       </c>
@@ -18731,7 +19084,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="225" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B225" s="27" t="s">
         <v>763</v>
       </c>
@@ -18748,7 +19101,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B226" s="27" t="s">
         <v>763</v>
       </c>
@@ -18765,7 +19118,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="227" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B227" s="27" t="s">
         <v>763</v>
       </c>
@@ -18782,7 +19135,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="228" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B228" s="27" t="s">
         <v>762</v>
       </c>
@@ -18799,7 +19152,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="229" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B229" s="27" t="s">
         <v>761</v>
       </c>
@@ -18816,7 +19169,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="230" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B230" s="27" t="s">
         <v>759</v>
       </c>
@@ -18833,7 +19186,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="231" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B231" s="27" t="s">
         <v>758</v>
       </c>
@@ -18850,7 +19203,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="232" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B232" s="27" t="s">
         <v>757</v>
       </c>
@@ -18861,7 +19214,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="233" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B233" s="27" t="s">
         <v>756</v>
       </c>
@@ -18878,7 +19231,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B234" s="27" t="s">
         <v>753</v>
       </c>
@@ -18895,7 +19248,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B235" s="27" t="s">
         <v>750</v>
       </c>
@@ -18912,7 +19265,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="236" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B236" s="27" t="s">
         <v>750</v>
       </c>
@@ -18929,7 +19282,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="237" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B237" s="27" t="s">
         <v>115</v>
       </c>
@@ -18940,7 +19293,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="238" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B238" s="27" t="s">
         <v>748</v>
       </c>
@@ -18957,7 +19310,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="239" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B239" s="27" t="s">
         <v>747</v>
       </c>
@@ -18974,7 +19327,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="240" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B240" s="27" t="s">
         <v>746</v>
       </c>
@@ -18988,7 +19341,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B241" s="27" t="s">
         <v>745</v>
       </c>
@@ -18999,7 +19352,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B242" s="27" t="s">
         <v>744</v>
       </c>
@@ -19016,7 +19369,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B243" s="27" t="s">
         <v>743</v>
       </c>
@@ -19030,7 +19383,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="244" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B244" s="27" t="s">
         <v>742</v>
       </c>
@@ -19041,7 +19394,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="245" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B245" s="27" t="s">
         <v>742</v>
       </c>
@@ -19063,7 +19416,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="246" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B246" s="27" t="s">
         <v>742</v>
       </c>
@@ -19085,7 +19438,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="247" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B247" s="27" t="s">
         <v>741</v>
       </c>
@@ -19107,7 +19460,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="248" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B248" s="27" t="s">
         <v>740</v>
       </c>
@@ -19129,7 +19482,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="249" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B249" s="27" t="s">
         <v>739</v>
       </c>
@@ -19151,7 +19504,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B250" s="27" t="s">
         <v>82</v>
       </c>
@@ -19194,7 +19547,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="251" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B251" s="27" t="s">
         <v>732</v>
       </c>
@@ -19205,7 +19558,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="252" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B252" s="27" t="s">
         <v>731</v>
       </c>
@@ -19227,7 +19580,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="253" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B253" s="27" t="s">
         <v>730</v>
       </c>
@@ -19249,7 +19602,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="254" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B254" s="27" t="s">
         <v>730</v>
       </c>
@@ -19271,7 +19624,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="255" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B255" s="27" t="s">
         <v>729</v>
       </c>
@@ -19293,7 +19646,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="256" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B256" s="27" t="s">
         <v>728</v>
       </c>
@@ -19315,7 +19668,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B257" s="27" t="s">
         <v>727</v>
       </c>
@@ -19337,7 +19690,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="258" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B258" s="27" t="s">
         <v>725</v>
       </c>
@@ -19359,7 +19712,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="259" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B259" s="27" t="s">
         <v>724</v>
       </c>
@@ -19378,7 +19731,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="260" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B260" s="27" t="s">
         <v>724</v>
       </c>
@@ -19400,7 +19753,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="261" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B261" s="27" t="s">
         <v>722</v>
       </c>
@@ -19422,7 +19775,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="262" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B262" s="27" t="s">
         <v>721</v>
       </c>
@@ -19447,7 +19800,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B263" s="27" t="s">
         <v>720</v>
       </c>
@@ -19461,7 +19814,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B264" s="27" t="s">
         <v>719</v>
       </c>
@@ -19483,7 +19836,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="265" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B265" s="27" t="s">
         <v>718</v>
       </c>
@@ -19500,7 +19853,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="266" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B266" s="27" t="s">
         <v>717</v>
       </c>
@@ -19525,7 +19878,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="267" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B267" s="27" t="s">
         <v>716</v>
       </c>
@@ -19547,7 +19900,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="268" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B268" s="54" t="s">
         <v>1066</v>
       </c>
@@ -19571,7 +19924,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="269" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B269" s="54" t="s">
         <v>1062</v>
       </c>
@@ -19605,7 +19958,7 @@
       </c>
       <c r="U269" s="54"/>
     </row>
-    <row r="270" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B270" s="27" t="s">
         <v>715</v>
       </c>
@@ -19627,7 +19980,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="271" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B271" s="27" t="s">
         <v>714</v>
       </c>
@@ -19649,7 +20002,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="272" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B272" s="27" t="s">
         <v>714</v>
       </c>
@@ -19671,7 +20024,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="273" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B273" s="27" t="s">
         <v>713</v>
       </c>
@@ -19693,7 +20046,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="274" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B274" s="27" t="s">
         <v>71</v>
       </c>
@@ -19709,7 +20062,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="275" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B275" s="27" t="s">
         <v>712</v>
       </c>
@@ -19731,7 +20084,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="276" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B276" s="27" t="s">
         <v>711</v>
       </c>
@@ -19750,7 +20103,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="277" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B277" s="27" t="s">
         <v>710</v>
       </c>
@@ -19772,7 +20125,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="278" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B278" s="27" t="s">
         <v>709</v>
       </c>
@@ -19788,7 +20141,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B279" s="27" t="s">
         <v>708</v>
       </c>
@@ -19807,7 +20160,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B280" s="27" t="s">
         <v>707</v>
       </c>
@@ -19829,7 +20182,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="281" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B281" s="27" t="s">
         <v>705</v>
       </c>
@@ -19848,7 +20201,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="282" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B282" s="27" t="s">
         <v>704</v>
       </c>
@@ -19870,7 +20223,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="283" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B283" s="27" t="s">
         <v>703</v>
       </c>
@@ -19892,7 +20245,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="284" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B284" s="27" t="s">
         <v>702</v>
       </c>
@@ -19914,7 +20267,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="285" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B285" s="27" t="s">
         <v>701</v>
       </c>
@@ -19936,7 +20289,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="286" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B286" s="27" t="s">
         <v>700</v>
       </c>
@@ -19953,7 +20306,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="287" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B287" s="27" t="s">
         <v>700</v>
       </c>
@@ -19970,7 +20323,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="288" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B288" s="27" t="s">
         <v>699</v>
       </c>
@@ -19987,7 +20340,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="289" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B289" s="27" t="s">
         <v>698</v>
       </c>
@@ -20004,7 +20357,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="290" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B290" s="27" t="s">
         <v>697</v>
       </c>
@@ -20021,7 +20374,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="291" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B291" s="27" t="s">
         <v>696</v>
       </c>
@@ -20038,7 +20391,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="292" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B292" s="27" t="s">
         <v>695</v>
       </c>
@@ -20049,7 +20402,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="293" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B293" s="27" t="s">
         <v>694</v>
       </c>
@@ -20066,7 +20419,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="294" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B294" s="27" t="s">
         <v>693</v>
       </c>
@@ -20080,7 +20433,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="295" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B295" s="27" t="s">
         <v>692</v>
       </c>
@@ -20097,7 +20450,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="296" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B296" s="27" t="s">
         <v>692</v>
       </c>
@@ -20114,7 +20467,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="297" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B297" s="27" t="s">
         <v>691</v>
       </c>
@@ -20128,7 +20481,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="298" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B298" s="27" t="s">
         <v>691</v>
       </c>
@@ -20142,7 +20495,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="299" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B299" s="27" t="s">
         <v>691</v>
       </c>
@@ -20156,7 +20509,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="300" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B300" s="27" t="s">
         <v>689</v>
       </c>
@@ -20173,7 +20526,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="301" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B301" s="27" t="s">
         <v>688</v>
       </c>
@@ -20187,7 +20540,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="302" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B302" s="27" t="s">
         <v>688</v>
       </c>
@@ -20204,7 +20557,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="303" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B303" s="27" t="s">
         <v>687</v>
       </c>
@@ -20221,7 +20574,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="304" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B304" s="27" t="s">
         <v>686</v>
       </c>
@@ -20235,7 +20588,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="305" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B305" s="27" t="s">
         <v>685</v>
       </c>
@@ -20252,7 +20605,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="306" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B306" s="27" t="s">
         <v>685</v>
       </c>
@@ -20269,7 +20622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="307" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B307" s="27" t="s">
         <v>685</v>
       </c>
@@ -20286,7 +20639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="308" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B308" s="27" t="s">
         <v>685</v>
       </c>
@@ -20300,7 +20653,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B309" s="27" t="s">
         <v>684</v>
       </c>
@@ -20317,7 +20670,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="310" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B310" s="27" t="s">
         <v>683</v>
       </c>
@@ -20331,7 +20684,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="311" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B311" s="27" t="s">
         <v>680</v>
       </c>
@@ -20348,7 +20701,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="312" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B312" s="27" t="s">
         <v>680</v>
       </c>
@@ -20365,7 +20718,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="313" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B313" s="27" t="s">
         <v>680</v>
       </c>
@@ -20382,7 +20735,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="314" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B314" s="27" t="s">
         <v>680</v>
       </c>
@@ -20399,7 +20752,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="315" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B315" s="27" t="s">
         <v>678</v>
       </c>
@@ -20413,7 +20766,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="316" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B316" s="27" t="s">
         <v>677</v>
       </c>
@@ -20424,7 +20777,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="317" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B317" s="27" t="s">
         <v>676</v>
       </c>
@@ -20441,7 +20794,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="318" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B318" s="27" t="s">
         <v>675</v>
       </c>
@@ -20458,7 +20811,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="319" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B319" s="27" t="s">
         <v>674</v>
       </c>
@@ -20475,7 +20828,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="320" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B320" s="27" t="s">
         <v>674</v>
       </c>
@@ -20492,7 +20845,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="321" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B321" s="27" t="s">
         <v>672</v>
       </c>
@@ -20509,7 +20862,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="322" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B322" s="27" t="s">
         <v>670</v>
       </c>
@@ -20526,7 +20879,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="323" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B323" s="27" t="s">
         <v>118</v>
       </c>
@@ -20543,7 +20896,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="324" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B324" s="27" t="s">
         <v>118</v>
       </c>
@@ -20560,7 +20913,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="325" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B325" s="27" t="s">
         <v>669</v>
       </c>
@@ -20577,7 +20930,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="326" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B326" s="27" t="s">
         <v>668</v>
       </c>
@@ -20588,7 +20941,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="327" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B327" s="27" t="s">
         <v>667</v>
       </c>
@@ -20605,7 +20958,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="328" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B328" s="27" t="s">
         <v>665</v>
       </c>
@@ -20616,7 +20969,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="329" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B329" s="27" t="s">
         <v>665</v>
       </c>
@@ -20633,7 +20986,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="330" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B330" s="27" t="s">
         <v>664</v>
       </c>
@@ -20650,7 +21003,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="331" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B331" s="27" t="s">
         <v>663</v>
       </c>
@@ -20667,7 +21020,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="332" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B332" s="27" t="s">
         <v>662</v>
       </c>
@@ -20684,7 +21037,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="333" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B333" s="27" t="s">
         <v>43</v>
       </c>
@@ -20701,7 +21054,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="334" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B334" s="27" t="s">
         <v>43</v>
       </c>
@@ -20715,7 +21068,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="335" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B335" s="27" t="s">
         <v>661</v>
       </c>
@@ -20732,7 +21085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="336" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B336" s="27" t="s">
         <v>661</v>
       </c>
@@ -20749,7 +21102,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="337" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B337" s="27" t="s">
         <v>661</v>
       </c>
@@ -20763,7 +21116,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="338" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B338" s="54" t="s">
         <v>1064</v>
       </c>
@@ -20783,7 +21136,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="339" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B339" s="27" t="s">
         <v>660</v>
       </c>
@@ -20797,7 +21150,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="340" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B340" s="27" t="s">
         <v>332</v>
       </c>
@@ -20814,7 +21167,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="341" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B341" s="27" t="s">
         <v>332</v>
       </c>
@@ -20828,7 +21181,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="342" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B342" s="27" t="s">
         <v>659</v>
       </c>
@@ -20845,7 +21198,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="343" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B343" s="27" t="s">
         <v>658</v>
       </c>
@@ -20859,7 +21212,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="344" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B344" s="27" t="s">
         <v>658</v>
       </c>
@@ -20876,7 +21229,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="345" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B345" s="27" t="s">
         <v>657</v>
       </c>
@@ -20893,7 +21246,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="346" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B346" s="27" t="s">
         <v>657</v>
       </c>
@@ -20910,7 +21263,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="347" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B347" s="27" t="s">
         <v>340</v>
       </c>
@@ -20927,7 +21280,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="348" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B348" s="27" t="s">
         <v>340</v>
       </c>
@@ -20941,7 +21294,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="349" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B349" s="27" t="s">
         <v>340</v>
       </c>
@@ -20955,7 +21308,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="350" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B350" s="27" t="s">
         <v>655</v>
       </c>
@@ -20969,7 +21322,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="351" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B351" s="27" t="s">
         <v>654</v>
       </c>
@@ -20986,7 +21339,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="352" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B352" s="27" t="s">
         <v>654</v>
       </c>
@@ -21003,7 +21356,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="353" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B353" s="27" t="s">
         <v>653</v>
       </c>
@@ -21026,7 +21379,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="354" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B354" s="27" t="s">
         <v>652</v>
       </c>
@@ -21046,7 +21399,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="355" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B355" s="27" t="s">
         <v>652</v>
       </c>
@@ -21063,7 +21416,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="356" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B356" s="27" t="s">
         <v>651</v>
       </c>
@@ -21083,7 +21436,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="357" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B357" s="27" t="s">
         <v>650</v>
       </c>
@@ -21094,7 +21447,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="358" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B358" s="27" t="s">
         <v>649</v>
       </c>
@@ -21111,7 +21464,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="359" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B359" s="27" t="s">
         <v>647</v>
       </c>
@@ -21131,7 +21484,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="360" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B360" s="27" t="s">
         <v>647</v>
       </c>
@@ -21148,7 +21501,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="361" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B361" s="27" t="s">
         <v>646</v>
       </c>
@@ -21159,7 +21512,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="362" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B362" s="27" t="s">
         <v>645</v>
       </c>
@@ -21176,7 +21529,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="363" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B363" s="27" t="s">
         <v>645</v>
       </c>
@@ -21193,7 +21546,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="364" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B364" s="27" t="s">
         <v>644</v>
       </c>
@@ -21210,7 +21563,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="365" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B365" s="27" t="s">
         <v>643</v>
       </c>
@@ -21221,7 +21574,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="366" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B366" s="27" t="s">
         <v>643</v>
       </c>
@@ -21238,7 +21591,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="367" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B367" s="27" t="s">
         <v>641</v>
       </c>
@@ -21252,7 +21605,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="368" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B368" s="54" t="s">
         <v>1065</v>
       </c>
@@ -21272,7 +21625,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="369" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B369" s="27" t="s">
         <v>640</v>
       </c>
@@ -21289,7 +21642,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="370" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B370" s="27" t="s">
         <v>639</v>
       </c>
@@ -21306,7 +21659,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="371" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B371" s="27" t="s">
         <v>639</v>
       </c>
@@ -21323,7 +21676,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="372" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B372" s="27" t="s">
         <v>637</v>
       </c>
@@ -21340,7 +21693,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="373" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B373" s="27" t="s">
         <v>637</v>
       </c>
@@ -21357,7 +21710,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="374" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B374" s="27" t="s">
         <v>637</v>
       </c>
@@ -21374,7 +21727,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="375" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B375" s="27" t="s">
         <v>636</v>
       </c>
@@ -21388,7 +21741,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="376" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B376" s="27" t="s">
         <v>636</v>
       </c>
@@ -21405,7 +21758,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="377" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B377" s="27" t="s">
         <v>635</v>
       </c>
@@ -21416,7 +21769,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="378" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B378" s="27" t="s">
         <v>635</v>
       </c>
@@ -21433,7 +21786,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="379" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B379" s="27" t="s">
         <v>635</v>
       </c>
@@ -21450,7 +21803,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="380" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B380" s="27" t="s">
         <v>634</v>
       </c>
@@ -21467,7 +21820,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="381" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B381" s="27" t="s">
         <v>633</v>
       </c>
@@ -21481,7 +21834,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="382" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B382" s="27" t="s">
         <v>632</v>
       </c>
@@ -21495,7 +21848,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="383" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B383" s="27" t="s">
         <v>631</v>
       </c>
@@ -21512,7 +21865,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="384" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B384" s="27" t="s">
         <v>630</v>
       </c>
@@ -21529,7 +21882,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="385" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B385" s="27" t="s">
         <v>629</v>
       </c>
@@ -21540,7 +21893,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="386" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B386" s="27" t="s">
         <v>430</v>
       </c>
@@ -21557,7 +21910,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B387" s="27" t="s">
         <v>430</v>
       </c>
@@ -21574,7 +21927,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="388" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B388" s="27" t="s">
         <v>430</v>
       </c>
@@ -21591,7 +21944,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="389" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B389" s="27" t="s">
         <v>430</v>
       </c>
@@ -21608,7 +21961,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="390" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B390" s="27" t="s">
         <v>627</v>
       </c>
@@ -21622,7 +21975,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B391" s="27" t="s">
         <v>626</v>
       </c>
@@ -21636,7 +21989,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="392" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B392" s="27" t="s">
         <v>625</v>
       </c>
@@ -21656,7 +22009,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="393" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B393" s="27" t="s">
         <v>625</v>
       </c>
@@ -21673,7 +22026,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="394" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B394" s="27" t="s">
         <v>624</v>
       </c>
@@ -21690,7 +22043,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="395" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B395" s="27" t="s">
         <v>623</v>
       </c>
@@ -21704,7 +22057,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="396" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B396" s="27" t="s">
         <v>623</v>
       </c>
@@ -21721,7 +22074,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="397" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B397" s="27" t="s">
         <v>622</v>
       </c>
@@ -21738,7 +22091,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="398" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B398" s="27" t="s">
         <v>621</v>
       </c>
@@ -21746,7 +22099,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B399" s="27" t="s">
         <v>620</v>
       </c>
@@ -21757,7 +22110,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B400" s="27" t="s">
         <v>619</v>
       </c>
@@ -21768,7 +22121,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="401" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B401" s="27" t="s">
         <v>619</v>
       </c>
@@ -21788,7 +22141,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="402" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B402" s="27" t="s">
         <v>617</v>
       </c>
@@ -21805,7 +22158,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="403" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B403" s="27" t="s">
         <v>614</v>
       </c>
@@ -21822,7 +22175,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="404" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B404" s="27" t="s">
         <v>614</v>
       </c>
@@ -21839,7 +22192,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="405" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B405" s="27" t="s">
         <v>614</v>
       </c>
@@ -21856,7 +22209,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="406" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B406" s="27" t="s">
         <v>613</v>
       </c>
@@ -21864,7 +22217,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="407" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B407" s="27" t="s">
         <v>21</v>
       </c>
@@ -21884,7 +22237,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="408" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B408" s="27" t="s">
         <v>437</v>
       </c>
@@ -21901,7 +22254,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="409" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B409" s="27" t="s">
         <v>34</v>
       </c>
@@ -21915,7 +22268,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="410" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B410" s="27" t="s">
         <v>610</v>
       </c>
@@ -21932,7 +22285,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="411" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B411" s="27" t="s">
         <v>609</v>
       </c>
@@ -21949,7 +22302,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="412" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B412" s="27" t="s">
         <v>608</v>
       </c>
@@ -21966,7 +22319,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="413" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B413" s="27" t="s">
         <v>607</v>
       </c>
@@ -21977,7 +22330,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="414" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B414" s="27" t="s">
         <v>606</v>
       </c>
@@ -21997,7 +22350,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="415" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B415" s="27" t="s">
         <v>605</v>
       </c>
@@ -22014,7 +22367,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="416" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B416" s="27" t="s">
         <v>603</v>
       </c>
@@ -22025,7 +22378,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="417" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B417" s="27" t="s">
         <v>602</v>
       </c>
@@ -22042,7 +22395,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="418" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B418" s="27" t="s">
         <v>602</v>
       </c>
@@ -22059,7 +22412,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="419" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B419" s="27" t="s">
         <v>601</v>
       </c>
@@ -22076,7 +22429,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="420" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B420" s="27" t="s">
         <v>600</v>
       </c>
@@ -22093,7 +22446,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="421" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B421" s="27" t="s">
         <v>599</v>
       </c>
@@ -22110,7 +22463,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="422" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B422" s="27" t="s">
         <v>597</v>
       </c>
@@ -22127,7 +22480,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="423" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B423" s="27" t="s">
         <v>596</v>
       </c>
@@ -22144,7 +22497,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="424" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B424" s="27" t="s">
         <v>593</v>
       </c>
@@ -22158,7 +22511,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="425" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B425" s="27" t="s">
         <v>593</v>
       </c>
@@ -22175,7 +22528,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="426" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B426" s="27" t="s">
         <v>592</v>
       </c>
@@ -22192,7 +22545,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="427" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B427" s="27" t="s">
         <v>591</v>
       </c>
@@ -22209,7 +22562,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="428" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B428" s="27" t="s">
         <v>588</v>
       </c>
@@ -22223,7 +22576,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="429" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B429" s="27" t="s">
         <v>588</v>
       </c>
@@ -22240,7 +22593,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B430" s="27" t="s">
         <v>317</v>
       </c>
@@ -22257,7 +22610,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="431" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B431" s="27" t="s">
         <v>585</v>
       </c>
@@ -22268,7 +22621,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="432" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B432" s="27" t="s">
         <v>584</v>
       </c>
@@ -22282,7 +22635,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B433" s="27" t="s">
         <v>582</v>
       </c>
@@ -22296,7 +22649,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B434" s="27" t="s">
         <v>579</v>
       </c>
@@ -22313,7 +22666,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B435" s="27" t="s">
         <v>579</v>
       </c>
@@ -22330,7 +22683,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B436" s="27" t="s">
         <v>577</v>
       </c>
@@ -22347,7 +22700,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B437" s="27" t="s">
         <v>576</v>
       </c>
@@ -22364,7 +22717,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="438" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B438" s="27" t="s">
         <v>575</v>
       </c>
@@ -22381,7 +22734,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B439" s="27" t="s">
         <v>575</v>
       </c>
@@ -22398,7 +22751,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B440" s="27" t="s">
         <v>573</v>
       </c>
@@ -22409,7 +22762,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="441" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B441" s="27" t="s">
         <v>570</v>
       </c>
@@ -22426,7 +22779,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="442" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B442" s="27" t="s">
         <v>570</v>
       </c>
@@ -22443,7 +22796,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="443" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B443" s="27" t="s">
         <v>568</v>
       </c>
@@ -22457,7 +22810,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B444" s="54" t="s">
         <v>1067</v>
       </c>
@@ -22477,7 +22830,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="445" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B445" s="27" t="s">
         <v>566</v>
       </c>
@@ -22494,7 +22847,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="446" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B446" s="27" t="s">
         <v>566</v>
       </c>
@@ -22511,7 +22864,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B447" s="27" t="s">
         <v>566</v>
       </c>
@@ -22528,7 +22881,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="448" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B448" s="27" t="s">
         <v>564</v>
       </c>
@@ -22545,7 +22898,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="449" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B449" s="27" t="s">
         <v>563</v>
       </c>
@@ -22562,7 +22915,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="450" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B450" s="27" t="s">
         <v>562</v>
       </c>
@@ -22573,7 +22926,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B451" s="27" t="s">
         <v>561</v>
       </c>
@@ -22590,7 +22943,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="452" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B452" s="27" t="s">
         <v>560</v>
       </c>
@@ -22607,7 +22960,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="453" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B453" s="27" t="s">
         <v>559</v>
       </c>
@@ -22621,7 +22974,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="454" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B454" s="27" t="s">
         <v>558</v>
       </c>
@@ -22638,7 +22991,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="455" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B455" s="27" t="s">
         <v>558</v>
       </c>
@@ -22655,7 +23008,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="456" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B456" s="27" t="s">
         <v>558</v>
       </c>
@@ -22669,7 +23022,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="457" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B457" s="27" t="s">
         <v>557</v>
       </c>
@@ -22686,7 +23039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="458" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B458" s="27" t="s">
         <v>557</v>
       </c>
@@ -22703,7 +23056,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="459" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B459" s="27" t="s">
         <v>556</v>
       </c>
@@ -22720,7 +23073,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="460" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B460" s="27" t="s">
         <v>554</v>
       </c>
@@ -22731,7 +23084,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="461" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B461" s="27" t="s">
         <v>554</v>
       </c>
@@ -22748,7 +23101,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="462" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B462" s="27" t="s">
         <v>554</v>
       </c>
@@ -22760,7 +23113,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="463" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B463" s="27" t="s">
         <v>553</v>
       </c>
@@ -22780,7 +23133,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="464" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B464" s="27" t="s">
         <v>553</v>
       </c>
@@ -22800,7 +23153,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="465" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B465" s="27" t="s">
         <v>552</v>
       </c>
@@ -22817,7 +23170,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="466" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B466" s="27" t="s">
         <v>552</v>
       </c>
@@ -22834,7 +23187,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="467" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B467" s="27" t="s">
         <v>552</v>
       </c>
@@ -22851,7 +23204,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="468" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B468" s="27" t="s">
         <v>15</v>
       </c>
@@ -22862,7 +23215,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="469" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B469" s="27" t="s">
         <v>15</v>
       </c>
@@ -22882,7 +23235,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="470" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B470" s="27" t="s">
         <v>551</v>
       </c>
@@ -22899,7 +23252,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="471" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B471" s="27" t="s">
         <v>549</v>
       </c>
@@ -22910,7 +23263,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="472" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B472" s="27" t="s">
         <v>548</v>
       </c>
@@ -22927,7 +23280,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="473" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B473" s="27" t="s">
         <v>546</v>
       </c>
@@ -22938,7 +23291,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="474" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B474" s="27" t="s">
         <v>545</v>
       </c>
@@ -22958,7 +23311,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="475" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B475" s="27" t="s">
         <v>544</v>
       </c>
@@ -22978,7 +23331,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="476" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B476" s="27" t="s">
         <v>543</v>
       </c>
@@ -22995,7 +23348,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="477" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B477" s="27" t="s">
         <v>541</v>
       </c>
@@ -23009,7 +23362,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="478" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B478" s="27" t="s">
         <v>539</v>
       </c>
@@ -23026,7 +23379,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="479" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B479" s="27" t="s">
         <v>537</v>
       </c>
@@ -23034,7 +23387,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="480" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B480" s="27" t="s">
         <v>536</v>
       </c>
@@ -23051,7 +23404,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="481" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B481" s="27" t="s">
         <v>534</v>
       </c>
@@ -23068,7 +23421,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="482" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B482" s="27" t="s">
         <v>533</v>
       </c>
@@ -23085,7 +23438,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="483" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B483" s="27" t="s">
         <v>531</v>
       </c>
@@ -23102,7 +23455,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="484" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B484" s="27" t="s">
         <v>531</v>
       </c>
@@ -23119,7 +23472,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="485" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B485" s="27" t="s">
         <v>529</v>
       </c>
@@ -23139,7 +23492,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="486" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B486" s="27" t="s">
         <v>529</v>
       </c>
@@ -23159,7 +23512,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="487" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B487" s="27" t="s">
         <v>529</v>
       </c>
@@ -23179,7 +23532,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="488" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B488" s="27" t="s">
         <v>527</v>
       </c>
@@ -23196,7 +23549,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="489" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B489" s="27" t="s">
         <v>526</v>
       </c>
@@ -23213,7 +23566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="490" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B490" s="27" t="s">
         <v>525</v>
       </c>
@@ -23230,7 +23583,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="491" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B491" s="27" t="s">
         <v>524</v>
       </c>
@@ -23244,7 +23597,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="492" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B492" s="27" t="s">
         <v>522</v>
       </c>
@@ -23258,7 +23611,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="493" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B493" s="27" t="s">
         <v>521</v>
       </c>
@@ -23275,7 +23628,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="494" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B494" s="27" t="s">
         <v>519</v>
       </c>
@@ -23292,7 +23645,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="495" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B495" s="27" t="s">
         <v>519</v>
       </c>
@@ -23309,7 +23662,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="496" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B496" s="27" t="s">
         <v>519</v>
       </c>
@@ -23326,7 +23679,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="497" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B497" s="27" t="s">
         <v>518</v>
       </c>
@@ -23343,7 +23696,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="498" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B498" s="27" t="s">
         <v>136</v>
       </c>
@@ -23357,7 +23710,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="499" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B499" s="27" t="s">
         <v>516</v>
       </c>
@@ -23374,7 +23727,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="500" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B500" s="27" t="s">
         <v>515</v>
       </c>
@@ -23391,7 +23744,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="501" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B501" s="27" t="s">
         <v>513</v>
       </c>
@@ -23408,7 +23761,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="502" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B502" s="27" t="s">
         <v>513</v>
       </c>
@@ -23422,7 +23775,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="503" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B503" s="27" t="s">
         <v>511</v>
       </c>
@@ -23439,7 +23792,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="504" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B504" s="27" t="s">
         <v>510</v>
       </c>
@@ -23456,7 +23809,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="505" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B505" s="27" t="s">
         <v>507</v>
       </c>
@@ -23473,7 +23826,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="506" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B506" s="27" t="s">
         <v>507</v>
       </c>
@@ -23490,7 +23843,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="507" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B507" s="27" t="s">
         <v>507</v>
       </c>
@@ -23507,7 +23860,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="508" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B508" s="27" t="s">
         <v>420</v>
       </c>
@@ -23521,7 +23874,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="509" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B509" s="27" t="s">
         <v>420</v>
       </c>
@@ -23538,7 +23891,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="510" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B510" s="27" t="s">
         <v>505</v>
       </c>
@@ -23555,7 +23908,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="511" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B511" s="27" t="s">
         <v>504</v>
       </c>
@@ -23572,7 +23925,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="512" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B512" s="27" t="s">
         <v>502</v>
       </c>
@@ -23589,7 +23942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="513" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B513" s="27" t="s">
         <v>501</v>
       </c>
@@ -23609,7 +23962,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="514" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B514" s="27" t="s">
         <v>499</v>
       </c>
@@ -23626,7 +23979,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="515" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B515" s="27" t="s">
         <v>497</v>
       </c>
@@ -23640,7 +23993,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="516" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B516" s="27" t="s">
         <v>496</v>
       </c>
@@ -23657,7 +24010,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="517" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B517" s="27" t="s">
         <v>494</v>
       </c>
@@ -23671,7 +24024,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="518" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B518" s="27" t="s">
         <v>492</v>
       </c>
@@ -23688,7 +24041,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="519" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B519" s="27" t="s">
         <v>490</v>
       </c>
@@ -23705,7 +24058,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="520" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B520" s="27" t="s">
         <v>489</v>
       </c>
@@ -23722,7 +24075,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="521" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B521" s="27" t="s">
         <v>487</v>
       </c>
@@ -23739,7 +24092,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="522" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B522" s="27" t="s">
         <v>485</v>
       </c>
@@ -23756,7 +24109,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="523" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B523" s="27" t="s">
         <v>484</v>
       </c>
@@ -23773,7 +24126,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="524" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B524" s="27" t="s">
         <v>46</v>
       </c>
@@ -23790,7 +24143,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="525" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B525" s="27" t="s">
         <v>481</v>
       </c>
@@ -23807,7 +24160,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="526" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B526" s="27" t="s">
         <v>479</v>
       </c>
@@ -23824,7 +24177,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="527" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B527" s="27" t="s">
         <v>477</v>
       </c>
@@ -23841,7 +24194,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="528" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B528" s="27" t="s">
         <v>476</v>
       </c>
@@ -23858,7 +24211,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="529" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B529" s="27" t="s">
         <v>474</v>
       </c>
@@ -23875,7 +24228,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="530" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B530" s="27" t="s">
         <v>470</v>
       </c>
@@ -23892,7 +24245,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="531" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B531" s="27" t="s">
         <v>470</v>
       </c>
@@ -23909,7 +24262,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="532" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B532" s="27" t="s">
         <v>463</v>
       </c>
@@ -23926,7 +24279,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="533" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B533" s="27" t="s">
         <v>463</v>
       </c>
@@ -23943,7 +24296,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="534" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B534" s="27" t="s">
         <v>463</v>
       </c>
@@ -23960,7 +24313,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="535" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B535" s="27" t="s">
         <v>463</v>
       </c>
@@ -23977,7 +24330,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="536" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B536" s="27" t="s">
         <v>462</v>
       </c>
@@ -23994,7 +24347,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="537" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B537" s="27" t="s">
         <v>461</v>
       </c>
@@ -24011,7 +24364,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="538" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B538" s="27" t="s">
         <v>460</v>
       </c>
@@ -24028,7 +24381,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="539" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B539" s="29" t="s">
         <v>458</v>
       </c>
@@ -24050,7 +24403,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="540" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B540" s="27" t="s">
         <v>456</v>
       </c>
@@ -24061,7 +24414,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="541" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B541" s="27" t="s">
         <v>454</v>
       </c>
@@ -24078,7 +24431,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="542" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B542" s="27" t="s">
         <v>287</v>
       </c>
@@ -24095,7 +24448,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="543" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B543" s="27" t="s">
         <v>452</v>
       </c>
@@ -24112,7 +24465,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="544" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B544" s="27" t="s">
         <v>447</v>
       </c>
@@ -24129,7 +24482,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="545" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B545" s="27" t="s">
         <v>447</v>
       </c>
@@ -24146,7 +24499,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="546" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B546" s="27" t="s">
         <v>446</v>
       </c>
@@ -24163,7 +24516,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="547" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B547" s="27" t="s">
         <v>443</v>
       </c>
@@ -24174,7 +24527,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="548" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B548" s="27" t="s">
         <v>443</v>
       </c>
@@ -24191,7 +24544,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="549" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B549" s="27" t="s">
         <v>439</v>
       </c>
@@ -24208,7 +24561,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="550" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B550" s="27" t="s">
         <v>439</v>
       </c>
@@ -24225,7 +24578,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="551" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B551" s="27" t="s">
         <v>436</v>
       </c>
@@ -24242,7 +24595,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="552" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B552" s="27" t="s">
         <v>73</v>
       </c>
@@ -24259,7 +24612,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="553" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B553" s="27" t="s">
         <v>432</v>
       </c>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128046B8-7750-47FB-AD14-C65B6A90F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7D762-E517-47AF-AEDB-3172E9FC3F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49875" yWindow="1095" windowWidth="29520" windowHeight="18210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47355" yWindow="4245" windowWidth="38700" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="1515">
   <si>
     <t>Name</t>
   </si>
@@ -4609,6 +4609,9 @@
   </si>
   <si>
     <t>Commodification of Compute</t>
+  </si>
+  <si>
+    <t>A Differentially Private Blockchain-Based Approach for Vertical Federated Learning</t>
   </si>
 </sst>
 </file>
@@ -4625,13 +4628,19 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4839,140 +4848,141 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13768,10 +13778,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13906,13 +13916,13 @@
         <v>2407</v>
       </c>
       <c r="C20" s="67">
-        <v>2452</v>
+        <v>7054</v>
       </c>
       <c r="D20" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>1499</v>
+        <v>45483</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -13920,13 +13930,13 @@
         <v>2407</v>
       </c>
       <c r="C21" s="67">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="D21" s="69">
         <v>45476</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -13934,13 +13944,13 @@
         <v>2407</v>
       </c>
       <c r="C22" s="67">
-        <v>2226</v>
+        <v>2442</v>
       </c>
       <c r="D22" s="69">
         <v>45476</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>1501</v>
+      <c r="E22" s="70" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -13948,13 +13958,13 @@
         <v>2407</v>
       </c>
       <c r="C23" s="67">
-        <v>2167</v>
+        <v>2226</v>
       </c>
       <c r="D23" s="69">
         <v>45476</v>
       </c>
-      <c r="E23" s="70" t="s">
-        <v>1502</v>
+      <c r="E23" s="71" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -13962,13 +13972,13 @@
         <v>2407</v>
       </c>
       <c r="C24" s="67">
-        <v>1844</v>
+        <v>2167</v>
       </c>
       <c r="D24" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E24" s="71" t="s">
-        <v>1503</v>
+        <v>45476</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -13976,13 +13986,13 @@
         <v>2407</v>
       </c>
       <c r="C25" s="67">
-        <v>1493</v>
+        <v>1844</v>
       </c>
       <c r="D25" s="69">
         <v>45475</v>
       </c>
-      <c r="E25" s="72" t="s">
-        <v>1504</v>
+      <c r="E25" s="71" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -13990,13 +14000,13 @@
         <v>2407</v>
       </c>
       <c r="C26" s="67">
-        <v>1426</v>
+        <v>1493</v>
       </c>
       <c r="D26" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>1505</v>
+        <v>45475</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -14004,13 +14014,13 @@
         <v>2407</v>
       </c>
       <c r="C27" s="67">
-        <v>1365</v>
+        <v>1426</v>
       </c>
       <c r="D27" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>1506</v>
+        <v>45476</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -14018,13 +14028,13 @@
         <v>2407</v>
       </c>
       <c r="C28" s="67">
-        <v>1204</v>
+        <v>1365</v>
       </c>
       <c r="D28" s="69">
         <v>45475</v>
       </c>
-      <c r="E28" s="75" t="s">
-        <v>1507</v>
+      <c r="E28" s="74" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -14032,13 +14042,13 @@
         <v>2407</v>
       </c>
       <c r="C29" s="67">
-        <v>1176</v>
+        <v>1204</v>
       </c>
       <c r="D29" s="69">
         <v>45475</v>
       </c>
-      <c r="E29" s="76" t="s">
-        <v>1508</v>
+      <c r="E29" s="75" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -14046,13 +14056,13 @@
         <v>2407</v>
       </c>
       <c r="C30" s="67">
-        <v>534</v>
+        <v>1176</v>
       </c>
       <c r="D30" s="69">
-        <v>45473</v>
-      </c>
-      <c r="E30" s="77" t="s">
-        <v>1509</v>
+        <v>45475</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -14060,13 +14070,13 @@
         <v>2407</v>
       </c>
       <c r="C31" s="67">
-        <v>336</v>
+        <v>534</v>
       </c>
       <c r="D31" s="69">
         <v>45473</v>
       </c>
-      <c r="E31" s="78" t="s">
-        <v>1510</v>
+      <c r="E31" s="77" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -14074,27 +14084,27 @@
         <v>2407</v>
       </c>
       <c r="C32" s="67">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="D32" s="69">
-        <v>45430</v>
-      </c>
-      <c r="E32" s="79" t="s">
-        <v>1511</v>
+        <v>45473</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C33" s="67">
-        <v>19489</v>
+        <v>30</v>
       </c>
       <c r="D33" s="69">
-        <v>45471</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>1512</v>
+        <v>45430</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -14102,13 +14112,32 @@
         <v>2406</v>
       </c>
       <c r="C34" s="67">
+        <v>19489</v>
+      </c>
+      <c r="D34" s="69">
+        <v>45471</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C35" s="67">
         <v>19261</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D35" s="69">
         <v>45477</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E35" s="81" t="s">
         <v>1513</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="67">
+        <v>2406</v>
       </c>
     </row>
   </sheetData>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7D762-E517-47AF-AEDB-3172E9FC3F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3569BC-FFB7-4BF8-B346-517F550C46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47355" yWindow="4245" windowWidth="38700" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30720" yWindow="2190" windowWidth="28905" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1519">
   <si>
     <t>Name</t>
   </si>
@@ -4612,6 +4612,18 @@
   </si>
   <si>
     <t>A Differentially Private Blockchain-Based Approach for Vertical Federated Learning</t>
+  </si>
+  <si>
+    <t>Robust Restaking Networks</t>
+  </si>
+  <si>
+    <t>Self-Sovereign Identity for Consented and Content-Based Access to Medical Records using Blockchain</t>
+  </si>
+  <si>
+    <t>Games in Public Announcement: How to Reduce System Losses in Optimistic Blockchain Mechanisms</t>
+  </si>
+  <si>
+    <t>ArXiv</t>
   </si>
 </sst>
 </file>
@@ -4628,13 +4640,19 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4848,140 +4866,141 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4993,6 +5012,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -13778,10 +13798,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13827,158 +13847,155 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="67">
-        <v>2406</v>
-      </c>
-      <c r="C14" s="67">
-        <v>20072</v>
-      </c>
-      <c r="D14" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="45"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="48" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="67">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="C15" s="67">
-        <v>20071</v>
+        <v>641</v>
       </c>
       <c r="D15" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>1494</v>
+        <v>45506</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C16" s="67">
-        <v>19978</v>
+        <v>21785</v>
       </c>
       <c r="D16" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>1495</v>
+        <v>45505</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C17" s="67">
-        <v>19975</v>
+        <v>21559</v>
       </c>
       <c r="D17" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>1496</v>
+        <v>45505</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C18" s="67">
-        <v>19964</v>
+        <v>21413</v>
       </c>
       <c r="D18" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+        <v>45505</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="67">
         <v>2406</v>
       </c>
       <c r="C19" s="67">
-        <v>19730</v>
+        <v>20072</v>
       </c>
       <c r="D19" s="69">
         <v>45474</v>
       </c>
-      <c r="E19" s="70" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="68" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C20" s="67">
-        <v>7054</v>
+        <v>20071</v>
       </c>
       <c r="D20" s="69">
-        <v>45483</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>1514</v>
+        <v>45474</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C21" s="67">
-        <v>2452</v>
+        <v>19978</v>
       </c>
       <c r="D21" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>1499</v>
+        <v>45474</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C22" s="67">
-        <v>2442</v>
+        <v>19975</v>
       </c>
       <c r="D22" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>1500</v>
+        <v>45474</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C23" s="67">
-        <v>2226</v>
+        <v>19964</v>
       </c>
       <c r="D23" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E23" s="71" t="s">
-        <v>1501</v>
+        <v>45474</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C24" s="67">
-        <v>2167</v>
+        <v>19730</v>
       </c>
       <c r="D24" s="69">
-        <v>45476</v>
+        <v>45474</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -13986,13 +14003,13 @@
         <v>2407</v>
       </c>
       <c r="C25" s="67">
-        <v>1844</v>
+        <v>7054</v>
       </c>
       <c r="D25" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>1503</v>
+        <v>45483</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -14000,13 +14017,13 @@
         <v>2407</v>
       </c>
       <c r="C26" s="67">
-        <v>1493</v>
+        <v>2452</v>
       </c>
       <c r="D26" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>1504</v>
+        <v>45476</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -14014,13 +14031,13 @@
         <v>2407</v>
       </c>
       <c r="C27" s="67">
-        <v>1426</v>
+        <v>2442</v>
       </c>
       <c r="D27" s="69">
         <v>45476</v>
       </c>
-      <c r="E27" s="73" t="s">
-        <v>1505</v>
+      <c r="E27" s="70" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -14028,13 +14045,13 @@
         <v>2407</v>
       </c>
       <c r="C28" s="67">
-        <v>1365</v>
+        <v>2226</v>
       </c>
       <c r="D28" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>1506</v>
+        <v>45476</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -14042,13 +14059,13 @@
         <v>2407</v>
       </c>
       <c r="C29" s="67">
-        <v>1204</v>
+        <v>2167</v>
       </c>
       <c r="D29" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>1507</v>
+        <v>45476</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -14056,13 +14073,13 @@
         <v>2407</v>
       </c>
       <c r="C30" s="67">
-        <v>1176</v>
+        <v>1844</v>
       </c>
       <c r="D30" s="69">
         <v>45475</v>
       </c>
-      <c r="E30" s="76" t="s">
-        <v>1508</v>
+      <c r="E30" s="71" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -14070,13 +14087,13 @@
         <v>2407</v>
       </c>
       <c r="C31" s="67">
-        <v>534</v>
+        <v>1493</v>
       </c>
       <c r="D31" s="69">
-        <v>45473</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>1509</v>
+        <v>45475</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -14084,13 +14101,13 @@
         <v>2407</v>
       </c>
       <c r="C32" s="67">
-        <v>336</v>
+        <v>1426</v>
       </c>
       <c r="D32" s="69">
-        <v>45473</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>1510</v>
+        <v>45476</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -14098,45 +14115,115 @@
         <v>2407</v>
       </c>
       <c r="C33" s="67">
-        <v>30</v>
+        <v>1365</v>
       </c>
       <c r="D33" s="69">
-        <v>45430</v>
-      </c>
-      <c r="E33" s="79" t="s">
-        <v>1511</v>
+        <v>45475</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C34" s="67">
-        <v>19489</v>
+        <v>1204</v>
       </c>
       <c r="D34" s="69">
-        <v>45471</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>1512</v>
+        <v>45475</v>
+      </c>
+      <c r="E34" s="75" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C35" s="67">
-        <v>19261</v>
+        <v>1176</v>
       </c>
       <c r="D35" s="69">
-        <v>45477</v>
-      </c>
-      <c r="E35" s="81" t="s">
-        <v>1513</v>
+        <v>45475</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C36" s="67">
+        <v>534</v>
+      </c>
+      <c r="D36" s="69">
+        <v>45473</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C37" s="67">
+        <v>336</v>
+      </c>
+      <c r="D37" s="69">
+        <v>45473</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C38" s="67">
+        <v>30</v>
+      </c>
+      <c r="D38" s="69">
+        <v>45430</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C39" s="67">
+        <v>19489</v>
+      </c>
+      <c r="D39" s="69">
+        <v>45471</v>
+      </c>
+      <c r="E39" s="80" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C40" s="67">
+        <v>19261</v>
+      </c>
+      <c r="D40" s="69">
+        <v>45477</v>
+      </c>
+      <c r="E40" s="81" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="67">
         <v>2406</v>
       </c>
     </row>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3569BC-FFB7-4BF8-B346-517F550C46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD5549-2113-4E71-816A-50E833C183C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30720" yWindow="2190" windowWidth="28905" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26175" yWindow="1080" windowWidth="23250" windowHeight="18870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="1520">
   <si>
     <t>Name</t>
   </si>
@@ -4624,6 +4624,9 @@
   </si>
   <si>
     <t>ArXiv</t>
+  </si>
+  <si>
+    <t>An SMT-LIB Theory of Finite Fields</t>
   </si>
 </sst>
 </file>
@@ -4640,13 +4643,19 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4866,140 +4875,141 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="15" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5011,7 +5021,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -13798,10 +13808,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13914,18 +13924,18 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C19" s="67">
-        <v>20072</v>
+        <v>21169</v>
       </c>
       <c r="D19" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>1493</v>
+        <v>45504</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="20" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -13933,27 +13943,27 @@
         <v>2406</v>
       </c>
       <c r="C20" s="67">
-        <v>20071</v>
+        <v>20072</v>
       </c>
       <c r="D20" s="69">
         <v>45474</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="67">
         <v>2406</v>
       </c>
       <c r="C21" s="67">
-        <v>19978</v>
+        <v>20071</v>
       </c>
       <c r="D21" s="69">
         <v>45474</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -13961,13 +13971,13 @@
         <v>2406</v>
       </c>
       <c r="C22" s="67">
-        <v>19975</v>
+        <v>19978</v>
       </c>
       <c r="D22" s="69">
         <v>45474</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -13975,13 +13985,13 @@
         <v>2406</v>
       </c>
       <c r="C23" s="67">
-        <v>19964</v>
+        <v>19975</v>
       </c>
       <c r="D23" s="69">
         <v>45474</v>
       </c>
-      <c r="E23" s="59" t="s">
-        <v>1497</v>
+      <c r="E23" s="68" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -13989,27 +13999,27 @@
         <v>2406</v>
       </c>
       <c r="C24" s="67">
-        <v>19730</v>
+        <v>19964</v>
       </c>
       <c r="D24" s="69">
         <v>45474</v>
       </c>
-      <c r="E24" s="70" t="s">
-        <v>1498</v>
+      <c r="E24" s="59" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C25" s="67">
-        <v>7054</v>
+        <v>19730</v>
       </c>
       <c r="D25" s="69">
-        <v>45483</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>1514</v>
+        <v>45474</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -14017,13 +14027,13 @@
         <v>2407</v>
       </c>
       <c r="C26" s="67">
-        <v>2452</v>
+        <v>7054</v>
       </c>
       <c r="D26" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>1499</v>
+        <v>45483</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -14031,13 +14041,13 @@
         <v>2407</v>
       </c>
       <c r="C27" s="67">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="D27" s="69">
         <v>45476</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -14045,13 +14055,13 @@
         <v>2407</v>
       </c>
       <c r="C28" s="67">
-        <v>2226</v>
+        <v>2442</v>
       </c>
       <c r="D28" s="69">
         <v>45476</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>1501</v>
+      <c r="E28" s="70" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -14059,13 +14069,13 @@
         <v>2407</v>
       </c>
       <c r="C29" s="67">
-        <v>2167</v>
+        <v>2226</v>
       </c>
       <c r="D29" s="69">
         <v>45476</v>
       </c>
-      <c r="E29" s="70" t="s">
-        <v>1502</v>
+      <c r="E29" s="71" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -14073,13 +14083,13 @@
         <v>2407</v>
       </c>
       <c r="C30" s="67">
-        <v>1844</v>
+        <v>2167</v>
       </c>
       <c r="D30" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>1503</v>
+        <v>45476</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -14087,13 +14097,13 @@
         <v>2407</v>
       </c>
       <c r="C31" s="67">
-        <v>1493</v>
+        <v>1844</v>
       </c>
       <c r="D31" s="69">
         <v>45475</v>
       </c>
-      <c r="E31" s="72" t="s">
-        <v>1504</v>
+      <c r="E31" s="71" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -14101,13 +14111,13 @@
         <v>2407</v>
       </c>
       <c r="C32" s="67">
-        <v>1426</v>
+        <v>1493</v>
       </c>
       <c r="D32" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>1505</v>
+        <v>45475</v>
+      </c>
+      <c r="E32" s="72" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -14115,13 +14125,13 @@
         <v>2407</v>
       </c>
       <c r="C33" s="67">
-        <v>1365</v>
+        <v>1426</v>
       </c>
       <c r="D33" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>1506</v>
+        <v>45476</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -14129,13 +14139,13 @@
         <v>2407</v>
       </c>
       <c r="C34" s="67">
-        <v>1204</v>
+        <v>1365</v>
       </c>
       <c r="D34" s="69">
         <v>45475</v>
       </c>
-      <c r="E34" s="75" t="s">
-        <v>1507</v>
+      <c r="E34" s="74" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -14143,13 +14153,13 @@
         <v>2407</v>
       </c>
       <c r="C35" s="67">
-        <v>1176</v>
+        <v>1204</v>
       </c>
       <c r="D35" s="69">
         <v>45475</v>
       </c>
-      <c r="E35" s="76" t="s">
-        <v>1508</v>
+      <c r="E35" s="75" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -14157,13 +14167,13 @@
         <v>2407</v>
       </c>
       <c r="C36" s="67">
-        <v>534</v>
+        <v>1176</v>
       </c>
       <c r="D36" s="69">
-        <v>45473</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>1509</v>
+        <v>45475</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -14171,13 +14181,13 @@
         <v>2407</v>
       </c>
       <c r="C37" s="67">
-        <v>336</v>
+        <v>534</v>
       </c>
       <c r="D37" s="69">
         <v>45473</v>
       </c>
-      <c r="E37" s="78" t="s">
-        <v>1510</v>
+      <c r="E37" s="77" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -14185,27 +14195,27 @@
         <v>2407</v>
       </c>
       <c r="C38" s="67">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="D38" s="69">
-        <v>45430</v>
-      </c>
-      <c r="E38" s="79" t="s">
-        <v>1511</v>
+        <v>45473</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C39" s="67">
-        <v>19489</v>
+        <v>30</v>
       </c>
       <c r="D39" s="69">
-        <v>45471</v>
-      </c>
-      <c r="E39" s="80" t="s">
-        <v>1512</v>
+        <v>45430</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -14213,17 +14223,31 @@
         <v>2406</v>
       </c>
       <c r="C40" s="67">
-        <v>19261</v>
+        <v>19489</v>
       </c>
       <c r="D40" s="69">
-        <v>45477</v>
-      </c>
-      <c r="E40" s="81" t="s">
-        <v>1513</v>
+        <v>45471</v>
+      </c>
+      <c r="E40" s="80" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C41" s="67">
+        <v>19261</v>
+      </c>
+      <c r="D41" s="69">
+        <v>45477</v>
+      </c>
+      <c r="E41" s="81" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="67">
         <v>2406</v>
       </c>
     </row>

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2EC108-73DC-442B-A399-BB6577F18FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0825F539-7780-4392-BDCA-B4CC828498D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36390" yWindow="2450" windowWidth="31230" windowHeight="17430" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35310" yWindow="1860" windowWidth="27530" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECC" sheetId="12" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="1609">
   <si>
     <t>Name</t>
   </si>
@@ -4801,6 +4801,102 @@
   </si>
   <si>
     <t>Papers</t>
+  </si>
+  <si>
+    <t>nonce</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>often used as the variable for nonce</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>nonce * G</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>often used as "signature", or, s = k^-1(SHA-256(M) + r * priv)</t>
+  </si>
+  <si>
+    <t>revealed nonce attack</t>
+  </si>
+  <si>
+    <t>exposure of a single nonce</t>
+  </si>
+  <si>
+    <t>fault attack</t>
+  </si>
+  <si>
+    <t>nonce vulnerability</t>
+  </si>
+  <si>
+    <t>weak nonce attack</t>
+  </si>
+  <si>
+    <t>LLL method can simplify the computation</t>
+  </si>
+  <si>
+    <t>LLL</t>
+  </si>
+  <si>
+    <t>Lenstra-Lenstra-Lovasz</t>
+  </si>
+  <si>
+    <t>nonce reuse attack</t>
+  </si>
+  <si>
+    <t>SPRNG</t>
+  </si>
+  <si>
+    <t>RFC 6979</t>
+  </si>
+  <si>
+    <t>Breaking ECDSA with Two Aﬃnely Related Nonces. Gilchrist, Buchanan, Finlow-Bates. arXiv 4/18/2025.</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>Distinguished Encoding Rules - signature rules for r, s values</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ECDSA</t>
+  </si>
+  <si>
+    <t>Elliptic Curve Digital Signature Algorithm. Used in every bitcoin transaction signature.</t>
+  </si>
+  <si>
+    <t>lattice reduction</t>
+  </si>
+  <si>
+    <t>32-byte sighash, present in P2PKH inputs with r, s. recomputable from spending transaction.</t>
+  </si>
+  <si>
+    <t>used in the calculation: r = k * g; where k is the nonce, G is the generator point, and r is now the x-coordinate of k * G. k can never be revealed. distinguish from the mining nonce, which is completely different.</t>
+  </si>
+  <si>
+    <t>creates deterministic nonces as hashes of d and z</t>
+  </si>
+  <si>
+    <t>BlockSci</t>
+  </si>
+  <si>
+    <t>Chainquery</t>
+  </si>
+  <si>
+    <t>field with finite elements</t>
+  </si>
+  <si>
+    <t>satisfies field axioms: two operations (usually termed multiplication and addition) satisfying group axioms, but the two operations are abelian and distributive.</t>
   </si>
 </sst>
 </file>
@@ -5030,7 +5126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5040,6 +5136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5060,7 +5162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5215,6 +5317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -24237,10 +24340,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B004891-7E6B-442F-BB2E-43D985E925DA}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24254,266 +24357,401 @@
     <col min="13" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="89" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="89" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="86" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="89" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="89" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="45" t="s">
         <v>1021</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C9" s="45" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="s">
         <v>1019</v>
       </c>
-      <c r="C6" s="45"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="86" t="s">
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="86" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="89" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="39" t="s">
         <v>964</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C13" s="39" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="86" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="86" t="s">
         <v>1544</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C14" s="86" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="86" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="86" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="89" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="39" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
+      <c r="C17" s="89" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="39" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
+      <c r="C18" s="89" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="39" t="s">
         <v>973</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C19" s="39" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="89" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="89" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C21" s="89"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="89" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="39" t="s">
         <v>970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="86" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="86" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="86" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
-        <v>969</v>
-      </c>
-      <c r="J21" s="47">
-        <v>1000000</v>
-      </c>
-      <c r="K21" s="39">
-        <v>2.9110999999999998</v>
-      </c>
-      <c r="L21" s="46">
-        <f>+J21/K21</f>
-        <v>343512.76149908971</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
-        <v>1548</v>
-      </c>
-      <c r="J22" s="47"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J23" s="47">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="39">
-        <v>1.116E-2</v>
-      </c>
-      <c r="L23" s="46">
-        <f>+J23/K23</f>
-        <v>89605.734767025089</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="45" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J24" s="47">
-        <v>10000</v>
-      </c>
-      <c r="K24" s="39">
-        <v>3.8554999999999999E-2</v>
-      </c>
-      <c r="L24" s="46">
-        <f>+J24/K24</f>
-        <v>259369.73155232784</v>
+        <v>1034</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="89" t="s">
-        <v>1556</v>
-      </c>
-      <c r="J25" s="47"/>
-      <c r="L25" s="46"/>
+      <c r="B25" s="45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="89" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="89" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="86" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="86" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="86" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="39" t="s">
+        <v>969</v>
+      </c>
+      <c r="J32" s="47">
+        <v>1000000</v>
+      </c>
+      <c r="K32" s="39">
+        <v>2.9110999999999998</v>
+      </c>
+      <c r="L32" s="46">
+        <f>+J32/K32</f>
+        <v>343512.76149908971</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="86" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J33" s="47"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="89" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J34" s="47"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="45" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J35" s="47">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="39">
+        <v>1.116E-2</v>
+      </c>
+      <c r="L35" s="46">
+        <f>+J35/K35</f>
+        <v>89605.734767025089</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="89" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="89" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J37" s="47"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J38" s="47">
+        <v>10000</v>
+      </c>
+      <c r="K38" s="39">
+        <v>3.8554999999999999E-2</v>
+      </c>
+      <c r="L38" s="46">
+        <f>+J38/K38</f>
+        <v>259369.73155232784</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="89" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="89" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="45" t="s">
         <v>1041</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J41" s="47">
         <v>100000</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K41" s="39">
         <v>0.2213</v>
       </c>
-      <c r="L26" s="46">
-        <f>+J26/K26</f>
+      <c r="L41" s="46">
+        <f>+J41/K41</f>
         <v>451875.28242205153</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="86" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="86" t="s">
         <v>1541</v>
       </c>
-      <c r="J27" s="47">
-        <f>+J21/K21</f>
+      <c r="J42" s="47">
+        <f>+J32/K32</f>
         <v>343512.76149908971</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K42" s="45" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J28" s="47">
-        <f>+J27*60</f>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="89" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J43" s="47">
+        <f>+J42*60</f>
         <v>20610765.689945381</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K43" s="45" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J29" s="47">
-        <f>+J28*60</f>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="89" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J44" s="47">
+        <f>+J43*60</f>
         <v>1236645941.3967228</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K44" s="45" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J30" s="47">
-        <f>+J29*24</f>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J45" s="47">
+        <f>+J44*24</f>
         <v>29679502593.521347</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K45" s="45" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J31" s="47">
-        <f>+J30*365</f>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J46" s="47">
+        <f>+J45*365</f>
         <v>10833018446635.291</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="K46" s="45" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J32" s="47"/>
-      <c r="K32" s="45"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C33" s="45"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="45"/>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J47" s="47"/>
+      <c r="K47" s="45"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C48" s="45"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24528,7 +24766,7 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24567,6 +24805,11 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="86" t="s">
         <v>1507</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">

--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0825F539-7780-4392-BDCA-B4CC828498D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D187AE80-54DE-4A92-BFD1-95156D49D2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35310" yWindow="1860" windowWidth="27530" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21315" yWindow="3225" windowWidth="24000" windowHeight="15315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECC" sheetId="12" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="1609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1673">
   <si>
     <t>Name</t>
   </si>
@@ -4897,6 +4897,209 @@
   </si>
   <si>
     <t>satisfies field axioms: two operations (usually termed multiplication and addition) satisfying group axioms, but the two operations are abelian and distributive.</t>
+  </si>
+  <si>
+    <t>Weierstrass equation</t>
+  </si>
+  <si>
+    <t>Bezout's Theorem</t>
+  </si>
+  <si>
+    <t>Ian Blake, Gadiel Seroussi and Nigel Smart, "Elliptic Curves in Cryptography", Cambridge University Press</t>
+  </si>
+  <si>
+    <t>Neal Koblitz, "Algebraic Aspects of Cryptography", Springer</t>
+  </si>
+  <si>
+    <t>Joseph Silverman, "The Arithmetic of Elliptic Curves", Springer</t>
+  </si>
+  <si>
+    <t>Weil Paring</t>
+  </si>
+  <si>
+    <t>MOV attack</t>
+  </si>
+  <si>
+    <t>https://crypto.stanford.edu/pbc/notes/elliptic/movattack.html</t>
+  </si>
+  <si>
+    <t>discriminant</t>
+  </si>
+  <si>
+    <t>smoothness</t>
+  </si>
+  <si>
+    <t>abelian group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>point at infinity</t>
+  </si>
+  <si>
+    <t>identity element in abelian group</t>
+  </si>
+  <si>
+    <t>chord-tangent method</t>
+  </si>
+  <si>
+    <t>Mordwell-Weil Theorem</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>torsion subgroup</t>
+  </si>
+  <si>
+    <t>Birch and Swinnerton-Dyer conjecture</t>
+  </si>
+  <si>
+    <t>L-function</t>
+  </si>
+  <si>
+    <t>Analogous to the Reimann zeta function but encodes data from reductions modulo p.</t>
+  </si>
+  <si>
+    <t>Tate module</t>
+  </si>
+  <si>
+    <t>Galois representation</t>
+  </si>
+  <si>
+    <t>modular form</t>
+  </si>
+  <si>
+    <t>Fermat's last theorem</t>
+  </si>
+  <si>
+    <t>Taniyama-Shimura-Weil Theorem</t>
+  </si>
+  <si>
+    <t>Every elliptic curve over Q is modular?</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Order of a point. Points of a finite order make up the torsion subgroup.</t>
+  </si>
+  <si>
+    <t>Selmer group</t>
+  </si>
+  <si>
+    <t>Provides upper bound on rank</t>
+  </si>
+  <si>
+    <t>Shafarevich-Tate group</t>
+  </si>
+  <si>
+    <t>measures the failure of the local-global principle, relates to BSD.</t>
+  </si>
+  <si>
+    <t>affine space</t>
+  </si>
+  <si>
+    <t>projective space</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>projective curve</t>
+  </si>
+  <si>
+    <t>Instead of working in A^2 (regular 2D space with x, y coordinates), P^2, projective 2-space has coordinates [X : Y : Z], up to scaling. [ lambdaX : lambdaY : lambdaZ ]</t>
+  </si>
+  <si>
+    <t>a curve defined in projective space. The projective elliptic curve y^2 = x^3 + ax + b is Y^2Z = X^3 + aXZ^2 + bZ^3</t>
+  </si>
+  <si>
+    <t>measures a curves complexity, or number of holes. For smooth projective curves over C, a sphere has genus 0, a torus has genus 1, any surface with g holes has genus g. For algebraic curves, genus can also be defined using differential forms or Riemann-Roch theory. An elliptic curve has genus 1. It's the simplest nontrivial class of curves that supports a group structure.</t>
+  </si>
+  <si>
+    <t>Riemann-Roch theory</t>
+  </si>
+  <si>
+    <t>differential forms</t>
+  </si>
+  <si>
+    <t>Short form: y^2 = x^3 +ax + b, used when characteristic is not 2 or 3. This curve must be nonsingular, which ensures smoothness (no cusps or self-intersections). Long form: y^2 + a_1xy + a_3y = x^3 + a_2x^2 + a_4x + a_6</t>
+  </si>
+  <si>
+    <t>The group of rational points E(Q) on an elliptic curve is finitely generated. E(Q) ~= Z^r (+) T. r is the rank of the curve (number of independent infinite-order points). T is the torsion subgroup (finite part: all points that eventually loop back to the identity). All rational solutions to the elliptic curve can be built from a finite set of generators: some have infinite order, some have finite order.</t>
+  </si>
+  <si>
+    <t>Mazur's Theorem</t>
+  </si>
+  <si>
+    <t>Over Q, Mazur classified all possible torsion subgroups. The only possible torsion subgroups of elliptic curves over Q are cyclic groups or product groups.</t>
+  </si>
+  <si>
+    <t>modular arithmetic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">not distributive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>singular</t>
+  </si>
+  <si>
+    <t>The discriminant exclusion ensures non-singular curves.</t>
+  </si>
+  <si>
+    <t>Hasse's theorem</t>
+  </si>
+  <si>
+    <t>Total number of points is close to p + 1: | E(F_p) - (p + 1) | &lt;= 2 sqrt(p)</t>
+  </si>
+  <si>
+    <t>point order</t>
+  </si>
+  <si>
+    <t>Each point has a finite order n, the smallest n such that nP = point at infinity</t>
+  </si>
+  <si>
+    <t>T C E(Q) is the torsion subgroup, a set of rational points with finite order. A point P is torsion if nP = the identity for some N &gt; 0. These points form a finite abelian group. Every point is a torsion in finite fields.</t>
+  </si>
+  <si>
+    <t>double-and-add</t>
+  </si>
+  <si>
+    <t>Legendre symbol</t>
+  </si>
+  <si>
+    <t>Tonelli-Shanks</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>generator of a cyclic subgroup of the elliptic cuve group</t>
+  </si>
+  <si>
+    <t>COMPRESSED PUBLIC KEYS</t>
+  </si>
+  <si>
+    <t>trace of Frobenius</t>
+  </si>
+  <si>
+    <t>The rank of an elliptic curve is hard to compute. It corresponds to the number of independent points of infinite order. R=0 means all rational points are torsion (finite group). R=1 means there's one direction of infinite rational solutions. R&gt;1 means the curve has more complicated arithmetic. Think of Z^r as a lattice in r-dimensional space. The higher the rank, the more "spread out" the rational solutions are. Rank is not defined over a finite field.</t>
+  </si>
+  <si>
+    <t>Frobenius maps</t>
   </si>
 </sst>
 </file>
@@ -24340,10 +24543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B004891-7E6B-442F-BB2E-43D985E925DA}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24363,395 +24566,705 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
-        <v>971</v>
+      <c r="A2" s="40"/>
+      <c r="B2" s="89" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
       <c r="B3" s="89" t="s">
-        <v>1605</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
       <c r="B4" s="89" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="86" t="s">
-        <v>1535</v>
+      <c r="B6" s="89" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="89" t="s">
-        <v>1593</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="89" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="89" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="89" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="86" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="89" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="89" t="s">
         <v>1596</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C14" s="89" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="45" t="s">
         <v>1021</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C15" s="45" t="s">
         <v>1022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="86" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="89" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
-        <v>964</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="86" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="86" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="89" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="89" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C18" s="45"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="86" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="89" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="89" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
+        <v>964</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="86" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="86" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="89" t="s">
         <v>1586</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C25" s="89" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="89" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C26" s="89"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
         <v>968</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C27" s="89" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="39" t="s">
         <v>967</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C28" s="89" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="89" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C29" s="89"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="89" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="39" t="s">
         <v>973</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C31" s="39" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="89" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="89" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="89" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="89" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="89" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="89" t="s">
         <v>1578</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C36" s="89" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="89" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="89" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="89" t="s">
         <v>1601</v>
       </c>
-      <c r="C21" s="89"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="89" t="s">
+      <c r="C38" s="89"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="89" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C39" s="89"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="89" t="s">
         <v>1590</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C40" s="89" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="89" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="89" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="89" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C43" s="89"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="39" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="45" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="45" t="s">
         <v>1034</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J45" s="45" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="89" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J46" s="45"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="89" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="45" t="s">
         <v>1023</v>
       </c>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="45" t="s">
         <v>1024</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C49" s="45" t="s">
         <v>1025</v>
       </c>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="89" t="s">
+      <c r="J49" s="45"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="89" t="s">
         <v>1577</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C50" s="89" t="s">
         <v>1603</v>
       </c>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="89" t="s">
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="89" t="s">
         <v>1592</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="86" t="s">
+      <c r="C51" s="89"/>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="86" t="s">
         <v>1547</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="86" t="s">
+      <c r="C52" s="45"/>
+      <c r="J52" s="45"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="89" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J53" s="45"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="86" t="s">
         <v>1543</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="86" t="s">
+      <c r="C54" s="45"/>
+      <c r="J54" s="45"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="89" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J55" s="45"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="89" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C56" s="89" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J56" s="45"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="86" t="s">
         <v>1542</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
+      <c r="C57" s="45"/>
+      <c r="J57" s="45"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J58" s="47">
         <v>1000000</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K58" s="39">
         <v>2.9110999999999998</v>
       </c>
-      <c r="L32" s="46">
-        <f>+J32/K32</f>
+      <c r="L58" s="46">
+        <f>+J58/K58</f>
         <v>343512.76149908971</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="86" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="89" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C59" s="89" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J59" s="47"/>
+      <c r="L59" s="46"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="89" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C60" s="89" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J60" s="47"/>
+      <c r="L60" s="46"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="86" t="s">
         <v>1548</v>
       </c>
-      <c r="J33" s="47"/>
-      <c r="L33" s="46"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="89" t="s">
+      <c r="J61" s="47"/>
+      <c r="L61" s="46"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="89" t="s">
         <v>1580</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C62" s="89" t="s">
         <v>1581</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="L34" s="46"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="J62" s="47"/>
+      <c r="L62" s="46"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="45" t="s">
         <v>1027</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C63" s="45" t="s">
         <v>1028</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J63" s="47">
         <v>1000</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K63" s="39">
         <v>1.116E-2</v>
       </c>
-      <c r="L35" s="46">
-        <f>+J35/K35</f>
+      <c r="L63" s="46">
+        <f>+J63/K63</f>
         <v>89605.734767025089</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="89" t="s">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="89" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C64" s="89" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J64" s="47"/>
+      <c r="L64" s="46"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="89" t="s">
         <v>1584</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C65" s="89" t="s">
         <v>1585</v>
       </c>
-      <c r="J36" s="47"/>
-      <c r="L36" s="46"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="89" t="s">
+      <c r="J65" s="47"/>
+      <c r="L65" s="46"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="89" t="s">
         <v>1594</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C66" s="92" t="s">
         <v>1604</v>
       </c>
-      <c r="J37" s="47"/>
-      <c r="L37" s="46"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="J66" s="47"/>
+      <c r="L66" s="46"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="89" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C67" s="89"/>
+      <c r="J67" s="47"/>
+      <c r="L67" s="46"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="45" t="s">
         <v>1026</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J68" s="47">
         <v>10000</v>
       </c>
-      <c r="K38" s="39">
+      <c r="K68" s="39">
         <v>3.8554999999999999E-2</v>
       </c>
-      <c r="L38" s="46">
-        <f>+J38/K38</f>
+      <c r="L68" s="46">
+        <f>+J68/K68</f>
         <v>259369.73155232784</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="89" t="s">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="89" t="s">
         <v>1582</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C69" s="89" t="s">
         <v>1583</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="L39" s="46"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="89" t="s">
+      <c r="J69" s="47"/>
+      <c r="L69" s="46"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="89" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C70" s="89" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J70" s="47"/>
+      <c r="L70" s="46"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="89" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C71" s="89" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J71" s="47"/>
+      <c r="L71" s="46"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="89" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C72" s="89" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J72" s="47"/>
+      <c r="L72" s="46"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="89" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C73" s="89"/>
+      <c r="J73" s="47"/>
+      <c r="L73" s="46"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="89" t="s">
         <v>1556</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="J74" s="47"/>
+      <c r="L74" s="46"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="45" t="s">
         <v>1041</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J75" s="47">
         <v>100000</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K75" s="39">
         <v>0.2213</v>
       </c>
-      <c r="L41" s="46">
-        <f>+J41/K41</f>
+      <c r="L75" s="46">
+        <f>+J75/K75</f>
         <v>451875.28242205153</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="86" t="s">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="89" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C76" s="89" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J76" s="47"/>
+      <c r="L76" s="46"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="89" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J77" s="47"/>
+      <c r="L77" s="46"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="89" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J78" s="47"/>
+      <c r="L78" s="46"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="89" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C79" s="89" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J79" s="47"/>
+      <c r="L79" s="46"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="89" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C80" s="89"/>
+      <c r="J80" s="47"/>
+      <c r="L80" s="46"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="86" t="s">
         <v>1541</v>
       </c>
-      <c r="J42" s="47">
-        <f>+J32/K32</f>
+      <c r="J81" s="47">
+        <f>+J58/K58</f>
         <v>343512.76149908971</v>
       </c>
-      <c r="K42" s="45" t="s">
+      <c r="K81" s="45" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="89" t="s">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="89" t="s">
         <v>1588</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C82" s="89" t="s">
         <v>1589</v>
       </c>
-      <c r="J43" s="47">
-        <f>+J42*60</f>
+      <c r="J82" s="47">
+        <f>+J81*60</f>
         <v>20610765.689945381</v>
       </c>
-      <c r="K43" s="45" t="s">
+      <c r="K82" s="45" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="89" t="s">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="89" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C83" s="89" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J83" s="47"/>
+      <c r="K83" s="45"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="89" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C84" s="89"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="45"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="89" t="s">
         <v>1598</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C85" s="89" t="s">
         <v>1602</v>
       </c>
-      <c r="J44" s="47">
-        <f>+J43*60</f>
+      <c r="J85" s="47">
+        <f>+J82*60</f>
         <v>1236645941.3967228</v>
       </c>
-      <c r="K44" s="45" t="s">
+      <c r="K85" s="45" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J45" s="47">
-        <f>+J44*24</f>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J86" s="47">
+        <f>+J85*24</f>
         <v>29679502593.521347</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K86" s="45" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J46" s="47">
-        <f>+J45*365</f>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J87" s="47">
+        <f>+J86*365</f>
         <v>10833018446635.291</v>
       </c>
-      <c r="K46" s="45" t="s">
+      <c r="K87" s="45" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J47" s="47"/>
-      <c r="K47" s="45"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C48" s="45"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="45"/>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J88" s="47"/>
+      <c r="K88" s="45"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C89" s="45"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24763,10 +25276,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6354E2DB-C972-4B89-8E2C-D7A448EAB318}">
-  <dimension ref="B2:E42"/>
+  <dimension ref="B2:E47"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24777,284 +25290,237 @@
     <col min="5" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="45" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="86" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="48" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="89" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="48" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="45"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="45"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="48" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="67">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="67">
         <v>2408</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C20" s="67">
         <v>641</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D20" s="69">
         <v>45506</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E20" s="83" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="67">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="67">
         <v>2407</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C21" s="67">
         <v>21785</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D21" s="69">
         <v>45505</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E21" s="83" t="s">
         <v>1501</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="67">
-        <v>2407</v>
-      </c>
-      <c r="C17" s="67">
-        <v>21559</v>
-      </c>
-      <c r="D17" s="69">
-        <v>45505</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="67">
-        <v>2407</v>
-      </c>
-      <c r="C18" s="67">
-        <v>21413</v>
-      </c>
-      <c r="D18" s="69">
-        <v>45505</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="67">
-        <v>2407</v>
-      </c>
-      <c r="C19" s="67">
-        <v>21169</v>
-      </c>
-      <c r="D19" s="69">
-        <v>45504</v>
-      </c>
-      <c r="E19" s="85" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="67">
-        <v>2406</v>
-      </c>
-      <c r="C20" s="67">
-        <v>20072</v>
-      </c>
-      <c r="D20" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="67">
-        <v>2406</v>
-      </c>
-      <c r="C21" s="67">
-        <v>20071</v>
-      </c>
-      <c r="D21" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C22" s="67">
-        <v>19978</v>
+        <v>21559</v>
       </c>
       <c r="D22" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>1481</v>
+        <v>45505</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C23" s="67">
-        <v>19975</v>
+        <v>21413</v>
       </c>
       <c r="D23" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>1482</v>
+        <v>45505</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C24" s="67">
-        <v>19964</v>
+        <v>21169</v>
       </c>
       <c r="D24" s="69">
-        <v>45474</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+        <v>45504</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="67">
         <v>2406</v>
       </c>
       <c r="C25" s="67">
-        <v>19730</v>
+        <v>20072</v>
       </c>
       <c r="D25" s="69">
         <v>45474</v>
       </c>
-      <c r="E25" s="70" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="68" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C26" s="67">
-        <v>7054</v>
+        <v>20071</v>
       </c>
       <c r="D26" s="69">
-        <v>45483</v>
-      </c>
-      <c r="E26" s="82" t="s">
-        <v>1500</v>
+        <v>45474</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C27" s="67">
-        <v>2452</v>
+        <v>19978</v>
       </c>
       <c r="D27" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>1485</v>
+        <v>45474</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C28" s="67">
-        <v>2442</v>
+        <v>19975</v>
       </c>
       <c r="D28" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>1486</v>
+        <v>45474</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C29" s="67">
-        <v>2226</v>
+        <v>19964</v>
       </c>
       <c r="D29" s="69">
-        <v>45476</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>1487</v>
+        <v>45474</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="67">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C30" s="67">
-        <v>2167</v>
+        <v>19730</v>
       </c>
       <c r="D30" s="69">
-        <v>45476</v>
+        <v>45474</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -25062,13 +25528,13 @@
         <v>2407</v>
       </c>
       <c r="C31" s="67">
-        <v>1844</v>
+        <v>7054</v>
       </c>
       <c r="D31" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>1489</v>
+        <v>45483</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -25076,13 +25542,13 @@
         <v>2407</v>
       </c>
       <c r="C32" s="67">
-        <v>1493</v>
+        <v>2452</v>
       </c>
       <c r="D32" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>1490</v>
+        <v>45476</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -25090,13 +25556,13 @@
         <v>2407</v>
       </c>
       <c r="C33" s="67">
-        <v>1426</v>
+        <v>2442</v>
       </c>
       <c r="D33" s="69">
         <v>45476</v>
       </c>
-      <c r="E33" s="73" t="s">
-        <v>1491</v>
+      <c r="E33" s="70" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -25104,13 +25570,13 @@
         <v>2407</v>
       </c>
       <c r="C34" s="67">
-        <v>1365</v>
+        <v>2226</v>
       </c>
       <c r="D34" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E34" s="74" t="s">
-        <v>1492</v>
+        <v>45476</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -25118,13 +25584,13 @@
         <v>2407</v>
       </c>
       <c r="C35" s="67">
-        <v>1204</v>
+        <v>2167</v>
       </c>
       <c r="D35" s="69">
-        <v>45475</v>
-      </c>
-      <c r="E35" s="75" t="s">
-        <v>1493</v>
+        <v>45476</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -25132,13 +25598,13 @@
         <v>2407</v>
       </c>
       <c r="C36" s="67">
-        <v>1176</v>
+        <v>1844</v>
       </c>
       <c r="D36" s="69">
         <v>45475</v>
       </c>
-      <c r="E36" s="76" t="s">
-        <v>1494</v>
+      <c r="E36" s="71" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -25146,13 +25612,13 @@
         <v>2407</v>
       </c>
       <c r="C37" s="67">
-        <v>534</v>
+        <v>1493</v>
       </c>
       <c r="D37" s="69">
-        <v>45473</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>1495</v>
+        <v>45475</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -25160,13 +25626,13 @@
         <v>2407</v>
       </c>
       <c r="C38" s="67">
-        <v>336</v>
+        <v>1426</v>
       </c>
       <c r="D38" s="69">
-        <v>45473</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>1496</v>
+        <v>45476</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -25174,45 +25640,115 @@
         <v>2407</v>
       </c>
       <c r="C39" s="67">
-        <v>30</v>
+        <v>1365</v>
       </c>
       <c r="D39" s="69">
-        <v>45430</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>1497</v>
+        <v>45475</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C40" s="67">
-        <v>19489</v>
+        <v>1204</v>
       </c>
       <c r="D40" s="69">
-        <v>45471</v>
-      </c>
-      <c r="E40" s="80" t="s">
-        <v>1498</v>
+        <v>45475</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="67">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C41" s="67">
-        <v>19261</v>
+        <v>1176</v>
       </c>
       <c r="D41" s="69">
-        <v>45477</v>
-      </c>
-      <c r="E41" s="81" t="s">
-        <v>1499</v>
+        <v>45475</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C42" s="67">
+        <v>534</v>
+      </c>
+      <c r="D42" s="69">
+        <v>45473</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C43" s="67">
+        <v>336</v>
+      </c>
+      <c r="D43" s="69">
+        <v>45473</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="67">
+        <v>2407</v>
+      </c>
+      <c r="C44" s="67">
+        <v>30</v>
+      </c>
+      <c r="D44" s="69">
+        <v>45430</v>
+      </c>
+      <c r="E44" s="79" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C45" s="67">
+        <v>19489</v>
+      </c>
+      <c r="D45" s="69">
+        <v>45471</v>
+      </c>
+      <c r="E45" s="80" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="67">
+        <v>2406</v>
+      </c>
+      <c r="C46" s="67">
+        <v>19261</v>
+      </c>
+      <c r="D46" s="69">
+        <v>45477</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="67">
         <v>2406</v>
       </c>
     </row>
